--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26640" yWindow="180" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="26800" yWindow="240" windowWidth="25600" windowHeight="15420" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -268,12 +273,228 @@
   <si>
     <t>Confidentiality</t>
   </si>
+  <si>
+    <t>SERVICE QUALITY</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kritikos et al. (2013) </t>
+  </si>
+  <si>
+    <t>Zeithaml et al. (2001)</t>
+  </si>
+  <si>
+    <t>Cox and Dale (2001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang et al. (2003) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasuraman et al. (2005) </t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Ease of navigation</t>
+  </si>
+  <si>
+    <t>Security/Privacy</t>
+  </si>
+  <si>
+    <t>Ease of navigation; Site aesthetics</t>
+  </si>
+  <si>
+    <t>Ease of use; Aesthetic design</t>
+  </si>
+  <si>
+    <t>Website appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raman et al. (2008) </t>
+  </si>
+  <si>
+    <t>Appearance; Ease of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoo and Donthu (2001) </t>
+  </si>
+  <si>
+    <t>Processing speed</t>
+  </si>
+  <si>
+    <t>Wolfinbarger and Gilly (2003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lociacono et al. (2002) </t>
+  </si>
+  <si>
+    <t>Response time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bressolles (2008) </t>
+  </si>
+  <si>
+    <t>Security/privacy</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>E-S-QUAL</t>
+  </si>
+  <si>
+    <t>WebQual</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>Design; Intuitiveness; Visual appeal</t>
+  </si>
+  <si>
+    <t>WebQual 4</t>
+  </si>
+  <si>
+    <t>e-TailQ</t>
+  </si>
+  <si>
+    <t>Website design</t>
+  </si>
+  <si>
+    <t>Fulfillment/Reliability</t>
+  </si>
+  <si>
+    <t>SITEQUAL</t>
+  </si>
+  <si>
+    <t>NetQual</t>
+  </si>
+  <si>
+    <t>Ease of use; Site design</t>
+  </si>
+  <si>
+    <t>Visual appeal</t>
+  </si>
+  <si>
+    <t>Visual appeal; Intuitiveness</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Ease of Use</t>
+  </si>
+  <si>
+    <t>Time Behavior</t>
+  </si>
+  <si>
+    <t>Aesthetic design</t>
+  </si>
+  <si>
+    <t>Interactive responsiveness</t>
+  </si>
+  <si>
+    <t>Site aesthetics</t>
+  </si>
+  <si>
+    <t>Understanding</t>
+  </si>
+  <si>
+    <t>Prompt delivery</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Fulfillment</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Reliability/fulfillment</t>
+  </si>
+  <si>
+    <t>Site design</t>
+  </si>
+  <si>
+    <t>Functional completeness &amp; Functional correctness</t>
+  </si>
+  <si>
+    <t>ISO/IEC 25010:2011 (Product Quality)</t>
+  </si>
+  <si>
+    <t>e-service quality dimensions</t>
+  </si>
+  <si>
+    <t>Product quality characteristic</t>
+  </si>
+  <si>
+    <t>Quality in use characteristic</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Perceived by user</t>
+  </si>
+  <si>
+    <t>Provided in product</t>
+  </si>
+  <si>
+    <t>Hypethesis</t>
+  </si>
+  <si>
+    <t>Qualitative characteristics (Convenience, Performance, Trustworthiness, Compatibility)</t>
+  </si>
+  <si>
+    <t>Qualitative characteristics (Compatibility, Functionality, Reliability)</t>
+  </si>
+  <si>
+    <t>Software properties</t>
+  </si>
+  <si>
+    <t>Inherent characteristics</t>
+  </si>
+  <si>
+    <t>Assigned characteristics</t>
+  </si>
+  <si>
+    <t>Inspired on figure C.6 - Software properties</t>
+  </si>
+  <si>
+    <t>Document: BS-ISO-IEC 25010:2011</t>
+  </si>
+  <si>
+    <t>Security / Privacy</t>
+  </si>
+  <si>
+    <t>e-service AUES dimentional components</t>
+  </si>
+  <si>
+    <t>e-service Quality dimensions (AUES)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +527,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -314,6 +542,24 @@
       <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -336,7 +582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -415,6 +661,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -432,6 +689,26 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,7 +812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -585,24 +862,206 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +1078,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -630,10 +1092,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,35 +1107,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -682,8 +1150,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -708,6 +1381,82 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -732,6 +1481,82 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1079,114 +1904,114 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" customHeight="1">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="2:9" s="12" customFormat="1" ht="20" customHeight="1">
-      <c r="B3" s="18"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="19" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="2:9" s="23" customFormat="1" ht="20" customHeight="1">
+      <c r="B3" s="29"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
+      <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:9" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="22" t="s">
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="31"/>
+      <c r="C5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
+      <c r="D5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="31"/>
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="24" t="s">
+      <c r="D6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
+      <c r="B7" s="31"/>
+      <c r="C7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1221,90 +2046,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1319,152 +2144,650 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J22"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10">
-      <c r="F5" s="2" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10" ht="45" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="B8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E8" s="44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="D7" s="32" t="s">
+      <c r="F8" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="D8" s="32"/>
-      <c r="E8" s="1" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="D10" s="45"/>
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="D9" s="32"/>
-      <c r="E9" s="1" t="s">
+    <row r="11" spans="2:10">
+      <c r="D11" s="45"/>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="D10" s="32" t="s">
+    <row r="12" spans="2:10">
+      <c r="D12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="D11" s="32"/>
-      <c r="E11" s="1" t="s">
+    <row r="13" spans="2:10">
+      <c r="D13" s="45"/>
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="D12" s="32"/>
-      <c r="E12" s="1" t="s">
+    <row r="14" spans="2:10">
+      <c r="D14" s="45"/>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="D13" s="32" t="s">
+    <row r="15" spans="2:10">
+      <c r="D15" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="D14" s="32"/>
-      <c r="E14" s="1" t="s">
+    <row r="16" spans="2:10">
+      <c r="D16" s="45"/>
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="D15" s="32"/>
-      <c r="E15" s="1" t="s">
+    <row r="17" spans="4:6">
+      <c r="D17" s="45"/>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="D16" s="32"/>
-      <c r="E16" s="1" t="s">
+    <row r="18" spans="4:6">
+      <c r="D18" s="45"/>
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="32"/>
-      <c r="E17" s="1" t="s">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="45"/>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="32" t="s">
+    <row r="20" spans="4:6">
+      <c r="D20" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="32"/>
-      <c r="E19" s="1" t="s">
+    <row r="21" spans="4:6">
+      <c r="D21" s="45"/>
+      <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="32"/>
-      <c r="E20" s="1" t="s">
+    <row r="22" spans="4:6">
+      <c r="D22" s="45"/>
+      <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="32"/>
-      <c r="E21" s="1" t="s">
+    <row r="23" spans="4:6">
+      <c r="D23" s="45"/>
+      <c r="E23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
-      <c r="D22" s="32"/>
-      <c r="E22" s="1" t="s">
+    <row r="24" spans="4:6">
+      <c r="D24" s="45"/>
+      <c r="E24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D18:D22"/>
+  <mergeCells count="6">
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="2:8" ht="24" customHeight="1">
+      <c r="B3" s="36"/>
+      <c r="C3" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="2:8" ht="27" customHeight="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:8" ht="20" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:8" ht="20" customHeight="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" customHeight="1">
+      <c r="B8" s="36"/>
+      <c r="C8" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="2:8" ht="20" customHeight="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="2:8" ht="20" customHeight="1">
+      <c r="B10" s="36"/>
+      <c r="C10" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" ht="20" customHeight="1">
+      <c r="B11" s="36"/>
+      <c r="C11" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="2:8" ht="20" customHeight="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="2:8" ht="20" customHeight="1">
+      <c r="B13" s="36"/>
+      <c r="C13" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="2:8" ht="23" customHeight="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="46"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="48"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="48"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="36"/>
+      <c r="B3" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1473,4 +2796,737 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" ht="22" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="30">
+      <c r="A7" s="36"/>
+      <c r="B7" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="90"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="103"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" ht="30">
+      <c r="A9" s="36"/>
+      <c r="B9" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="30">
+      <c r="A11" s="36"/>
+      <c r="B11" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" ht="30">
+      <c r="A13" s="36"/>
+      <c r="B13" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" ht="37" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="36"/>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" ht="30">
+      <c r="A17" s="36"/>
+      <c r="B17" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="85"/>
+      <c r="K17" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="91"/>
+      <c r="M17" s="36"/>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14">
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="28" customHeight="1">
+      <c r="D8" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" ht="18">
+      <c r="B9" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="H9" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="75"/>
+    </row>
+    <row r="10" spans="2:14" ht="18">
+      <c r="B10" s="47"/>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="2:14" ht="18">
+      <c r="B11" s="47"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="2:14" ht="18">
+      <c r="B12" s="47"/>
+      <c r="C12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="2:14" ht="18">
+      <c r="B13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="H13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="75"/>
+    </row>
+    <row r="14" spans="2:14" ht="18">
+      <c r="B14" s="47"/>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="75"/>
+    </row>
+    <row r="15" spans="2:14" ht="18">
+      <c r="B15" s="47"/>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="75"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H13:H15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" ht="114" customHeight="1">
+      <c r="C5" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="80" customHeight="1">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,12 +9,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -214,18 +213,9 @@
     </r>
   </si>
   <si>
-    <t>e-service Qualitative characteristic</t>
-  </si>
-  <si>
-    <t>e-service Quality dimension</t>
-  </si>
-  <si>
     <t>Approach Reference</t>
   </si>
   <si>
-    <t>Key dimensional component</t>
-  </si>
-  <si>
     <t>Availability</t>
   </si>
   <si>
@@ -253,9 +243,6 @@
     <t>Customer Service</t>
   </si>
   <si>
-    <t>Time Behaviour</t>
-  </si>
-  <si>
     <t>Transaction Capability</t>
   </si>
   <si>
@@ -274,16 +261,7 @@
     <t>Confidentiality</t>
   </si>
   <si>
-    <t>SERVICE QUALITY</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Response Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kritikos et al. (2013) </t>
   </si>
   <si>
     <t>Zeithaml et al. (2001)</t>
@@ -1015,7 +993,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1035,12 +1013,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,80 +1234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1355,6 +1255,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1904,114 +1841,114 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" customHeight="1">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" spans="2:9" s="23" customFormat="1" ht="20" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="30" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26"/>
+    </row>
+    <row r="3" spans="2:9" s="21" customFormat="1" ht="20" customHeight="1">
+      <c r="B3" s="27"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="B4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="31"/>
-      <c r="C5" s="33" t="s">
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="29"/>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="34" t="s">
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="29"/>
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="2:9" s="13" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="31"/>
-      <c r="C7" s="35" t="s">
+      <c r="D6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="B7" s="29"/>
+      <c r="C7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2046,90 +1983,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2144,200 +2081,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="B8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="D9" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="D10" s="45"/>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="D11" s="45"/>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="D12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="D13" s="45"/>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="D14" s="45"/>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="D15" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="D16" s="45"/>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="45"/>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="45"/>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
-      <c r="D19" s="45"/>
-      <c r="E19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="D21" s="45"/>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" s="45"/>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="45"/>
-      <c r="E23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="45"/>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2354,198 +2101,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="38"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="109" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B5" s="37"/>
-      <c r="C5" s="111" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="112" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="37"/>
+      <c r="F5" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="95" t="s">
-        <v>62</v>
+      <c r="B7" s="36"/>
+      <c r="C7" s="82" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" customHeight="1">
+      <c r="B8" s="34"/>
+      <c r="C8" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="36"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="91"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="95" t="s">
-        <v>52</v>
+      <c r="B9" s="34"/>
+      <c r="C9" s="82" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="36"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="95" t="s">
-        <v>53</v>
+      <c r="B11" s="34"/>
+      <c r="C11" s="82" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="36"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" ht="23" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="46"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2588,14 +2335,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="48"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="48"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2616,11 +2363,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2634,155 +2381,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="49" t="s">
+      <c r="E8" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="56" t="s">
+      <c r="F8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="37"/>
+      <c r="E10" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2798,12 +2545,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2825,451 +2572,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" ht="39" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="76" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" ht="30">
+      <c r="A7" s="34"/>
+      <c r="B7" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="99"/>
+      <c r="M7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="96"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" ht="30">
+      <c r="A9" s="34"/>
+      <c r="B9" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97" t="s">
+      <c r="F9" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="102" t="s">
+      <c r="L9" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" ht="30">
+      <c r="A11" s="34"/>
+      <c r="B11" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" ht="30">
+      <c r="A13" s="34"/>
+      <c r="B13" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" ht="37" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="1:15" ht="30">
-      <c r="A7" s="36"/>
-      <c r="B7" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="36"/>
-      <c r="B9" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="102"/>
-      <c r="L10" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="1:15" ht="30">
-      <c r="A11" s="36"/>
-      <c r="B11" s="78" t="s">
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="95" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="34"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="1:15" ht="30">
-      <c r="A13" s="36"/>
-      <c r="B13" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" ht="37" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="95" t="s">
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" ht="30">
+      <c r="A17" s="34"/>
+      <c r="B17" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="94"/>
+      <c r="M17" s="34"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="78" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15" ht="30" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="36"/>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="36"/>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" ht="30">
-      <c r="A17" s="36"/>
-      <c r="B17" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="85"/>
-      <c r="K17" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="36"/>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="36"/>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="36"/>
-      <c r="O19" s="23"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3286,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N15"/>
   <sheetViews>
@@ -3308,15 +3056,15 @@
   <sheetData>
     <row r="7" spans="2:14">
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3324,132 +3072,132 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
-      <c r="D8" s="44" t="s">
-        <v>105</v>
+      <c r="D8" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="47" t="s">
-        <v>103</v>
+      <c r="B9" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="H9" s="47" t="s">
-        <v>103</v>
+      <c r="D9" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="H9" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="75"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="47"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="H10" s="47"/>
+      <c r="D10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="75"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="47"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="H11" s="47"/>
+      <c r="D11" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="47"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="75"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="45" t="s">
+      <c r="D12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="75"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="75"/>
-      <c r="H13" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="75"/>
+      <c r="B13" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="H13" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="47"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="75"/>
-      <c r="H14" s="47"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="75"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="47"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="75"/>
-      <c r="H15" s="47"/>
+        <v>86</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="75"/>
+        <v>86</v>
+      </c>
+      <c r="J15" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3472,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:E9"/>
   <sheetViews>
@@ -3488,33 +3236,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="76" t="s">
-        <v>108</v>
+      <c r="C5" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>109</v>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26800" yWindow="240" windowWidth="25600" windowHeight="15420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -466,6 +467,42 @@
   </si>
   <si>
     <t>e-service Quality dimensions (AUES)</t>
+  </si>
+  <si>
+    <t>2. Quality concept</t>
+  </si>
+  <si>
+    <t>1. Services concept</t>
+  </si>
+  <si>
+    <t>3. Service quality</t>
+  </si>
+  <si>
+    <t>4. Definitions of e-service</t>
+  </si>
+  <si>
+    <t>5. ISO/IEC 25010:2011</t>
+  </si>
+  <si>
+    <t>6. e-service quality</t>
+  </si>
+  <si>
+    <t>7, IT-Services</t>
+  </si>
+  <si>
+    <t>8. E-Commerce</t>
+  </si>
+  <si>
+    <t>9. E-Government</t>
+  </si>
+  <si>
+    <t>10. E-Infrastructure</t>
+  </si>
+  <si>
+    <t>11. E-Services Providers</t>
+  </si>
+  <si>
+    <t>12.Online and traditional business environment</t>
   </si>
 </sst>
 </file>
@@ -790,7 +827,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -992,8 +1029,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1058,12 +1113,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,14 +1122,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,6 +1164,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,8 +1338,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1394,6 +1464,15 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1494,6 +1573,15 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1823,140 +1911,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21" customHeight="1">
-      <c r="B2" s="22"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="2:9" s="21" customFormat="1" ht="20" customHeight="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="30" t="s">
+      <c r="H3" s="105"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="106"/>
+      <c r="B4" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="29"/>
-      <c r="C5" s="31" t="s">
+      <c r="I4" s="106"/>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="106"/>
+      <c r="B5" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="32" t="s">
+      <c r="I5" s="106"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="106"/>
+      <c r="B6" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="2:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="33" t="s">
+      <c r="I6" s="106"/>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="106"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19" t="s">
-        <v>10</v>
-      </c>
+      <c r="I7" s="106"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B2:C3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1983,90 +2095,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="39" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2101,81 +2213,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="36"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="34"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
-      <c r="B4" s="36"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="83" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="36"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="36"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="4"/>
@@ -2186,26 +2298,26 @@
         <v>56</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="34"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="34"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="79" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2216,28 +2328,28 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="34"/>
+      <c r="G10" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="82" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="79" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2250,26 +2362,26 @@
       <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="8"/>
@@ -2278,21 +2390,21 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" ht="23" customHeight="1">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="44"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2335,14 +2447,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="46"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="46"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2381,155 +2493,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="35"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="35"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="35"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="66"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="70" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="35"/>
+      <c r="F9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2549,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -2572,452 +2684,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="78" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="80" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="36"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92" t="s">
+      <c r="E4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="89"/>
+      <c r="I4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="34"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="34"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="82" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="92" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92" t="s">
+      <c r="H6" s="89"/>
+      <c r="I6" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="34"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:15" ht="30">
-      <c r="A7" s="34"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="99"/>
-      <c r="M7" s="34"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="96"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="34"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="34"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94" t="s">
+      <c r="G9" s="91"/>
+      <c r="H9" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94" t="s">
+      <c r="I9" s="91"/>
+      <c r="J9" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="94" t="s">
+      <c r="K9" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="34"/>
+      <c r="L9" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92" t="s">
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92" t="s">
+      <c r="I10" s="89"/>
+      <c r="J10" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="34"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:15" ht="30">
-      <c r="A11" s="34"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="34"/>
+      <c r="D11" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="82" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="34"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:15" ht="30">
-      <c r="A13" s="34"/>
-      <c r="B13" s="76" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="34"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:15" ht="37" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="82" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92" t="s">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92" t="s">
+      <c r="J14" s="89"/>
+      <c r="K14" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="92" t="s">
+      <c r="L14" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="76" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="34"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="30"/>
       <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="82" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="34"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="30"/>
       <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="30">
-      <c r="A17" s="34"/>
-      <c r="B17" s="76" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="98" t="s">
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="91"/>
+      <c r="K17" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="34"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="30"/>
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="34"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="30"/>
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="34"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="30"/>
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3060,9 +3172,9 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="3" t="s">
         <v>100</v>
       </c>
@@ -3072,7 +3184,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3082,122 +3194,122 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="42" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="H9" s="45" t="s">
+      <c r="D9" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="H9" s="42" t="s">
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="45"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="H10" s="45"/>
+      <c r="D10" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="45"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="H11" s="45"/>
+      <c r="D11" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="45"/>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="73"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="43" t="s">
+      <c r="D12" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="H13" s="45" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="H13" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="73"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="45"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="73"/>
-      <c r="H14" s="45"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="45"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="73"/>
+      <c r="J15" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3236,22 +3348,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="71" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="75"/>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="71" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3277,4 +3389,77 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="36" customHeight="1">
+      <c r="B2" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="36" customHeight="1">
+      <c r="B3" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1">
+      <c r="B4" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="36" customHeight="1">
+      <c r="B5" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="36" customHeight="1">
+      <c r="B6" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="36" customHeight="1">
+      <c r="B7" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -827,8 +827,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1363,7 +1365,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="221">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1473,6 +1475,7 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1582,6 +1585,7 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1914,7 +1918,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A11" sqref="A11:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet11 (2)" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="132">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -504,11 +506,41 @@
   <si>
     <t>12.Online and traditional business environment</t>
   </si>
+  <si>
+    <t>E-Service Quality in use</t>
+  </si>
+  <si>
+    <t>Possible values (Fuzzy logic): 0; 0,5; 1</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Correctness</t>
+  </si>
+  <si>
+    <t>Time behavior</t>
+  </si>
+  <si>
+    <t>e-service quality in use</t>
+  </si>
+  <si>
+    <t>e-service product quality</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -577,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +865,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="221">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1049,8 +1087,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1061,6 +1121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,6 +1144,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1364,8 +1431,74 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="221">
+  <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1476,6 +1609,17 @@
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1586,6 +1730,17 @@
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1915,164 +2070,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD19"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="2:10" ht="21" customHeight="1">
+      <c r="B2" s="33"/>
+      <c r="C2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="104" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="25" t="s">
+      <c r="J2" s="33"/>
+    </row>
+    <row r="3" spans="2:10" s="24" customFormat="1" ht="20" customHeight="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="106"/>
-      <c r="B4" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="26" t="s">
+      <c r="I3" s="108"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="B4" s="109"/>
+      <c r="C4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="106"/>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="106"/>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="28" t="s">
+      <c r="J4" s="109"/>
+    </row>
+    <row r="5" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="109"/>
+      <c r="C5" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="109"/>
+    </row>
+    <row r="6" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="106"/>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="29" t="s">
+      <c r="J6" s="109"/>
+    </row>
+    <row r="7" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
+      <c r="B7" s="109"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="106"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="J7" s="109"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="111"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="C14" s="103">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="C15" s="104">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="C16" s="105">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="106"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22">
+        <v>1</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="17">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="C12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C18:H18</xm:f>
+              <xm:sqref>B18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C17:H17</xm:f>
+              <xm:sqref>B17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C16:H16</xm:f>
+              <xm:sqref>B16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C15:H15</xm:f>
+              <xm:sqref>B15</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" negative="1">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!C14:H14</xm:f>
+              <xm:sqref>B14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="112" customWidth="1"/>
+    <col min="18" max="18" width="3.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24">
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2.5</v>
+      </c>
+      <c r="F1">
+        <v>2.5</v>
+      </c>
+      <c r="G1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:24">
+      <c r="D2" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="76">
+        <f>K6</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="76">
+        <f>K10</f>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="76">
+        <f>K13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76">
+        <f>SUM(D3:G3)</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="133">
+        <f>SUM(H3:H5)</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="X3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="81"/>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="76">
+        <f>K6</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76">
+        <f>K13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76">
+        <f>SUM(D4:G4)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="133"/>
+      <c r="J4" s="2"/>
+      <c r="X4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="81"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="131">
+        <f>K18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H5" s="132">
+        <f>SUM(D5:G5)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I5" s="133"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="K6">
+        <f>L7/4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="76">
+        <f>K6</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
+        <f>K13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="131">
+        <f>K18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H7" s="132">
+        <f>SUM(D7:G7)</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="I7" s="133">
+        <f>SUM(H7:H9)</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="K7" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="115">
+        <f>N7+N8+N9+P8+P9</f>
+        <v>20</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="129"/>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="76">
+        <f>K6</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="76">
+        <f>K10</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="76">
+        <f>K13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76">
+        <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="133"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="120">
+        <v>1</v>
+      </c>
+      <c r="O8" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="129"/>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="131">
+        <f>K18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H9" s="132">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I9" s="133"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="125">
+        <f>P8+P9</f>
+        <v>9</v>
+      </c>
+      <c r="O9" s="77"/>
+      <c r="P9" s="119">
+        <f>N11+N12+N14+N15+N16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="K10">
+        <f>L11/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="D11" s="2">
+        <f>SUM(D3:D9)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E3:E9)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SUM(SUM(F3:F9))</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM(G3:G9)</f>
+        <v>5</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="115">
+        <f>N11+N12+P11+P12+R12</f>
+        <v>5</v>
+      </c>
+      <c r="M11" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="120">
+        <v>1</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="2:24" ht="38" customHeight="1">
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="119">
+        <f>P11:P12</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="77"/>
+      <c r="P12" s="119">
+        <f>R12</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="K13">
+        <f>L14/4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="K14" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="115">
+        <f>N14+N15+N16+P15+P16+P17</f>
+        <v>10</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="36" customHeight="1">
+      <c r="K15" s="118"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="124">
+        <v>1</v>
+      </c>
+      <c r="O15" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="25" customHeight="1">
+      <c r="K16" s="118"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="107">
+        <f>P15+P16+P17</f>
+        <v>4</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="122">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="81">
+        <f>T16+T17</f>
+        <v>2</v>
+      </c>
+      <c r="S16" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" ht="25" customHeight="1">
+      <c r="K17" s="118"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="119">
+        <f>R16</f>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="11:20">
+      <c r="K18" s="126">
+        <f>L19/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20">
+      <c r="K19" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="118">
+        <f>N20+N19</f>
+        <v>5</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="120">
+        <v>1</v>
+      </c>
+      <c r="O19" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="11:20">
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="115">
+        <f>P19+P20+P21+P22</f>
+        <v>4</v>
+      </c>
+      <c r="O20" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20">
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="11:20">
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="120">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M15:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="O11:O12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2099,90 +2966,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2217,198 +3084,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="32"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="74" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="30"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
-      <c r="B4" s="32"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="80" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="73" t="s">
+      <c r="E4" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B5" s="31"/>
-      <c r="C5" s="82" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="85" t="s">
+      <c r="F5" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="31"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="32"/>
-      <c r="C6" s="73" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="87" t="s">
+      <c r="D6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="30"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="30"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87" t="s">
+      <c r="D8" s="89"/>
+      <c r="E8" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="88"/>
-      <c r="H8" s="30"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="79" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="73" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="30"/>
+      <c r="G10" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="79" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="30"/>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="30"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="2:8" ht="23" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="41"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2451,14 +3318,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="43"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="43"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2497,155 +3364,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="31"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="64" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="67" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="31"/>
+      <c r="F9" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2688,452 +3555,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="21"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="77" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89" t="s">
+      <c r="E4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89" t="s">
+      <c r="H4" s="92"/>
+      <c r="I4" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="30"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="30"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="89" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89" t="s">
+      <c r="H6" s="92"/>
+      <c r="I6" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="30"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:15" ht="30">
-      <c r="A7" s="30"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="30"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="99"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="30"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="30"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="94"/>
+      <c r="H9" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91" t="s">
+      <c r="I9" s="94"/>
+      <c r="J9" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="30"/>
+      <c r="L9" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89" t="s">
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89" t="s">
+      <c r="I10" s="92"/>
+      <c r="J10" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="30"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:15" ht="30">
-      <c r="A11" s="30"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="30"/>
+      <c r="D11" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="30"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:15" ht="30">
-      <c r="A13" s="30"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91" t="s">
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="30"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="37" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89" t="s">
+      <c r="J14" s="92"/>
+      <c r="K14" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="M14" s="30"/>
+      <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="73" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="30"/>
-      <c r="O15" s="21"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="33"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="79" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="30"/>
-      <c r="O16" s="21"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="1:15" ht="30">
-      <c r="A17" s="30"/>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="94" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="95" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="94"/>
+      <c r="K17" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="30"/>
-      <c r="O17" s="21"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="33"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="O18" s="21"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="33"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="30"/>
-      <c r="O19" s="21"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="33"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3176,9 +4043,9 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="3" t="s">
         <v>100</v>
       </c>
@@ -3188,7 +4055,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="41" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3198,122 +4065,122 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="45" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="H9" s="42" t="s">
+      <c r="D9" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="H9" s="45" t="s">
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="H10" s="42"/>
+      <c r="D10" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="H11" s="42"/>
+      <c r="D11" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="42"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="70"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="39" t="s">
+      <c r="D12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="70"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="70"/>
-      <c r="H13" s="42" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="73"/>
+      <c r="H13" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="70"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="73"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="70"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="73"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="70"/>
+      <c r="J15" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3352,22 +4219,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="74" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="72"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="75"/>
+      <c r="D6" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="74" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3410,50 +4277,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36" customHeight="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="43" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="36" customHeight="1">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="36" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="36" customHeight="1">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="36" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="36" customHeight="1">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="102" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3466,4 +4333,292 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:R22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="5" width="22.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="112" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:18">
+      <c r="R3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="5:18">
+      <c r="R4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="5:18">
+      <c r="E7" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="115">
+        <f>H7+H8+H9+J8+J9</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
+      <c r="E8" s="118"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="120">
+        <v>1</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:18">
+      <c r="E9" s="118"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="125">
+        <f>J8+J9</f>
+        <v>9</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="J9" s="119">
+        <f>H11+H12+H14+H15+H16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="5:18">
+      <c r="E11" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="115">
+        <f>H11+H12+J11+J12+L12</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="120">
+        <v>1</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="123">
+        <v>1</v>
+      </c>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="5:18" ht="38" customHeight="1">
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="119">
+        <f>J11:J12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="119">
+        <f>L12</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18">
+      <c r="E14" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="115">
+        <f>H14+H15+H16+J15+J16+J17</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" ht="36" customHeight="1">
+      <c r="E15" s="118"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="124">
+        <v>1</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18" ht="25" customHeight="1">
+      <c r="E16" s="118"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="107">
+        <f>J15+J16+J17</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="122">
+        <v>1</v>
+      </c>
+      <c r="K16" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="81">
+        <f>N16+N17</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="N16" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" ht="25" customHeight="1">
+      <c r="E17" s="118"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="119">
+        <f>L16</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="118">
+        <f>H20+H19</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="120">
+        <v>1</v>
+      </c>
+      <c r="I19" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="115">
+        <f>J19+J20+J21+J22</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="120">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G15:G17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet11 (2)" sheetId="12" r:id="rId10"/>
+    <sheet name="Best case" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet11 (3)" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="132">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -1110,7 +1111,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1495,6 +1496,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2444,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2940,6 +2944,524 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="O11:O12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Y22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="112" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25">
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2.5</v>
+      </c>
+      <c r="F1">
+        <v>2.5</v>
+      </c>
+      <c r="G1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="D2" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="128" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="130"/>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="B3" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="76">
+        <f>L6</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="76">
+        <f>L10</f>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="76">
+        <f>L13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76">
+        <f>SUM(D3:G3)</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="133">
+        <f>SUM(H3:H5)</f>
+        <v>19.166666666666668</v>
+      </c>
+      <c r="J3" s="134"/>
+      <c r="K3" s="2"/>
+      <c r="Y3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="B4" s="81"/>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="76">
+        <f>L6</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76">
+        <f>L13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76">
+        <f>SUM(D4:G4)</f>
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="133"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="2"/>
+      <c r="Y4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="B5" s="81"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="131">
+        <f>L18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H5" s="132">
+        <f>SUM(D5:G5)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="L6">
+        <f>M7/4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="B7" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="76">
+        <f>L6</f>
+        <v>5</v>
+      </c>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76">
+        <f>L13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="131">
+        <f>L18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H7" s="132">
+        <f>SUM(D7:G7)</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="I7" s="133">
+        <f>SUM(H7:H9)</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="J7" s="134"/>
+      <c r="L7" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="115">
+        <f>O7+O8+O9+Q8+Q9</f>
+        <v>20</v>
+      </c>
+      <c r="N7" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="B8" s="129"/>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="76">
+        <f>L6</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="76">
+        <f>L10</f>
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="76">
+        <f>L13</f>
+        <v>2.5</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76">
+        <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="120">
+        <v>1</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="129"/>
+      <c r="C9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="131">
+        <f>L18</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H9" s="132">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="125">
+        <f>Q8+Q9</f>
+        <v>9</v>
+      </c>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="119">
+        <f>O11+O12+O14+O15+O16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="L10">
+        <f>M11/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="D11" s="2">
+        <f>SUM(D3:D9)</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E3:E9)</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <f>SUM(SUM(F3:F9))</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SUM(G3:G9)</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="115">
+        <f>O11+O12+Q11+Q12+S12</f>
+        <v>5</v>
+      </c>
+      <c r="N11" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="120">
+        <v>1</v>
+      </c>
+      <c r="P11" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="123">
+        <v>1</v>
+      </c>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="2:25" ht="38" customHeight="1">
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="119">
+        <f>Q11:Q12</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="119">
+        <f>S12</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="L13">
+        <f>M14/4</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="L14" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="115">
+        <f>O14+O15+O16+Q15+Q16+Q17</f>
+        <v>10</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="36" customHeight="1">
+      <c r="L15" s="118"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="124">
+        <v>1</v>
+      </c>
+      <c r="P15" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="25" customHeight="1">
+      <c r="L16" s="118"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="107">
+        <f>Q15+Q16+Q17</f>
+        <v>4</v>
+      </c>
+      <c r="P16" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q16" s="122">
+        <v>1</v>
+      </c>
+      <c r="R16" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="81">
+        <f>U16+U17</f>
+        <v>2</v>
+      </c>
+      <c r="T16" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="12:21" ht="25" customHeight="1">
+      <c r="L17" s="118"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="119">
+        <f>S16</f>
+        <v>2</v>
+      </c>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="U17" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="12:21">
+      <c r="L18" s="126">
+        <f>M19/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="12:21">
+      <c r="L19" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="118">
+        <f>O20+O19</f>
+        <v>5</v>
+      </c>
+      <c r="N19" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="120">
+        <v>1</v>
+      </c>
+      <c r="P19" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="12:21">
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="115">
+        <f>Q19+Q20+Q21+Q22</f>
+        <v>4</v>
+      </c>
+      <c r="P20" s="113" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="12:21">
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="12:21">
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="120">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,9 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
-    <sheet name="Best case" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet11 (3)" sheetId="13" r:id="rId11"/>
+    <sheet name="Provider view" sheetId="12" r:id="rId10"/>
+    <sheet name="User view" sheetId="15" r:id="rId11"/>
+    <sheet name="Questionaire" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="182">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -265,6 +266,9 @@
     <t>Confidentiality</t>
   </si>
   <si>
+    <t>Security</t>
+  </si>
+  <si>
     <t>Response Time</t>
   </si>
   <si>
@@ -529,10 +533,157 @@
     <t>e-service product quality</t>
   </si>
   <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>For the e-service user</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>usability</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>For the e-service provider</t>
+  </si>
+  <si>
+    <t>Was it easy to know about the existence of the e-service?</t>
+  </si>
+  <si>
+    <t>The graphic interface was clear and comprehensive?</t>
+  </si>
+  <si>
+    <t>The e-service was fully available without any interruption problems</t>
+  </si>
+  <si>
+    <t>Did you face any response problems?</t>
+  </si>
+  <si>
+    <t>Did you saved time and effort using the e-service?</t>
+  </si>
+  <si>
+    <t>Do you trust on the e-service to use it again?</t>
+  </si>
+  <si>
+    <t>Do you have up to date technology to deliver the e-service?</t>
+  </si>
+  <si>
+    <t>Is the e-service able to work in conjuntion with other e-services of same or different type?</t>
+  </si>
+  <si>
+    <t>Is the e-service able to exchange data or information with other e-services of same or different type?</t>
+  </si>
+  <si>
+    <t>Is the medium for publishing e-services secure? [38]</t>
+  </si>
+  <si>
+    <t>Have you encountered any security problems when accessing the service? [38]</t>
+  </si>
+  <si>
+    <t>Does provider analyze and collect metrics to improve future offereings of its services? [38]</t>
+  </si>
+  <si>
+    <t>Does provider have an up to date incident response plan? [38]</t>
+  </si>
+  <si>
+    <t>Does provider have and up to date disaster recovery plan? [38]</t>
+  </si>
+  <si>
+    <t>Does provider understand the importance of protecting the interest and privacy of its service users? [38]</t>
+  </si>
+  <si>
+    <t>Does provider possess the expertise needed to properly deal with external organizations? [38]</t>
+  </si>
+  <si>
+    <t>Does provider collect, analyze and use metrics related to the performance of its external relationships? [38]</t>
+  </si>
+  <si>
+    <t>Does provider understand the importance of protecting the interest and privacy of its service users?</t>
+  </si>
+  <si>
+    <t>Does provider collect metrics related to the quality of its services and the problems related to it? [38]</t>
+  </si>
+  <si>
+    <t>Does provider take necessry corrective actions for any wrong doing? [38]</t>
+  </si>
+  <si>
+    <t>Does provider assume responsibility for any wrong doing on its part? [38]</t>
+  </si>
+  <si>
+    <t>Is service provider commited to responsiveness when dealing with service problems? [38]</t>
+  </si>
+  <si>
+    <t>Does service provider assume responsibility for any problems causedby its dealings with external third party organizations? [38]</t>
+  </si>
+  <si>
+    <t>Is it convenient?</t>
+  </si>
+  <si>
+    <t>is it available when you need it?</t>
+  </si>
+  <si>
+    <t>Was it easy to learn the functionality?</t>
+  </si>
+  <si>
+    <t>Was the service interrupted when you were using it? [38]</t>
+  </si>
+  <si>
+    <t>Was the service available when you needed it? [38]</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Value for model</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Was it easy to use the e-service?</t>
+  </si>
+  <si>
+    <t>Did you get results in a direct way with minimum number of steps?</t>
+  </si>
+  <si>
+    <t>Did you get correct results?</t>
+  </si>
+  <si>
+    <t>Did you get complete results?</t>
+  </si>
+  <si>
+    <t>completeness</t>
+  </si>
+  <si>
+    <t>correctness</t>
+  </si>
+  <si>
+    <t>Answer (Yes/No/NA)</t>
+  </si>
+  <si>
+    <t>When you had a problem, did you get faster solution?</t>
+  </si>
+  <si>
+    <t>Customer service</t>
   </si>
 </sst>
 </file>
@@ -866,7 +1017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1110,8 +1261,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,6 +1434,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1447,6 +1651,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1498,11 +1711,35 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="293">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1624,6 +1861,31 @@
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1745,6 +2007,31 @@
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2111,7 +2398,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="108" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="33"/>
@@ -2136,12 +2423,12 @@
       <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="108"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="109"/>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="104" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -2158,11 +2445,11 @@
       <c r="I4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="109"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="109"/>
-      <c r="C5" s="104" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="105" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
@@ -2175,11 +2462,11 @@
       <c r="I5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="105" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="106" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -2196,11 +2483,11 @@
       <c r="I6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="109"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="109"/>
-      <c r="C7" s="106"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
         <v>10</v>
@@ -2215,7 +2502,7 @@
       <c r="I7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="109"/>
+      <c r="J7" s="110"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="33"/>
@@ -2237,7 +2524,7 @@
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="111" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2260,10 +2547,10 @@
       <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="111"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="103">
+      <c r="C14" s="104">
         <v>1</v>
       </c>
       <c r="D14" s="15">
@@ -2285,7 +2572,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="104">
+      <c r="C15" s="105">
         <v>1</v>
       </c>
       <c r="D15" s="17"/>
@@ -2303,7 +2590,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="105">
+      <c r="C16" s="106">
         <v>1</v>
       </c>
       <c r="D16" s="19">
@@ -2325,7 +2612,7 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="106"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21">
         <v>1</v>
@@ -2446,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X22"/>
+  <dimension ref="B2:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2462,259 +2749,199 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
     <col min="12" max="12" width="3.83203125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="112" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="113" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>2.5</v>
-      </c>
-      <c r="F1">
-        <v>2.5</v>
-      </c>
-      <c r="G1">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:24">
-      <c r="D2" s="127" t="s">
+    <row r="2" spans="2:22">
+      <c r="D2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="132" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="130" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24">
-      <c r="B3" s="81" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="I2" s="134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="82" t="s">
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76">
-        <f>K6</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="76">
-        <f>K10</f>
+      <c r="D3" s="77">
+        <f>$K$12</f>
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="77">
+        <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F3" s="76">
-        <f>K13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76">
+      <c r="F3" s="77">
+        <f>$K$19</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77">
         <f>SUM(D3:G3)</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="133">
+        <v>9</v>
+      </c>
+      <c r="I3" s="137">
         <f>SUM(H3:H5)</f>
-        <v>19.166666666666668</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="X3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="81"/>
+      <c r="V3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="82"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="76">
-        <f>K6</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76">
-        <f>K13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76">
+      <c r="D4" s="77">
+        <f>$K$12</f>
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77">
+        <f>$K$19</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77">
         <f>SUM(D4:G4)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I4" s="133"/>
+        <v>6.5</v>
+      </c>
+      <c r="I4" s="137"/>
       <c r="J4" s="2"/>
-      <c r="X4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
-      <c r="B5" s="81"/>
+      <c r="V4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="82"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="131">
-        <f>K18</f>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="135">
+        <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H5" s="132">
+      <c r="H5" s="136">
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="133"/>
+      <c r="I5" s="137"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:22">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="K6">
-        <f>L7/4</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24">
-      <c r="B7" s="129" t="s">
-        <v>129</v>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="133" t="s">
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="76">
-        <f>K6</f>
-        <v>5</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76">
-        <f>K13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="131">
-        <f>K18</f>
+      <c r="D7" s="77">
+        <f>$K$12</f>
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77">
+        <f>$K$19</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="135">
+        <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H7" s="132">
+      <c r="H7" s="136">
         <f>SUM(D7:G7)</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="I7" s="133">
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="I7" s="137">
         <f>SUM(H7:H9)</f>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="K7" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="115">
-        <f>N7+N8+N9+P8+P9</f>
-        <v>20</v>
-      </c>
-      <c r="M7" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="129"/>
+        <v>18.833333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="133"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="76">
-        <f>K6</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="76">
-        <f>K10</f>
+      <c r="D8" s="77">
+        <f>$K$12</f>
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="77">
+        <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="76">
-        <f>K13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76">
+      <c r="F8" s="77">
+        <f>$K$19</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77">
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
-        <v>10</v>
-      </c>
-      <c r="I8" s="133"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="120">
-        <v>1</v>
-      </c>
-      <c r="O8" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="129"/>
+        <v>9</v>
+      </c>
+      <c r="I8" s="137"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="133"/>
       <c r="C9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="131">
-        <f>K18</f>
+        <v>87</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="135">
+        <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="136">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I9" s="133"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="125">
-        <f>P8+P9</f>
-        <v>9</v>
-      </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="119">
-        <f>N11+N12+N14+N15+N16</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
-      <c r="K10">
-        <f>L11/2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24">
+      <c r="I9" s="137"/>
+    </row>
+    <row r="10" spans="2:22" ht="4" customHeight="1"/>
+    <row r="11" spans="2:22">
       <c r="D11" s="2">
         <f>SUM(D3:D9)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E3:E9)</f>
@@ -2722,228 +2949,287 @@
       </c>
       <c r="F11" s="2">
         <f>SUM(SUM(F3:F9))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2">
         <f>SUM(G3:G9)</f>
         <v>5</v>
       </c>
-      <c r="K11" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="115">
-        <f>N11+N12+P11+P12+R12</f>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="K12">
+        <f>L13/4</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="20" customHeight="1">
+      <c r="K13" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="119">
+        <f>N13+N14+N15+P14+P15</f>
+        <v>18</v>
+      </c>
+      <c r="M13" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="36" customHeight="1">
+      <c r="K14" s="122"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="124">
+        <v>1</v>
+      </c>
+      <c r="O14" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="25" customHeight="1">
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="123">
+        <f>P14+P15</f>
+        <v>8</v>
+      </c>
+      <c r="O15" s="78"/>
+      <c r="P15" s="123">
+        <f>N17+N18+N20+N21+N22</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="25" customHeight="1">
+      <c r="K16">
+        <f>L17/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20">
+      <c r="K17" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="119">
+        <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M17" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="120">
-        <v>1</v>
-      </c>
-      <c r="O11" s="77" t="s">
+      <c r="N17" s="124">
+        <v>1</v>
+      </c>
+      <c r="O17" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="123">
-        <v>1</v>
-      </c>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="2:24" ht="38" customHeight="1">
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="119">
-        <f>P11:P12</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="119">
-        <f>R12</f>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="80" t="s">
+      <c r="P17" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="11:20" ht="34" customHeight="1">
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="123">
+        <f>P17:P18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="78"/>
+      <c r="P18" s="123">
+        <f>R18</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="K13">
-        <f>L14/4</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="K14" s="118" t="s">
+      <c r="R18" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20">
+      <c r="K19">
+        <f>L20/4</f>
         <v>2</v>
       </c>
-      <c r="L14" s="115">
-        <f>N14+N15+N16+P15+P16+P17</f>
-        <v>10</v>
-      </c>
-      <c r="M14" s="13" t="s">
+    </row>
+    <row r="20" spans="11:20" ht="20" customHeight="1">
+      <c r="K20" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="119">
+        <f>N20+N21+N22+P21+P22+P23</f>
+        <v>8</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="36" customHeight="1">
-      <c r="K15" s="118"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="77" t="s">
+      <c r="N20" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" ht="20" customHeight="1">
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="124">
-        <v>1</v>
-      </c>
-      <c r="O15" s="74" t="s">
+      <c r="N21" s="125">
+        <v>1</v>
+      </c>
+      <c r="O21" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="25" customHeight="1">
-      <c r="K16" s="118"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="107">
-        <f>P15+P16+P17</f>
+      <c r="P21" s="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="11:20" ht="20" customHeight="1">
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="108">
+        <f>P21+P22+P23</f>
+        <v>3</v>
+      </c>
+      <c r="O22" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="126">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="138">
+        <f>T22+T23</f>
+        <v>2</v>
+      </c>
+      <c r="S22" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="11:20" ht="20" customHeight="1">
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="123">
+        <f>R22</f>
+        <v>2</v>
+      </c>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="T23" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="11:20">
+      <c r="K24" s="130">
+        <f>L25/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="11:20" ht="20" customHeight="1">
+      <c r="K25" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" s="119">
+        <f>N26+N25</f>
+        <v>5</v>
+      </c>
+      <c r="M25" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="124">
+        <v>1</v>
+      </c>
+      <c r="O25" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="11:20" ht="20" customHeight="1">
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="119">
+        <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
-      <c r="O16" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="122">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" s="81">
-        <f>T16+T17</f>
-        <v>2</v>
-      </c>
-      <c r="S16" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="T16" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="11:20" ht="25" customHeight="1">
-      <c r="K17" s="118"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="119">
-        <f>R16</f>
-        <v>2</v>
-      </c>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="T17" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="11:20">
-      <c r="K18" s="126">
-        <f>L19/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="11:20">
-      <c r="K19" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" s="118">
-        <f>N20+N19</f>
-        <v>5</v>
-      </c>
-      <c r="M19" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="120">
-        <v>1</v>
-      </c>
-      <c r="O19" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="11:20">
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="115">
-        <f>P19+P20+P21+P22</f>
-        <v>4</v>
-      </c>
-      <c r="O20" s="113" t="s">
+      <c r="O26" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20">
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="113" t="s">
+      <c r="P26" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="11:20" ht="20" customHeight="1">
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="11:20">
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="113" t="s">
+      <c r="P27" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="11:20" ht="20" customHeight="1">
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="120">
+      <c r="P28" s="124">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2957,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y22"/>
+  <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2973,19 +3259,21 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" customWidth="1"/>
-    <col min="13" max="13" width="3.83203125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="3.83203125" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="112" customWidth="1"/>
-    <col min="19" max="19" width="3.83203125" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="113" customWidth="1"/>
+    <col min="18" max="18" width="3.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:22">
       <c r="D1">
         <v>5</v>
       </c>
@@ -2999,469 +3287,799 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="2" spans="2:25">
-      <c r="D2" s="127" t="s">
+    <row r="2" spans="2:22">
+      <c r="D2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="128" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="128" t="s">
+      <c r="E2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="132" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="130"/>
-    </row>
-    <row r="3" spans="2:25">
-      <c r="B3" s="81" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="I2" s="134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="82" t="s">
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76">
-        <f>L6</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="76">
-        <f>L10</f>
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="76">
-        <f>L13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76">
+      <c r="D3" s="77">
+        <v>1</v>
+      </c>
+      <c r="E3" s="77">
+        <v>1</v>
+      </c>
+      <c r="F3" s="77">
+        <v>1</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77">
         <f>SUM(D3:G3)</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="133">
+        <v>3</v>
+      </c>
+      <c r="I3" s="137">
         <f>SUM(H3:H5)</f>
-        <v>19.166666666666668</v>
-      </c>
-      <c r="J3" s="134"/>
-      <c r="K3" s="2"/>
-      <c r="Y3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="81"/>
+        <v>6</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="V3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="82"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="76">
-        <f>L6</f>
-        <v>5</v>
-      </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76">
-        <f>L13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76">
+      <c r="D4" s="77">
+        <v>1</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77">
+        <v>1</v>
+      </c>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77">
         <f>SUM(D4:G4)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="2"/>
-      <c r="Y4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="81"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="137"/>
+      <c r="J4" s="2"/>
+      <c r="V4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="82"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="131">
-        <f>L18</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H5" s="132">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="135">
+        <v>1</v>
+      </c>
+      <c r="H5" s="136">
         <f>SUM(D5:G5)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="137"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:22">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="L6">
-        <f>M7/4</f>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="K7">
+        <f>L8/4</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="76">
-        <f>L6</f>
+    <row r="8" spans="2:22" ht="20" customHeight="1">
+      <c r="K8" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="119">
+        <f>N8+N9+N10+P9+P10</f>
+        <v>20</v>
+      </c>
+      <c r="M8" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="36" customHeight="1">
+      <c r="K9" s="122"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="124">
+        <v>1</v>
+      </c>
+      <c r="O9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="25" customHeight="1">
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="123">
+        <f>P9+P10</f>
+        <v>9</v>
+      </c>
+      <c r="O10" s="78"/>
+      <c r="P10" s="123">
+        <f>N12+N13+N15+N16+N17</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="25" customHeight="1">
+      <c r="K11">
+        <f>L12/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="K12" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="119">
+        <f>N12+N13+P12+P13+R13</f>
         <v>5</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76">
-        <f>L13</f>
+      <c r="M12" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="124">
+        <v>1</v>
+      </c>
+      <c r="O12" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="2:22" ht="34" customHeight="1">
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="123">
+        <f>P12:P13</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="140"/>
+      <c r="P13" s="123">
+        <f>R13</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="K14">
+        <f>L15/4</f>
         <v>2.5</v>
       </c>
-      <c r="G7" s="131">
-        <f>L18</f>
+    </row>
+    <row r="15" spans="2:22" ht="20" customHeight="1">
+      <c r="K15" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="119">
+        <f>N15+N16+N17+P16+P17+P18</f>
+        <v>10</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="20" customHeight="1">
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="125">
+        <v>1</v>
+      </c>
+      <c r="O16" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" ht="20" customHeight="1">
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="108">
+        <f>P16+P17+P18</f>
+        <v>4</v>
+      </c>
+      <c r="O17" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="126">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="138">
+        <f>T17+T18</f>
+        <v>2</v>
+      </c>
+      <c r="S17" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="11:20" ht="20" customHeight="1">
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="123">
+        <f>R17</f>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20">
+      <c r="K19" s="130">
+        <f>L20/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H7" s="132">
-        <f>SUM(D7:G7)</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="I7" s="133">
-        <f>SUM(H7:H9)</f>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="J7" s="134"/>
-      <c r="L7" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="115">
-        <f>O7+O8+O9+Q8+Q9</f>
-        <v>20</v>
-      </c>
-      <c r="N7" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="129"/>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="76">
-        <f>L6</f>
+    </row>
+    <row r="20" spans="11:20" ht="20" customHeight="1">
+      <c r="K20" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="119">
+        <f>N21+N20</f>
         <v>5</v>
       </c>
-      <c r="E8" s="76">
-        <f>L10</f>
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="76">
-        <f>L13</f>
-        <v>2.5</v>
-      </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76">
-        <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
-        <v>10</v>
-      </c>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="120">
-        <v>1</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="129"/>
-      <c r="C9" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="131">
-        <f>L18</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H9" s="132">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="125">
-        <f>Q8+Q9</f>
-        <v>9</v>
-      </c>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="119">
-        <f>O11+O12+O14+O15+O16</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="L10">
-        <f>M11/2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25">
-      <c r="D11" s="2">
-        <f>SUM(D3:D9)</f>
-        <v>20</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(E3:E9)</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <f>SUM(SUM(F3:F9))</f>
-        <v>10</v>
-      </c>
-      <c r="G11" s="2">
-        <f>SUM(G3:G9)</f>
-        <v>5</v>
-      </c>
-      <c r="L11" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="115">
-        <f>O11+O12+Q11+Q12+S12</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="120">
-        <v>1</v>
-      </c>
-      <c r="P11" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="123">
-        <v>1</v>
-      </c>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="2:25" ht="38" customHeight="1">
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="119">
-        <f>Q11:Q12</f>
-        <v>1</v>
-      </c>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="119">
-        <f>S12</f>
-        <v>1</v>
-      </c>
-      <c r="R12" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="L13">
-        <f>M14/4</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25">
-      <c r="L14" s="118" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="115">
-        <f>O14+O15+O16+Q15+Q16+Q17</f>
-        <v>10</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" ht="36" customHeight="1">
-      <c r="L15" s="118"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="124">
-        <v>1</v>
-      </c>
-      <c r="P15" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" ht="25" customHeight="1">
-      <c r="L16" s="118"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="107">
-        <f>Q15+Q16+Q17</f>
+      <c r="M20" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="124">
+        <v>1</v>
+      </c>
+      <c r="O20" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" ht="20" customHeight="1">
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="119">
+        <f>P20+P21+P22+P23</f>
         <v>4</v>
       </c>
-      <c r="P16" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="122">
-        <v>1</v>
-      </c>
-      <c r="R16" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" s="81">
-        <f>U16+U17</f>
-        <v>2</v>
-      </c>
-      <c r="T16" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="U16" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="12:21" ht="25" customHeight="1">
-      <c r="L17" s="118"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="119">
-        <f>S16</f>
-        <v>2</v>
-      </c>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="U17" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="12:21">
-      <c r="L18" s="126">
-        <f>M19/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="12:21">
-      <c r="L19" s="118" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="118">
-        <f>O20+O19</f>
-        <v>5</v>
-      </c>
-      <c r="N19" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="120">
-        <v>1</v>
-      </c>
-      <c r="P19" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="12:21">
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="115">
-        <f>Q19+Q20+Q21+Q22</f>
-        <v>4</v>
-      </c>
-      <c r="P20" s="113" t="s">
+      <c r="O21" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="12:21">
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="113" t="s">
+      <c r="P21" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="11:20" ht="20" customHeight="1">
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="12:21">
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="113" t="s">
+      <c r="P22" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="11:20" ht="20" customHeight="1">
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="120">
+      <c r="P23" s="124">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="P11:P12"/>
+  <mergeCells count="21">
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="O12:O13"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" ref="C8:C14" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3616,102 +4234,102 @@
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
       <c r="B3" s="33"/>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+        <v>111</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
       <c r="B4" s="35"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="76" t="s">
+      <c r="E4" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="77" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="B5" s="34"/>
-      <c r="C5" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="87" t="s">
+      <c r="C5" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="89" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>49</v>
       </c>
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
       <c r="B6" s="35"/>
-      <c r="C6" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="89" t="s">
+      <c r="C6" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="E6" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
       <c r="B7" s="35"/>
-      <c r="C7" s="82" t="s">
-        <v>55</v>
+      <c r="C7" s="83" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="33"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
       <c r="B8" s="33"/>
-      <c r="C8" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="90" t="s">
+      <c r="C8" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="91"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="92"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
       <c r="B9" s="33"/>
-      <c r="C9" s="82" t="s">
-        <v>45</v>
+      <c r="C9" s="83" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
@@ -3725,25 +4343,25 @@
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
       <c r="B10" s="33"/>
-      <c r="C10" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="90" t="s">
+      <c r="C10" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="92" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
       <c r="B11" s="33"/>
-      <c r="C11" s="82" t="s">
-        <v>46</v>
+      <c r="C11" s="83" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>27</v>
@@ -3759,27 +4377,27 @@
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
       <c r="B12" s="33"/>
-      <c r="C12" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="90"/>
+      <c r="C12" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="91"/>
       <c r="G12" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="33"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
       <c r="B13" s="33"/>
-      <c r="C13" s="82" t="s">
-        <v>53</v>
+      <c r="C13" s="83" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -3790,14 +4408,14 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3840,14 +4458,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3896,125 +4514,125 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="33"/>
-      <c r="B3" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
       <c r="A4" s="33"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="54" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65" t="s">
+      <c r="B5" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="34"/>
-      <c r="B6" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="34"/>
-      <c r="B7" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="34"/>
-      <c r="B8" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>49</v>
+      <c r="E8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>50</v>
       </c>
       <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="B9" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="51" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="34"/>
-      <c r="B10" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60" t="s">
+      <c r="B10" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>49</v>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>50</v>
       </c>
       <c r="G10" s="34"/>
     </row>
@@ -4093,353 +4711,353 @@
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
       <c r="A2" s="33"/>
-      <c r="B2" s="81" t="s">
-        <v>109</v>
+      <c r="B2" s="82" t="s">
+        <v>110</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
       <c r="M2" s="33"/>
       <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" s="33"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="74" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="E3" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>93</v>
+      <c r="I3" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>94</v>
       </c>
       <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="33"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="93" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93" t="s">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
       <c r="A5" s="33"/>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="A6" s="33"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:15" ht="30">
       <c r="A7" s="33"/>
-      <c r="B7" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97" t="s">
+      <c r="D7" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="95"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="97" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="99"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93" t="s">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:15" ht="30">
       <c r="A9" s="33"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="94" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="97" t="s">
+      <c r="C9" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="98" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:15" ht="30">
       <c r="A11" s="33"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="97" t="s">
+      <c r="C11" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="99"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="100"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:15" ht="30">
       <c r="A13" s="33"/>
-      <c r="B13" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="97" t="s">
+      <c r="B13" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="98" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="37" customHeight="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="92" t="s">
-        <v>92</v>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="93" t="s">
+        <v>93</v>
       </c>
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="33"/>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="33"/>
       <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="93" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="94" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="33"/>
@@ -4447,43 +5065,43 @@
     </row>
     <row r="17" spans="1:15" ht="30">
       <c r="A17" s="33"/>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="97" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="95"/>
       <c r="M17" s="33"/>
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="93" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="94" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="33"/>
@@ -4491,19 +5109,19 @@
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99" t="s">
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="33"/>
@@ -4561,15 +5179,15 @@
   <sheetData>
     <row r="7" spans="2:14">
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -4578,131 +5196,131 @@
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
       <c r="D8" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="45" t="s">
-        <v>96</v>
+      <c r="B9" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="H9" s="45" t="s">
-        <v>96</v>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="H9" s="46" t="s">
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="74"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="H10" s="45"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="73"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="H11" s="45"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="45"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="42" t="s">
+      <c r="F12" s="74"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73" t="s">
+      <c r="B13" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="H13" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="H13" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73" t="s">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="H14" s="45"/>
+      <c r="F14" s="74"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="73"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="H15" s="45"/>
+      <c r="F15" s="74"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="73"/>
+        <v>87</v>
+      </c>
+      <c r="J15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4741,33 +5359,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="80" customHeight="1">
+      <c r="C6" s="76"/>
+      <c r="D6" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="75" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="75"/>
-      <c r="D6" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4799,51 +5417,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="36" customHeight="1">
+      <c r="B3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C3" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1">
+      <c r="B4" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="36" customHeight="1">
+      <c r="B5" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="36" customHeight="1">
+      <c r="B6" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="36" customHeight="1">
+      <c r="B7" s="44" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="36" customHeight="1">
-      <c r="B3" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="36" customHeight="1">
-      <c r="B4" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="36" customHeight="1">
-      <c r="B5" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="36" customHeight="1">
-      <c r="B6" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="36" customHeight="1">
-      <c r="B7" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>122</v>
+      <c r="C7" s="103" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4859,281 +5477,282 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:R22"/>
+  <dimension ref="B3:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="112" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="113" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:18">
-      <c r="R3" t="s">
+    <row r="3" spans="2:13">
+      <c r="M3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="M4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="5:18">
-      <c r="R4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="5:18">
-      <c r="E7" s="118" t="s">
+    <row r="7" spans="2:13" ht="20" customHeight="1">
+      <c r="B7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="115">
-        <f>H7+H8+H9+J8+J9</f>
+      <c r="C7" s="119">
+        <f>E7+E8+E9+G8+G9</f>
         <v>20</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="D7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="5:18">
-      <c r="E8" s="118"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="77" t="s">
+      <c r="E7" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="122"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="120">
-        <v>1</v>
-      </c>
-      <c r="I8" s="77" t="s">
+      <c r="E8" s="124">
+        <v>1</v>
+      </c>
+      <c r="F8" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:18">
-      <c r="E9" s="118"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="125">
-        <f>J8+J9</f>
+      <c r="G8" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="122"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="129">
+        <f>G8+G9</f>
         <v>9</v>
       </c>
-      <c r="I9" s="77"/>
-      <c r="J9" s="119">
-        <f>H11+H12+H14+H15+H16</f>
+      <c r="F9" s="78"/>
+      <c r="G9" s="123">
+        <f>E11+E12+E14+E15+E16</f>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="5:18">
-      <c r="E11" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="115">
-        <f>H11+H12+J11+J12+L12</f>
+    <row r="11" spans="2:13">
+      <c r="B11" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="119">
+        <f>E11+E12+G11+G12+I12</f>
         <v>5</v>
       </c>
-      <c r="G11" s="77" t="s">
+      <c r="D11" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="120">
-        <v>1</v>
-      </c>
-      <c r="I11" s="77" t="s">
+      <c r="E11" s="124">
+        <v>1</v>
+      </c>
+      <c r="F11" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="123">
-        <v>1</v>
-      </c>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="5:18" ht="38" customHeight="1">
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="119">
-        <f>J11:J12</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="119">
-        <f>L12</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="80" t="s">
+      <c r="G11" s="127">
+        <v>1</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="2:13" ht="38" customHeight="1">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="123">
+        <f>G11:G12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="123">
+        <f>I12</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="5:18">
-      <c r="E14" s="118" t="s">
+      <c r="I12" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="20" customHeight="1">
+      <c r="B14" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="115">
-        <f>H14+H15+H16+J15+J16+J17</f>
+      <c r="C14" s="119">
+        <f>E14+E15+E16+G15+G16+G17</f>
         <v>10</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="5:18" ht="36" customHeight="1">
-      <c r="E15" s="118"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="77" t="s">
+      <c r="E14" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="36" customHeight="1">
+      <c r="B15" s="122"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="124">
-        <v>1</v>
-      </c>
-      <c r="I15" s="74" t="s">
+      <c r="E15" s="128">
+        <v>1</v>
+      </c>
+      <c r="F15" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="5:18" ht="25" customHeight="1">
-      <c r="E16" s="118"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="107">
-        <f>J15+J16+J17</f>
+      <c r="G15" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="25" customHeight="1">
+      <c r="B16" s="122"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="108">
+        <f>G15+G16+G17</f>
         <v>4</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="F16" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="126">
+        <v>1</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="82">
+        <f>K16+K17</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="25" customHeight="1">
+      <c r="B17" s="122"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="123">
+        <f>I16</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="J16" s="122">
-        <v>1</v>
-      </c>
-      <c r="K16" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="81">
-        <f>N16+N17</f>
-        <v>2</v>
-      </c>
-      <c r="M16" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="N16" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" ht="25" customHeight="1">
-      <c r="E17" s="118"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="119">
-        <f>L16</f>
-        <v>2</v>
-      </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="N17" s="121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14">
-      <c r="E19" s="118" t="s">
+      <c r="K17" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="20" customHeight="1">
+      <c r="B19" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="118">
-        <f>H20+H19</f>
+      <c r="C19" s="122">
+        <f>E20+E19</f>
         <v>5</v>
       </c>
-      <c r="G19" s="77" t="s">
+      <c r="D19" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="120">
-        <v>1</v>
-      </c>
-      <c r="I19" s="113" t="s">
+      <c r="E19" s="124">
+        <v>1</v>
+      </c>
+      <c r="F19" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14">
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="115">
-        <f>J19+J20+J21+J22</f>
+      <c r="G19" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="20" customHeight="1">
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="119">
+        <f>G19+G20+G21+G22</f>
         <v>4</v>
       </c>
-      <c r="I20" s="113" t="s">
+      <c r="F20" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="113" t="s">
+      <c r="G20" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="20" customHeight="1">
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="113" t="s">
+      <c r="G21" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="20" customHeight="1">
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="120">
+      <c r="G22" s="124">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="H20:H22"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
     <sheet name="Provider view" sheetId="12" r:id="rId10"/>
-    <sheet name="User view" sheetId="15" r:id="rId11"/>
-    <sheet name="Questionaire" sheetId="17" r:id="rId12"/>
+    <sheet name="Questionaire" sheetId="17" r:id="rId11"/>
+    <sheet name="User view" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="188">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -533,9 +533,6 @@
     <t>e-service product quality</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
     <t>The graphic interface was clear and comprehensive?</t>
   </si>
   <si>
-    <t>The e-service was fully available without any interruption problems</t>
-  </si>
-  <si>
     <t>Did you face any response problems?</t>
   </si>
   <si>
@@ -684,6 +678,30 @@
   </si>
   <si>
     <t>Customer service</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>Did you authenticate yourself for using the e-service?</t>
+  </si>
+  <si>
+    <t>Were you informed your information is not shared with third parties without your authorization?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Was the information related to you or your transaction altered of modified during using the service?</t>
+  </si>
+  <si>
+    <t>Did you noticed any kind of informaton not related to you or your transaction during using the service?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Do you trust on the service for accomplishing your goals?</t>
   </si>
 </sst>
 </file>
@@ -761,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,7 +1041,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="293">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1311,8 +1335,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1451,6 +1483,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,29 +1750,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="293">
+  <cellStyles count="301">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1886,6 +1931,10 @@
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2032,6 +2081,10 @@
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2398,7 +2451,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="109" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="33"/>
@@ -2423,12 +2476,12 @@
       <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="109"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="104" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="105" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -2445,11 +2498,11 @@
       <c r="I4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="105" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="106" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
@@ -2462,11 +2515,11 @@
       <c r="I5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -2483,11 +2536,11 @@
       <c r="I6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="110"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
         <v>10</v>
@@ -2502,7 +2555,7 @@
       <c r="I7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="110"/>
+      <c r="J7" s="111"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="33"/>
@@ -2524,7 +2577,7 @@
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="112" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2547,10 +2600,10 @@
       <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="112"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="104">
+      <c r="C14" s="105">
         <v>1</v>
       </c>
       <c r="D14" s="15">
@@ -2572,7 +2625,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="105">
+      <c r="C15" s="106">
         <v>1</v>
       </c>
       <c r="D15" s="17"/>
@@ -2590,7 +2643,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="106">
+      <c r="C16" s="107">
         <v>1</v>
       </c>
       <c r="D16" s="19">
@@ -2612,7 +2665,7 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21">
         <v>1</v>
@@ -2757,57 +2810,57 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="113" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="114" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="132" t="s">
+      <c r="E2" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="133" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="134" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="78">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77">
+      <c r="G3" s="78"/>
+      <c r="H3" s="78">
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="137">
+      <c r="I3" s="138">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
@@ -2817,47 +2870,47 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78">
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="137"/>
+      <c r="I4" s="138"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="82"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="135">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="137">
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="137"/>
+      <c r="I5" s="138"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -2867,75 +2920,75 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="134" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="137">
         <f>SUM(D7:G7)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I7" s="137">
+      <c r="I7" s="138">
         <f>SUM(H7:H9)</f>
         <v>18.833333333333332</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="133"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="78">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77">
+      <c r="G8" s="78"/>
+      <c r="H8" s="78">
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
         <v>9</v>
       </c>
-      <c r="I8" s="137"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="133"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="135">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="136">
+      <c r="H9" s="137">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I9" s="137"/>
+      <c r="I9" s="138"/>
     </row>
     <row r="10" spans="2:22" ht="4" customHeight="1"/>
     <row r="11" spans="2:22">
@@ -2963,46 +3016,46 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="20" customHeight="1">
-      <c r="K13" s="122" t="s">
+      <c r="K13" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="119">
+      <c r="L13" s="120">
         <f>N13+N14+N15+P14+P15</f>
         <v>18</v>
       </c>
-      <c r="M13" s="77" t="s">
+      <c r="M13" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="124">
+      <c r="N13" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36" customHeight="1">
-      <c r="K14" s="122"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="78" t="s">
+      <c r="K14" s="123"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="124">
-        <v>1</v>
-      </c>
-      <c r="O14" s="78" t="s">
+      <c r="N14" s="125">
+        <v>1</v>
+      </c>
+      <c r="O14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="124">
+      <c r="P14" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1">
-      <c r="K15" s="122"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="123">
+      <c r="K15" s="123"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="124">
         <f>P14+P15</f>
         <v>8</v>
       </c>
-      <c r="O15" s="78"/>
-      <c r="P15" s="123">
+      <c r="O15" s="79"/>
+      <c r="P15" s="124">
         <f>N17+N18+N20+N21+N22</f>
         <v>7</v>
       </c>
@@ -3014,44 +3067,44 @@
       </c>
     </row>
     <row r="17" spans="11:20">
-      <c r="K17" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="119">
+      <c r="K17" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="120">
         <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
-      <c r="M17" s="78" t="s">
+      <c r="M17" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="124">
-        <v>1</v>
-      </c>
-      <c r="O17" s="78" t="s">
+      <c r="N17" s="125">
+        <v>1</v>
+      </c>
+      <c r="O17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="127">
+      <c r="P17" s="128">
         <v>1</v>
       </c>
       <c r="Q17"/>
     </row>
     <row r="18" spans="11:20" ht="34" customHeight="1">
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="123">
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="124">
         <f>P17:P18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="78"/>
-      <c r="P18" s="123">
+      <c r="O18" s="79"/>
+      <c r="P18" s="124">
         <f>R18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="81" t="s">
+      <c r="Q18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="124">
+      <c r="R18" s="125">
         <v>1</v>
       </c>
     </row>
@@ -3062,146 +3115,146 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="120">
         <f>N20+N21+N22+P21+P22+P23</f>
         <v>8</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="125">
+      <c r="N20" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="116" t="s">
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="125">
-        <v>1</v>
-      </c>
-      <c r="O21" s="75" t="s">
+      <c r="N21" s="126">
+        <v>1</v>
+      </c>
+      <c r="O21" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="125">
+      <c r="P21" s="126">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="108">
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="109">
         <f>P21+P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="138" t="s">
+      <c r="O22" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="126">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="138" t="s">
+      <c r="P22" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="138">
+      <c r="R22" s="139">
         <f>T22+T23</f>
         <v>2</v>
       </c>
-      <c r="S22" s="115" t="s">
+      <c r="S22" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="T22" s="125">
+      <c r="T22" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="123">
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="124">
         <f>R22</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="115" t="s">
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="125">
+      <c r="T23" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="11:20">
-      <c r="K24" s="130">
+      <c r="K24" s="131">
         <f>L25/3</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="25" spans="11:20" ht="20" customHeight="1">
-      <c r="K25" s="119" t="s">
+      <c r="K25" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="119">
+      <c r="L25" s="120">
         <f>N26+N25</f>
         <v>5</v>
       </c>
-      <c r="M25" s="116" t="s">
+      <c r="M25" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="124">
-        <v>1</v>
-      </c>
-      <c r="O25" s="114" t="s">
+      <c r="N25" s="125">
+        <v>1</v>
+      </c>
+      <c r="O25" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="124">
+      <c r="P25" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="11:20" ht="20" customHeight="1">
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="119">
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="120">
         <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
-      <c r="O26" s="114" t="s">
+      <c r="O26" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="124">
+      <c r="P26" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="11:20" ht="20" customHeight="1">
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="114" t="s">
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="121"/>
+      <c r="O27" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="124">
+      <c r="P27" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="11:20" ht="20" customHeight="1">
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="114" t="s">
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="124">
+      <c r="P28" s="125">
         <v>1</v>
       </c>
     </row>
@@ -3243,10 +3296,488 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="D35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="D41" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="C42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="C43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="D58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="D60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C42:H42"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="M9" sqref="M9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3267,7 +3798,7 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="113" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="114" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
@@ -3288,47 +3819,47 @@
       </c>
     </row>
     <row r="2" spans="2:22">
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="132" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="132" t="s">
+      <c r="E2" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="133" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="134" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="77">
-        <v>1</v>
-      </c>
-      <c r="E3" s="77">
-        <v>1</v>
-      </c>
-      <c r="F3" s="77">
-        <v>1</v>
-      </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77">
+      <c r="D3" s="78">
+        <v>1</v>
+      </c>
+      <c r="E3" s="78">
+        <v>1</v>
+      </c>
+      <c r="F3" s="78">
+        <v>1</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78">
         <f>SUM(D3:G3)</f>
         <v>3</v>
       </c>
-      <c r="I3" s="137">
+      <c r="I3" s="138">
         <f>SUM(H3:H5)</f>
         <v>6</v>
       </c>
@@ -3338,44 +3869,44 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="77">
-        <v>1</v>
-      </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77">
-        <v>1</v>
-      </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77">
+      <c r="D4" s="78">
+        <v>1</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78">
+        <v>1</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78">
         <f>SUM(D4:G4)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="137"/>
+      <c r="I4" s="138"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="82"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="135">
-        <v>1</v>
-      </c>
-      <c r="H5" s="136">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="136">
+        <v>1</v>
+      </c>
+      <c r="H5" s="137">
         <f>SUM(D5:G5)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="137"/>
+      <c r="I5" s="138"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -3391,46 +3922,46 @@
       </c>
     </row>
     <row r="8" spans="2:22" ht="20" customHeight="1">
-      <c r="K8" s="122" t="s">
+      <c r="K8" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="119">
+      <c r="L8" s="120">
         <f>N8+N9+N10+P9+P10</f>
         <v>20</v>
       </c>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="124">
+      <c r="N8" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="36" customHeight="1">
-      <c r="K9" s="122"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="78" t="s">
+      <c r="K9" s="123"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="124">
-        <v>1</v>
-      </c>
-      <c r="O9" s="78" t="s">
+      <c r="N9" s="125">
+        <v>1</v>
+      </c>
+      <c r="O9" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="124">
+      <c r="P9" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="25" customHeight="1">
-      <c r="K10" s="122"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="123">
+      <c r="K10" s="123"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="124">
         <f>P9+P10</f>
         <v>9</v>
       </c>
-      <c r="O10" s="78"/>
-      <c r="P10" s="123">
+      <c r="O10" s="142"/>
+      <c r="P10" s="124">
         <f>N12+N13+N15+N16+N17</f>
         <v>8</v>
       </c>
@@ -3442,44 +3973,44 @@
       </c>
     </row>
     <row r="12" spans="2:22">
-      <c r="K12" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="119">
+      <c r="K12" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="120">
         <f>N12+N13+P12+P13+R13</f>
         <v>5</v>
       </c>
-      <c r="M12" s="140" t="s">
+      <c r="M12" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="124">
-        <v>1</v>
-      </c>
-      <c r="O12" s="140" t="s">
+      <c r="N12" s="125">
+        <v>1</v>
+      </c>
+      <c r="O12" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="127">
+      <c r="P12" s="128">
         <v>1</v>
       </c>
       <c r="Q12"/>
     </row>
     <row r="13" spans="2:22" ht="34" customHeight="1">
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="123">
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="124">
         <f>P12:P13</f>
         <v>1</v>
       </c>
-      <c r="O13" s="140"/>
-      <c r="P13" s="123">
+      <c r="O13" s="142"/>
+      <c r="P13" s="124">
         <f>R13</f>
         <v>1</v>
       </c>
       <c r="Q13" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="124">
+      <c r="R13" s="125">
         <v>1</v>
       </c>
     </row>
@@ -3490,146 +4021,146 @@
       </c>
     </row>
     <row r="15" spans="2:22" ht="20" customHeight="1">
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="119">
+      <c r="L15" s="120">
         <f>N15+N16+N17+P16+P17+P18</f>
         <v>10</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="125">
+      <c r="N15" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="20" customHeight="1">
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="116" t="s">
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="125">
-        <v>1</v>
-      </c>
-      <c r="O16" s="75" t="s">
+      <c r="N16" s="126">
+        <v>1</v>
+      </c>
+      <c r="O16" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="125">
+      <c r="P16" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="11:20" ht="20" customHeight="1">
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="108">
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="109">
         <f>P16+P17+P18</f>
         <v>4</v>
       </c>
-      <c r="O17" s="145" t="s">
+      <c r="O17" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="P17" s="126">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="138" t="s">
+      <c r="P17" s="127">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="138">
+      <c r="R17" s="139">
         <f>T17+T18</f>
         <v>2</v>
       </c>
-      <c r="S17" s="124" t="s">
+      <c r="S17" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="T17" s="125">
+      <c r="T17" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="11:20" ht="20" customHeight="1">
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="123">
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="124">
         <f>R17</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="124" t="s">
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="T18" s="125">
+      <c r="T18" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="11:20">
-      <c r="K19" s="130">
+      <c r="K19" s="131">
         <f>L20/3</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="119" t="s">
+      <c r="K20" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="119">
+      <c r="L20" s="120">
         <f>N21+N20</f>
         <v>5</v>
       </c>
-      <c r="M20" s="142" t="s">
+      <c r="M20" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="124">
-        <v>1</v>
-      </c>
-      <c r="O20" s="114" t="s">
+      <c r="N20" s="125">
+        <v>1</v>
+      </c>
+      <c r="O20" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="124">
+      <c r="P20" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="119">
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="120">
         <f>P20+P21+P22+P23</f>
         <v>4</v>
       </c>
-      <c r="O21" s="114" t="s">
+      <c r="O21" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="124">
+      <c r="P21" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="114" t="s">
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="124">
+      <c r="P22" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="114" t="s">
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="124">
+      <c r="P23" s="125">
         <v>1</v>
       </c>
     </row>
@@ -3656,430 +4187,6 @@
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="L8:L10"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:8">
-      <c r="C3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="1">
-        <f>C6+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8:C14" si="0">C7+1</f>
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="D18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="D19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="D22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="D23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="D24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="D26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="D34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="D38" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="D41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="D44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="D45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="D47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="D48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4234,71 +4341,71 @@
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
       <c r="B3" s="33"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
       <c r="B4" s="35"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="84" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="77" t="s">
+      <c r="E4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="78" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="33"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="B5" s="34"/>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="90" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
       <c r="B6" s="35"/>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
       <c r="B7" s="35"/>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="84" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="6"/>
@@ -4313,22 +4420,22 @@
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
       <c r="B8" s="33"/>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91" t="s">
+      <c r="D8" s="91"/>
+      <c r="E8" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="92"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
       <c r="B9" s="33"/>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="84" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -4343,24 +4450,24 @@
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
       <c r="B10" s="33"/>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91" t="s">
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="93" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
       <c r="B11" s="33"/>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="84" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4377,14 +4484,14 @@
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
       <c r="B12" s="33"/>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91" t="s">
+      <c r="D12" s="91"/>
+      <c r="E12" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="9" t="s">
         <v>62</v>
       </c>
@@ -4392,7 +4499,7 @@
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
       <c r="B13" s="33"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="84" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="10"/>
@@ -4514,124 +4621,124 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="33"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
       <c r="A4" s="33"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="34"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="59" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="34"/>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="69" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="34"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="60" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="52" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="34"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="34"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="64" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="34"/>
@@ -4711,353 +4818,353 @@
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
       <c r="A2" s="33"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="33"/>
       <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" s="33"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="76" t="s">
         <v>94</v>
       </c>
       <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
       <c r="A4" s="33"/>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93" t="s">
+      <c r="F4" s="94"/>
+      <c r="G4" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93" t="s">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
       <c r="A5" s="33"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="97" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
       <c r="A6" s="33"/>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="93" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93" t="s">
+      <c r="H6" s="94"/>
+      <c r="I6" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="94" t="s">
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:15" ht="30">
       <c r="A7" s="33"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="98" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="33"/>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94" t="s">
+      <c r="F8" s="98"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:15" ht="30">
       <c r="A9" s="33"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95" t="s">
+      <c r="G9" s="96"/>
+      <c r="H9" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95" t="s">
+      <c r="I9" s="96"/>
+      <c r="J9" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="98" t="s">
+      <c r="L9" s="99" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
       <c r="A10" s="33"/>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93" t="s">
+      <c r="I10" s="94"/>
+      <c r="J10" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94" t="s">
+      <c r="K10" s="94"/>
+      <c r="L10" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:15" ht="30">
       <c r="A11" s="33"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="100"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
       <c r="A12" s="33"/>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94" t="s">
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="101"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:15" ht="30">
       <c r="A13" s="33"/>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="98" t="s">
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="99" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="37" customHeight="1">
       <c r="A14" s="33"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93" t="s">
+      <c r="J14" s="94"/>
+      <c r="K14" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="93" t="s">
+      <c r="L14" s="94" t="s">
         <v>93</v>
       </c>
       <c r="M14" s="33"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="33"/>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="33"/>
       <c r="O15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
       <c r="A16" s="33"/>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="94" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="33"/>
@@ -5065,43 +5172,43 @@
     </row>
     <row r="17" spans="1:15" ht="30">
       <c r="A17" s="33"/>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="99" t="s">
+      <c r="J17" s="96"/>
+      <c r="K17" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="95"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="33"/>
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="94" t="s">
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="95" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="33"/>
@@ -5109,19 +5216,19 @@
     </row>
     <row r="19" spans="1:15" ht="30" customHeight="1">
       <c r="A19" s="33"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100" t="s">
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="33"/>
@@ -5183,9 +5290,9 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="3" t="s">
         <v>101</v>
       </c>
@@ -5211,116 +5318,116 @@
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
       <c r="H9" s="46" t="s">
         <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="74"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:14" ht="18">
       <c r="B10" s="46"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
       <c r="H10" s="46"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="2:14" ht="18">
       <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="H11" s="46"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="2:14" ht="18">
       <c r="B12" s="46"/>
       <c r="C12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="75"/>
       <c r="H12" s="46"/>
       <c r="I12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="2:14" ht="18">
       <c r="B13" s="46" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="75"/>
       <c r="H13" s="46" t="s">
         <v>96</v>
       </c>
       <c r="I13" s="43"/>
-      <c r="J13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="2:14" ht="18">
       <c r="B14" s="46"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="75"/>
       <c r="H14" s="46"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="2:14" ht="18">
       <c r="B15" s="46"/>
       <c r="C15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="75"/>
       <c r="H15" s="46"/>
       <c r="I15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5359,22 +5466,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="76" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="76"/>
-      <c r="D6" s="77" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="76" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5460,7 +5567,7 @@
       <c r="B7" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5491,7 +5598,7 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="113" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="114" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
@@ -5508,227 +5615,227 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="20" customHeight="1">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="120">
         <f>E7+E8+E9+G8+G9</f>
         <v>20</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="124">
+      <c r="E7" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="122"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="78" t="s">
+      <c r="B8" s="123"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="124">
-        <v>1</v>
-      </c>
-      <c r="F8" s="78" t="s">
+      <c r="E8" s="125">
+        <v>1</v>
+      </c>
+      <c r="F8" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="124">
+      <c r="G8" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="122"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="129">
+      <c r="B9" s="123"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="130">
         <f>G8+G9</f>
         <v>9</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="123">
+      <c r="F9" s="79"/>
+      <c r="G9" s="124">
         <f>E11+E12+E14+E15+E16</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="119">
+      <c r="B11" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="120">
         <f>E11+E12+G11+G12+I12</f>
         <v>5</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="124">
-        <v>1</v>
-      </c>
-      <c r="F11" s="78" t="s">
+      <c r="E11" s="125">
+        <v>1</v>
+      </c>
+      <c r="F11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="128">
         <v>1</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12" spans="2:13" ht="38" customHeight="1">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="123">
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="124">
         <f>G11:G12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="123">
+      <c r="F12" s="79"/>
+      <c r="G12" s="124">
         <f>I12</f>
         <v>1</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="124">
+      <c r="I12" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="20" customHeight="1">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="120">
         <f>E14+E15+E16+G15+G16+G17</f>
         <v>10</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="125">
+      <c r="E14" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="36" customHeight="1">
-      <c r="B15" s="122"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="78" t="s">
+      <c r="B15" s="123"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="128">
-        <v>1</v>
-      </c>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="129">
+        <v>1</v>
+      </c>
+      <c r="F15" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="25" customHeight="1">
-      <c r="B16" s="122"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="108">
+      <c r="B16" s="123"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="109">
         <f>G15+G16+G17</f>
         <v>4</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="126">
-        <v>1</v>
-      </c>
-      <c r="H16" s="82" t="s">
+      <c r="G16" s="127">
+        <v>1</v>
+      </c>
+      <c r="H16" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="82">
+      <c r="I16" s="83">
         <f>K16+K17</f>
         <v>2</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="K16" s="125">
+      <c r="K16" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="25" customHeight="1">
-      <c r="B17" s="122"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="123">
+      <c r="B17" s="123"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="124">
         <f>I16</f>
         <v>2</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="115" t="s">
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="125">
+      <c r="K17" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="20" customHeight="1">
-      <c r="B19" s="122" t="s">
+      <c r="B19" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="122">
+      <c r="C19" s="123">
         <f>E20+E19</f>
         <v>5</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="124">
-        <v>1</v>
-      </c>
-      <c r="F19" s="114" t="s">
+      <c r="E19" s="125">
+        <v>1</v>
+      </c>
+      <c r="F19" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="124">
+      <c r="G19" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="20" customHeight="1">
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="119">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="120">
         <f>G19+G20+G21+G22</f>
         <v>4</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="124">
+      <c r="G20" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="20" customHeight="1">
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="114" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="124">
+      <c r="G21" s="125">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="20" customHeight="1">
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="114" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="124">
+      <c r="G22" s="125">
         <v>1</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,11 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId9"/>
-    <sheet name="Provider view" sheetId="12" r:id="rId10"/>
-    <sheet name="Questionaire" sheetId="17" r:id="rId11"/>
-    <sheet name="User view" sheetId="15" r:id="rId12"/>
+    <sheet name="Model V0" sheetId="11" r:id="rId9"/>
+    <sheet name="Model V1" sheetId="18" r:id="rId10"/>
+    <sheet name="Provider view" sheetId="12" r:id="rId11"/>
+    <sheet name="Questionaire" sheetId="17" r:id="rId12"/>
+    <sheet name="User view" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="190">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -533,6 +534,9 @@
     <t>e-service product quality</t>
   </si>
   <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -702,6 +706,9 @@
   </si>
   <si>
     <t>Do you trust on the service for accomplishing your goals?</t>
+  </si>
+  <si>
+    <t>Fault tolerance</t>
   </si>
 </sst>
 </file>
@@ -711,7 +718,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -723,6 +730,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -775,6 +789,11 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1041,310 +1060,320 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="301">
+  <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,19 +1476,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1471,96 +1500,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1575,64 +1604,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,7 +1677,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1716,9 +1748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1775,16 +1804,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="301">
+  <cellStyles count="311">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1935,6 +1998,11 @@
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2085,6 +2153,11 @@
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2451,7 +2524,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="110" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="33"/>
@@ -2476,12 +2549,12 @@
       <c r="H3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="110"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="111"/>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="112"/>
+      <c r="C4" s="106" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
@@ -2498,11 +2571,11 @@
       <c r="I4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="111"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="111"/>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="17"/>
@@ -2515,11 +2588,11 @@
       <c r="I5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="111"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="111"/>
-      <c r="C6" s="107" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -2536,11 +2609,11 @@
       <c r="I6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="111"/>
+      <c r="J6" s="112"/>
     </row>
     <row r="7" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="108"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
         <v>10</v>
@@ -2555,7 +2628,7 @@
       <c r="I7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="111"/>
+      <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="33"/>
@@ -2577,7 +2650,7 @@
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="112" t="s">
+      <c r="I12" s="113" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2600,10 +2673,10 @@
       <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="113"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="105">
+      <c r="C14" s="106">
         <v>1</v>
       </c>
       <c r="D14" s="15">
@@ -2625,7 +2698,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="106">
+      <c r="C15" s="107">
         <v>1</v>
       </c>
       <c r="D15" s="17"/>
@@ -2643,7 +2716,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="107">
+      <c r="C16" s="108">
         <v>1</v>
       </c>
       <c r="D16" s="19">
@@ -2665,7 +2738,7 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="108"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21">
         <v>1</v>
@@ -2788,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2810,7 +2883,7 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="114" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
@@ -2830,14 +2903,14 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" s="135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22">
-      <c r="B3" s="83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="15" customHeight="1">
+      <c r="B3" s="139" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2855,12 +2928,14 @@
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G3" s="78"/>
+      <c r="G3" s="78">
+        <v>0</v>
+      </c>
       <c r="H3" s="78">
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="138">
+      <c r="I3" s="159">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
@@ -2870,7 +2945,7 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="83"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2878,30 +2953,40 @@
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="78">
+        <v>0</v>
+      </c>
       <c r="F4" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="78">
+        <v>0</v>
+      </c>
       <c r="H4" s="78">
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="138"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="83"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="D5" s="78">
+        <v>0</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0</v>
+      </c>
+      <c r="F5" s="78">
+        <v>0</v>
+      </c>
       <c r="G5" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
@@ -2910,7 +2995,7 @@
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="138"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -2930,7 +3015,9 @@
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="78" t="s">
+        <v>131</v>
+      </c>
       <c r="F7" s="78">
         <f>$K$19</f>
         <v>2</v>
@@ -2965,7 +3052,9 @@
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
       <c r="H8" s="78">
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
         <v>9</v>
@@ -2977,9 +3066,15 @@
       <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="D9" s="78">
+        <v>0</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0</v>
+      </c>
+      <c r="F9" s="78">
+        <v>0</v>
+      </c>
       <c r="G9" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
@@ -2993,19 +3088,19 @@
     <row r="10" spans="2:22" ht="4" customHeight="1"/>
     <row r="11" spans="2:22">
       <c r="D11" s="2">
-        <f>SUM(D3:D9)</f>
+        <f>SUM(D3:D5)+SUM(D7:D9)</f>
         <v>18</v>
       </c>
       <c r="E11" s="2">
-        <f>SUM(E3:E9)</f>
+        <f t="shared" ref="E11:G11" si="1">SUM(E3:E5)+SUM(E7:E9)</f>
         <v>5</v>
       </c>
       <c r="F11" s="2">
-        <f>SUM(SUM(F3:F9))</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G11" s="2">
-        <f>SUM(G3:G9)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3016,95 +3111,95 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="20" customHeight="1">
-      <c r="K13" s="123" t="s">
+      <c r="K13" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="120">
+      <c r="L13" s="121">
         <f>N13+N14+N15+P14+P15</f>
         <v>18</v>
       </c>
       <c r="M13" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="125">
+      <c r="N13" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36" customHeight="1">
-      <c r="K14" s="123"/>
-      <c r="L14" s="121"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="125">
+      <c r="N14" s="126">
         <v>1</v>
       </c>
       <c r="O14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="125">
+      <c r="P14" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1">
-      <c r="K15" s="123"/>
-      <c r="L15" s="122"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="123"/>
       <c r="M15" s="79"/>
-      <c r="N15" s="124">
+      <c r="N15" s="125">
         <f>P14+P15</f>
         <v>8</v>
       </c>
       <c r="O15" s="79"/>
-      <c r="P15" s="124">
+      <c r="P15" s="125">
         <f>N17+N18+N20+N21+N22</f>
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="25" customHeight="1">
+    <row r="16" spans="2:22" ht="15" customHeight="1">
       <c r="K16">
         <f>L17/2</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="11:20">
-      <c r="K17" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="120">
+      <c r="K17" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="121">
         <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
       <c r="M17" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="125">
+      <c r="N17" s="126">
         <v>1</v>
       </c>
       <c r="O17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="128">
+      <c r="P17" s="129">
         <v>1</v>
       </c>
       <c r="Q17"/>
     </row>
     <row r="18" spans="11:20" ht="34" customHeight="1">
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
       <c r="M18" s="79"/>
-      <c r="N18" s="124">
+      <c r="N18" s="125">
         <f>P17:P18</f>
         <v>1</v>
       </c>
       <c r="O18" s="79"/>
-      <c r="P18" s="124">
+      <c r="P18" s="125">
         <f>R18</f>
         <v>1</v>
       </c>
       <c r="Q18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="125">
+      <c r="R18" s="126">
         <v>1</v>
       </c>
     </row>
@@ -3115,48 +3210,44 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="120" t="s">
+      <c r="K20" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="120">
-        <f>N20+N21+N22+P21+P22+P23</f>
+      <c r="L20" s="121">
+        <f>N20+N21+N22+P22+P23</f>
         <v>8</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="126">
+      <c r="N20" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="117" t="s">
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="126">
-        <v>1</v>
-      </c>
-      <c r="O21" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="P21" s="126">
-        <v>0</v>
-      </c>
+      <c r="N21" s="152">
+        <v>1</v>
+      </c>
+      <c r="O21" s="94"/>
+      <c r="P21" s="157"/>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="109">
-        <f>P21+P22+P23</f>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="110">
+        <f>P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="139" t="s">
+      <c r="O22" s="156" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="127">
+      <c r="P22" s="153">
         <v>1</v>
       </c>
       <c r="Q22" s="139" t="s">
@@ -3166,29 +3257,29 @@
         <f>T22+T23</f>
         <v>2</v>
       </c>
-      <c r="S22" s="116" t="s">
+      <c r="S22" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="T22" s="126">
+      <c r="T22" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="110"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="111"/>
       <c r="O23" s="140"/>
-      <c r="P23" s="124">
+      <c r="P23" s="125">
         <f>R22</f>
         <v>2</v>
       </c>
       <c r="Q23" s="140"/>
       <c r="R23" s="140"/>
-      <c r="S23" s="116" t="s">
+      <c r="S23" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="126">
+      <c r="T23" s="127">
         <v>1</v>
       </c>
     </row>
@@ -3199,90 +3290,90 @@
       </c>
     </row>
     <row r="25" spans="11:20" ht="20" customHeight="1">
-      <c r="K25" s="120" t="s">
+      <c r="K25" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="120">
+      <c r="L25" s="121">
         <f>N26+N25</f>
         <v>5</v>
       </c>
-      <c r="M25" s="117" t="s">
+      <c r="M25" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="125">
-        <v>1</v>
-      </c>
-      <c r="O25" s="115" t="s">
+      <c r="N25" s="126">
+        <v>1</v>
+      </c>
+      <c r="O25" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="125">
+      <c r="P25" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="11:20" ht="20" customHeight="1">
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="120">
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="121">
         <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
-      <c r="O26" s="115" t="s">
+      <c r="O26" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="125">
+      <c r="P26" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="11:20" ht="20" customHeight="1">
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="115" t="s">
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="125">
+      <c r="P27" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="11:20" ht="20" customHeight="1">
-      <c r="K28" s="122"/>
-      <c r="L28" s="122"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="122"/>
-      <c r="O28" s="115" t="s">
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="125">
+      <c r="P28" s="126">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="K25:K28"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="M25:M28"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N22:N23"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="M25:M28"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="L25:L28"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="O17:O18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3296,489 +3387,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H63"/>
+  <dimension ref="B2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:8">
-      <c r="C3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22">
-        <v>0.5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="D25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="D27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="D29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="D31" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="D33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="D35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="D37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="D41" s="48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="C42" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="C43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="D51" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="D54" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="D56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="D57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="D58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="D60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="D61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="D62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="D63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C42:H42"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3798,26 +3409,916 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="114" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
-      <c r="D1">
+    <row r="2" spans="2:18">
+      <c r="D2" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="133" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="78">
+        <f>$K$8</f>
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="163">
+        <v>0</v>
+      </c>
+      <c r="F3" s="78">
+        <f>$K$15</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="136">
+        <f>$K$20</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H3" s="137">
+        <f>SUM(D3:G3)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="I3" s="138">
+        <f>SUM(H3:H5)</f>
+        <v>18.833333333333332</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="134"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="78">
+        <f>$K$8</f>
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="78">
+        <f>$K$12</f>
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="78">
+        <f>$K$15</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="163">
+        <v>0</v>
+      </c>
+      <c r="H4" s="78">
+        <f t="shared" ref="H4:H5" si="0">SUM(D4:G4)</f>
+        <v>9</v>
+      </c>
+      <c r="I4" s="138"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="134"/>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="163">
+        <v>0</v>
+      </c>
+      <c r="E5" s="163">
+        <v>0</v>
+      </c>
+      <c r="F5" s="78">
+        <v>0</v>
+      </c>
+      <c r="G5" s="136">
+        <f>$K$20</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H5" s="137">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="I5" s="138"/>
+    </row>
+    <row r="6" spans="2:18" ht="4" customHeight="1"/>
+    <row r="7" spans="2:18">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="162"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="K8">
+        <f>L9/4</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="20" customHeight="1">
+      <c r="K9" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="121">
+        <f>N9+N10+N11+P10+P11</f>
+        <v>18</v>
+      </c>
+      <c r="M9" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="36" customHeight="1">
+      <c r="K10" s="124"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="126">
+        <v>1</v>
+      </c>
+      <c r="O10" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="25" customHeight="1">
+      <c r="K11" s="124"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="125">
+        <f>P10+P11</f>
+        <v>8</v>
+      </c>
+      <c r="O11" s="79"/>
+      <c r="P11" s="125">
+        <f>N13+N14+N16+N17+N18</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="25" customHeight="1">
+      <c r="K12">
+        <f>L13/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="K13" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="121">
+        <f>N13+N14+P13+P14+R14</f>
         <v>5</v>
       </c>
-      <c r="E1">
-        <v>2.5</v>
-      </c>
-      <c r="F1">
-        <v>2.5</v>
-      </c>
-      <c r="G1">
-        <v>1.7</v>
-      </c>
-    </row>
+      <c r="M13" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="126">
+        <v>1</v>
+      </c>
+      <c r="O13" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="129">
+        <v>1</v>
+      </c>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="2:18" ht="34" customHeight="1">
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="125">
+        <f>P13:P14</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="79"/>
+      <c r="P14" s="125">
+        <f>R14</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="K15">
+        <f>L16/4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="20" customHeight="1">
+      <c r="K16" s="121" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="121">
+        <f>N16+N17+N18+P18+P19</f>
+        <v>8</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="11:20" ht="20" customHeight="1">
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="152">
+        <v>1</v>
+      </c>
+      <c r="O17" s="94"/>
+      <c r="P17" s="157"/>
+    </row>
+    <row r="18" spans="11:20" ht="20" customHeight="1">
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="110">
+        <f>P17+P18+P19</f>
+        <v>3</v>
+      </c>
+      <c r="O18" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="153">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="139">
+        <f>T18+T19</f>
+        <v>2</v>
+      </c>
+      <c r="S18" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="11:20" ht="20" customHeight="1">
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="125">
+        <f>R18</f>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="11:20">
+      <c r="K20" s="131">
+        <f>L21/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="11:20" ht="20" customHeight="1">
+      <c r="K21" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="121">
+        <f>N22+N21</f>
+        <v>5</v>
+      </c>
+      <c r="M21" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="126">
+        <v>1</v>
+      </c>
+      <c r="O21" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="11:20" ht="20" customHeight="1">
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="121">
+        <f>P21+P22+P23+P24</f>
+        <v>4</v>
+      </c>
+      <c r="O22" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="11:20" ht="20" customHeight="1">
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="11:20" ht="20" customHeight="1">
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="126">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8">
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="D31" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="D33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="C43" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="C44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C43:H43"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
+    <col min="18" max="18" width="3.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:22">
       <c r="D2" s="132" t="s">
         <v>0</v>
@@ -3832,10 +4333,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" s="135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="2:22">
@@ -3846,22 +4347,27 @@
         <v>4</v>
       </c>
       <c r="D3" s="78">
-        <v>1</v>
+        <f>$K$7</f>
+        <v>4.5</v>
       </c>
       <c r="E3" s="78">
-        <v>1</v>
+        <f>K11</f>
+        <v>2.5</v>
       </c>
       <c r="F3" s="78">
-        <v>1</v>
-      </c>
-      <c r="G3" s="78"/>
+        <f>K14</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="163">
+        <v>0</v>
+      </c>
       <c r="H3" s="78">
         <f>SUM(D3:G3)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I3" s="138">
         <f>SUM(H3:H5)</f>
-        <v>6</v>
+        <v>17.166666666666668</v>
       </c>
       <c r="J3" s="2"/>
       <c r="V3" t="s">
@@ -3874,16 +4380,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="78">
-        <v>1</v>
-      </c>
-      <c r="E4" s="78"/>
+        <f>$K$7</f>
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="163">
+        <v>0</v>
+      </c>
       <c r="F4" s="78">
-        <v>1</v>
-      </c>
-      <c r="G4" s="78"/>
+        <f>K14</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="163">
+        <v>0</v>
+      </c>
       <c r="H4" s="78">
         <f>SUM(D4:G4)</f>
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="I4" s="138"/>
       <c r="J4" s="2"/>
@@ -3896,15 +4408,22 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="D5" s="163">
+        <v>0</v>
+      </c>
+      <c r="E5" s="163">
+        <v>0</v>
+      </c>
+      <c r="F5" s="163">
+        <v>0</v>
+      </c>
       <c r="G5" s="136">
-        <v>1</v>
+        <f>K19</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H5" s="137">
         <f>SUM(D5:G5)</f>
-        <v>1</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I5" s="138"/>
       <c r="J5" s="2"/>
@@ -3918,151 +4437,147 @@
     <row r="7" spans="2:22">
       <c r="K7">
         <f>L8/4</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="20" customHeight="1">
-      <c r="K8" s="123" t="s">
+      <c r="K8" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="120">
+      <c r="L8" s="121">
         <f>N8+N9+N10+P9+P10</f>
-        <v>20</v>
-      </c>
-      <c r="M8" s="150" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="125">
+      <c r="N8" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="36" customHeight="1">
-      <c r="K9" s="123"/>
-      <c r="L9" s="121"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="122"/>
       <c r="M9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="125">
+      <c r="N9" s="126">
         <v>1</v>
       </c>
       <c r="O9" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="125">
+      <c r="P9" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="25" customHeight="1">
-      <c r="K10" s="123"/>
-      <c r="L10" s="122"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="79"/>
-      <c r="N10" s="124">
+      <c r="N10" s="125">
         <f>P9+P10</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" s="142"/>
-      <c r="P10" s="124">
+      <c r="P10" s="125">
         <f>N12+N13+N15+N16+N17</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="25" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="15" customHeight="1">
       <c r="K11">
         <f>L12/2</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="2:22">
-      <c r="K12" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="120">
+      <c r="K12" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="121">
         <f>N12+N13+P12+P13+R13</f>
         <v>5</v>
       </c>
       <c r="M12" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="125">
+      <c r="N12" s="126">
         <v>1</v>
       </c>
       <c r="O12" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="128">
+      <c r="P12" s="129">
         <v>1</v>
       </c>
       <c r="Q12"/>
     </row>
     <row r="13" spans="2:22" ht="34" customHeight="1">
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="142"/>
-      <c r="N13" s="124">
+      <c r="N13" s="125">
         <f>P12:P13</f>
         <v>1</v>
       </c>
       <c r="O13" s="142"/>
-      <c r="P13" s="124">
+      <c r="P13" s="125">
         <f>R13</f>
         <v>1</v>
       </c>
       <c r="Q13" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="125">
+      <c r="R13" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="K14">
         <f>L15/4</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="20" customHeight="1">
-      <c r="K15" s="120" t="s">
+      <c r="K15" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="120">
-        <f>N15+N16+N17+P16+P17+P18</f>
-        <v>10</v>
-      </c>
-      <c r="M15" s="13" t="s">
+      <c r="L15" s="121">
+        <f>N15+N16+N17+P17+P18</f>
+        <v>8</v>
+      </c>
+      <c r="M15" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="126">
+      <c r="N15" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="20" customHeight="1">
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="117" t="s">
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="126">
-        <v>1</v>
-      </c>
-      <c r="O16" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="126">
-        <v>1</v>
-      </c>
+      <c r="N16" s="127">
+        <v>1</v>
+      </c>
+      <c r="O16" s="154"/>
+      <c r="P16" s="155"/>
     </row>
     <row r="17" spans="11:20" ht="20" customHeight="1">
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="109">
-        <f>P16+P17+P18</f>
-        <v>4</v>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="110">
+        <f>P17+P18</f>
+        <v>3</v>
       </c>
       <c r="O17" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="P17" s="127">
+      <c r="P17" s="128">
         <v>1</v>
       </c>
       <c r="Q17" s="139" t="s">
@@ -4075,17 +4590,17 @@
       <c r="S17" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="T17" s="126">
+      <c r="T17" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="11:20" ht="20" customHeight="1">
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="110"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="111"/>
       <c r="O18" s="144"/>
-      <c r="P18" s="124">
+      <c r="P18" s="125">
         <f>R17</f>
         <v>2</v>
       </c>
@@ -4094,7 +4609,7 @@
       <c r="S18" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="T18" s="126">
+      <c r="T18" s="127">
         <v>1</v>
       </c>
     </row>
@@ -4105,62 +4620,62 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="120" t="s">
+      <c r="K20" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="120">
+      <c r="L20" s="121">
         <f>N21+N20</f>
         <v>5</v>
       </c>
       <c r="M20" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="125">
-        <v>1</v>
-      </c>
-      <c r="O20" s="151" t="s">
+      <c r="N20" s="126">
+        <v>1</v>
+      </c>
+      <c r="O20" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="125">
+      <c r="P20" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
       <c r="M21" s="147"/>
-      <c r="N21" s="120">
+      <c r="N21" s="121">
         <f>P20+P21+P22+P23</f>
         <v>4</v>
       </c>
-      <c r="O21" s="151" t="s">
+      <c r="O21" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="125">
+      <c r="P21" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
       <c r="M22" s="147"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="151" t="s">
+      <c r="N22" s="122"/>
+      <c r="O22" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="125">
+      <c r="P22" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="148"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="151" t="s">
+      <c r="N23" s="123"/>
+      <c r="O23" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="125">
+      <c r="P23" s="126">
         <v>1</v>
       </c>
     </row>
@@ -4876,24 +5391,24 @@
       <c r="B4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94" t="s">
+      <c r="H4" s="95"/>
+      <c r="I4" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="33"/>
@@ -4903,16 +5418,16 @@
       <c r="B5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="97" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="33"/>
@@ -4922,20 +5437,20 @@
       <c r="B6" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="94" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94" t="s">
+      <c r="H6" s="95"/>
+      <c r="I6" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95" t="s">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="33"/>
@@ -4945,26 +5460,26 @@
       <c r="B7" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="99" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="101"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
@@ -4972,18 +5487,18 @@
       <c r="B8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94" t="s">
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="33"/>
@@ -4993,30 +5508,30 @@
       <c r="B9" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96" t="s">
+      <c r="G9" s="97"/>
+      <c r="H9" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="99" t="s">
+      <c r="L9" s="100" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="33"/>
@@ -5026,20 +5541,20 @@
       <c r="B10" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94" t="s">
+      <c r="I10" s="95"/>
+      <c r="J10" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="33"/>
@@ -5049,20 +5564,20 @@
       <c r="B11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="101"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:15" ht="30" customHeight="1">
@@ -5070,18 +5585,18 @@
       <c r="B12" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="102"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:15" ht="30">
@@ -5089,22 +5604,22 @@
       <c r="B13" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="99" t="s">
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="100" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="33"/>
@@ -5114,20 +5629,20 @@
       <c r="B14" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94" t="s">
+      <c r="J14" s="95"/>
+      <c r="K14" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="94" t="s">
+      <c r="L14" s="95" t="s">
         <v>93</v>
       </c>
       <c r="M14" s="33"/>
@@ -5137,16 +5652,16 @@
       <c r="B15" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="33"/>
       <c r="O15" s="24"/>
     </row>
@@ -5155,16 +5670,16 @@
       <c r="B16" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="95" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="33"/>
@@ -5175,22 +5690,22 @@
       <c r="B17" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96" t="s">
+      <c r="C17" s="97"/>
+      <c r="D17" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="99" t="s">
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="96"/>
-      <c r="K17" s="100" t="s">
+      <c r="J17" s="97"/>
+      <c r="K17" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="33"/>
       <c r="O17" s="24"/>
     </row>
@@ -5199,16 +5714,16 @@
       <c r="B18" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="95" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="33"/>
@@ -5219,16 +5734,16 @@
       <c r="B19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="101" t="s">
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="33"/>
@@ -5567,7 +6082,7 @@
       <c r="B7" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="105" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5584,9 +6099,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M22"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -5598,268 +6113,264 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="114" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="115" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:13">
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="3" spans="2:13">
       <c r="M3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="M4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="20" customHeight="1">
-      <c r="B7" s="123" t="s">
+    <row r="5" spans="2:13" ht="20" customHeight="1">
+      <c r="B5" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="120">
-        <f>E7+E8+E9+G8+G9</f>
-        <v>20</v>
-      </c>
-      <c r="D7" s="78" t="s">
+      <c r="C5" s="121">
+        <f>E5+E6+E7+G6+G7</f>
+        <v>18</v>
+      </c>
+      <c r="D5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="123"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="79" t="s">
+      <c r="E5" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="124"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="125">
-        <v>1</v>
-      </c>
-      <c r="F8" s="79" t="s">
+      <c r="E6" s="126">
+        <v>1</v>
+      </c>
+      <c r="F6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="125">
-        <v>1</v>
+      <c r="G6" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="124"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="130">
+        <f>G6+G7</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="125">
+        <f>E9+E10+E12+E13+E14</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="123"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="130">
-        <f>G8+G9</f>
-        <v>9</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="124">
-        <f>E11+E12+E14+E15+E16</f>
+      <c r="B9" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="121">
+        <f>E9+E10+G9+G10+I10</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="126">
+        <v>1</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="129">
+        <v>1</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="2:13" ht="38" customHeight="1">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="125">
+        <f>G9:G10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="125">
+        <f>I10</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="20" customHeight="1">
+      <c r="B12" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="121">
+        <f>E12+E13+E14+G13+G14+G15</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="120" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="120">
-        <f>E11+E12+G11+G12+I12</f>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="36" customHeight="1">
+      <c r="B13" s="124"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="158">
+        <v>1</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="157"/>
+    </row>
+    <row r="14" spans="2:13" ht="25" customHeight="1">
+      <c r="B14" s="124"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="110">
+        <f>G13+G14+G15</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="140" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="153">
+        <v>1</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="83">
+        <f>K14+K15</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="25" customHeight="1">
+      <c r="B15" s="124"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="125">
+        <f>I14</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20" customHeight="1">
+      <c r="B17" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="124">
+        <f>E18+E17</f>
         <v>5</v>
       </c>
-      <c r="D11" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="125">
-        <v>1</v>
-      </c>
-      <c r="F11" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="128">
-        <v>1</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="2:13" ht="38" customHeight="1">
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="124">
-        <f>G11:G12</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="124">
-        <f>I12</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="20" customHeight="1">
-      <c r="B14" s="123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="120">
-        <f>E14+E15+E16+G15+G16+G17</f>
-        <v>10</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="36" customHeight="1">
-      <c r="B15" s="123"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="129">
-        <v>1</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="25" customHeight="1">
-      <c r="B16" s="123"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="109">
-        <f>G15+G16+G17</f>
+      <c r="D17" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="126">
+        <v>1</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20" customHeight="1">
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="121">
+        <f>G17+G18+G19+G20</f>
         <v>4</v>
       </c>
-      <c r="F16" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="127">
-        <v>1</v>
-      </c>
-      <c r="H16" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="83">
-        <f>K16+K17</f>
-        <v>2</v>
-      </c>
-      <c r="J16" s="116" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="25" customHeight="1">
-      <c r="B17" s="123"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="124">
-        <f>I16</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="20" customHeight="1">
-      <c r="B19" s="123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="123">
-        <f>E20+E19</f>
-        <v>5</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="125">
-        <v>1</v>
-      </c>
-      <c r="F19" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="20" customHeight="1">
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
+      <c r="F18" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20" customHeight="1">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="116" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20" customHeight="1">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="79"/>
-      <c r="E20" s="120">
-        <f>G19+G20+G21+G22</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="20" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="20" customHeight="1">
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="115" t="s">
+      <c r="E20" s="123"/>
+      <c r="F20" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G20" s="126">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,12 @@
     <sheet name="Sheet10" sheetId="10" r:id="rId8"/>
     <sheet name="Model V0" sheetId="11" r:id="rId9"/>
     <sheet name="Model V1" sheetId="18" r:id="rId10"/>
-    <sheet name="Provider view" sheetId="12" r:id="rId11"/>
-    <sheet name="Questionaire" sheetId="17" r:id="rId12"/>
-    <sheet name="User view" sheetId="15" r:id="rId13"/>
+    <sheet name="User View" sheetId="20" r:id="rId11"/>
+    <sheet name="Users Questionaire" sheetId="17" r:id="rId12"/>
+    <sheet name="Users Questionaire 2 Apply" sheetId="21" r:id="rId13"/>
+    <sheet name="Provider view" sheetId="12" r:id="rId14"/>
+    <sheet name="Providers Questionaire" sheetId="19" r:id="rId15"/>
+    <sheet name="Providers Questionaire 2 Apply" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="192">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -267,9 +270,6 @@
     <t>Confidentiality</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Response Time</t>
   </si>
   <si>
@@ -534,45 +534,21 @@
     <t>e-service product quality</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>For the e-service user</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>usability</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>efficiency</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>For the e-service provider</t>
-  </si>
-  <si>
     <t>Was it easy to know about the existence of the e-service?</t>
   </si>
   <si>
-    <t>The graphic interface was clear and comprehensive?</t>
-  </si>
-  <si>
     <t>Did you face any response problems?</t>
   </si>
   <si>
@@ -582,63 +558,18 @@
     <t>Do you trust on the e-service to use it again?</t>
   </si>
   <si>
-    <t>Do you have up to date technology to deliver the e-service?</t>
-  </si>
-  <si>
-    <t>Is the e-service able to work in conjuntion with other e-services of same or different type?</t>
-  </si>
-  <si>
-    <t>Is the e-service able to exchange data or information with other e-services of same or different type?</t>
-  </si>
-  <si>
     <t>Is the medium for publishing e-services secure? [38]</t>
   </si>
   <si>
-    <t>Have you encountered any security problems when accessing the service? [38]</t>
-  </si>
-  <si>
-    <t>Does provider analyze and collect metrics to improve future offereings of its services? [38]</t>
-  </si>
-  <si>
-    <t>Does provider have an up to date incident response plan? [38]</t>
-  </si>
-  <si>
-    <t>Does provider have and up to date disaster recovery plan? [38]</t>
-  </si>
-  <si>
     <t>Does provider understand the importance of protecting the interest and privacy of its service users? [38]</t>
   </si>
   <si>
-    <t>Does provider possess the expertise needed to properly deal with external organizations? [38]</t>
-  </si>
-  <si>
-    <t>Does provider collect, analyze and use metrics related to the performance of its external relationships? [38]</t>
-  </si>
-  <si>
-    <t>Does provider understand the importance of protecting the interest and privacy of its service users?</t>
-  </si>
-  <si>
     <t>Does provider collect metrics related to the quality of its services and the problems related to it? [38]</t>
   </si>
   <si>
-    <t>Does provider take necessry corrective actions for any wrong doing? [38]</t>
-  </si>
-  <si>
-    <t>Does provider assume responsibility for any wrong doing on its part? [38]</t>
-  </si>
-  <si>
     <t>Is service provider commited to responsiveness when dealing with service problems? [38]</t>
   </si>
   <si>
-    <t>Does service provider assume responsibility for any problems causedby its dealings with external third party organizations? [38]</t>
-  </si>
-  <si>
-    <t>Is it convenient?</t>
-  </si>
-  <si>
-    <t>is it available when you need it?</t>
-  </si>
-  <si>
     <t>Was it easy to learn the functionality?</t>
   </si>
   <si>
@@ -651,9 +582,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Value for model</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -669,28 +597,10 @@
     <t>Did you get complete results?</t>
   </si>
   <si>
-    <t>completeness</t>
-  </si>
-  <si>
-    <t>correctness</t>
-  </si>
-  <si>
     <t>Answer (Yes/No/NA)</t>
   </si>
   <si>
-    <t>When you had a problem, did you get faster solution?</t>
-  </si>
-  <si>
-    <t>Customer service</t>
-  </si>
-  <si>
-    <t>availability</t>
-  </si>
-  <si>
-    <t>Did you authenticate yourself for using the e-service?</t>
-  </si>
-  <si>
-    <t>Were you informed your information is not shared with third parties without your authorization?</t>
+    <t>Were you informed that your information is not shared with third parties without your authorization?</t>
   </si>
   <si>
     <t>No</t>
@@ -709,6 +619,105 @@
   </si>
   <si>
     <t>Fault tolerance</t>
+  </si>
+  <si>
+    <t>Was the graphic interface clear and comprehensive?</t>
+  </si>
+  <si>
+    <t>When you had a problem, did you get faster or proper solution?</t>
+  </si>
+  <si>
+    <t>Have you encountered any security problems when accessing or using the service? [38]</t>
+  </si>
+  <si>
+    <t>Did you authenticate yourself in order to use the service?</t>
+  </si>
+  <si>
+    <t>Does the provider makes effort to guarantee availability to the service 24/7/365?</t>
+  </si>
+  <si>
+    <t>Is the service able to exchange data or information with other e-services of same or different type?</t>
+  </si>
+  <si>
+    <t>Is the service able to work in conjuntion with other e-services of same or different type?</t>
+  </si>
+  <si>
+    <t>Does provider have up to date technology to deliver the service?</t>
+  </si>
+  <si>
+    <t>Is the service able to properly deal with external organizations? [38]</t>
+  </si>
+  <si>
+    <t>Does provider take necessary corrective actions for any wrong doing by the service? [38]</t>
+  </si>
+  <si>
+    <t>Does provider assume responsibility for any wrong doing by the service? [38]</t>
+  </si>
+  <si>
+    <t>Does service have an up to date incident control?</t>
+  </si>
+  <si>
+    <t>Does service have and up to date disaster recovery plan? [38]</t>
+  </si>
+  <si>
+    <t>Does service have time performance guarantee?</t>
+  </si>
+  <si>
+    <t>Are external service relationships time performance guaranteed?</t>
+  </si>
+  <si>
+    <t>Does service guarantee complete transactions related to its functionality?</t>
+  </si>
+  <si>
+    <t>Does service guarantee correct transactions related to its functionality?</t>
+  </si>
+  <si>
+    <t>Are the related algorithms related to service functionality improved or optimized?</t>
+  </si>
+  <si>
+    <t>Is the service user interface meant to be easy to use, not just for functionality?</t>
+  </si>
+  <si>
+    <t>Are the service visual components helpful for faster learning to use?</t>
+  </si>
+  <si>
+    <t>Are the service visual components meant to be visually comfortable to the user?</t>
+  </si>
+  <si>
+    <t>Survey to be answered by the e-service user</t>
+  </si>
+  <si>
+    <t>Does service guarantee that during performing its functionality its free of errors?</t>
+  </si>
+  <si>
+    <t>Does service perform authentication tasks to guarantee authorized users are allowed to use the service?</t>
+  </si>
+  <si>
+    <t>Does service provider assume responsibility for any problems caused by serivce interactions with external third parties? [38]</t>
+  </si>
+  <si>
+    <t>Does service protects each user information agains not meant mixures?</t>
+  </si>
+  <si>
+    <t>Dimensional factor</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Quality Factor</t>
+  </si>
+  <si>
+    <t>Quality Level</t>
+  </si>
+  <si>
+    <t>Dependability</t>
+  </si>
+  <si>
+    <t>Key component</t>
+  </si>
+  <si>
+    <t>Mapped value</t>
   </si>
 </sst>
 </file>
@@ -718,7 +727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,12 +802,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,14 +846,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1059,8 +1076,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="311">
+  <cellStyleXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1372,8 +1555,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1384,7 +1583,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1439,6 +1642,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,9 +1701,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1512,7 +1715,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,6 +1812,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1676,7 +1881,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1740,13 +1944,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1779,49 +1988,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,14 +2010,168 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="311">
+  <cellStyles count="327">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2003,6 +2327,14 @@
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2158,6 +2490,14 @@
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2504,193 +2844,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="33"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="110" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="2:10" s="24" customFormat="1" ht="20" customHeight="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="28" t="s">
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:10" s="27" customFormat="1" ht="20" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="106" t="s">
+      <c r="I3" s="112"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B4" s="113"/>
+      <c r="C4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="29" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="112"/>
-    </row>
-    <row r="5" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="107" t="s">
+      <c r="J4" s="113"/>
+    </row>
+    <row r="5" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="113"/>
+      <c r="C5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="112"/>
-    </row>
-    <row r="6" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="108" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="113"/>
+    </row>
+    <row r="6" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="113"/>
+      <c r="C6" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="31" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
-    </row>
-    <row r="7" spans="2:10" s="14" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="J6" s="113"/>
+    </row>
+    <row r="7" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B7" s="113"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="112"/>
+      <c r="J7" s="113"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="113" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="114" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="114"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="106">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="29" t="s">
+      <c r="C14" s="107">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="J14">
@@ -2698,17 +3038,17 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="107">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="30" t="s">
+      <c r="C15" s="108">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J15">
@@ -2716,21 +3056,21 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="108">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="31" t="s">
+      <c r="C16" s="109">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="34" t="s">
         <v>2</v>
       </c>
       <c r="J16">
@@ -2738,22 +3078,22 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="109"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="32" t="s">
+      <c r="C17" s="110"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="19">
         <v>3</v>
       </c>
     </row>
@@ -2861,15 +3201,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
@@ -2883,119 +3223,119 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="116" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="133" t="s">
+      <c r="E2" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="135" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="I2" s="137" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="139" t="s">
-        <v>129</v>
+      <c r="B3" s="141" t="s">
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="79">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="151">
         <v>0</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="79">
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="159">
+      <c r="I3" s="148">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
       <c r="J3" s="2"/>
       <c r="V3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="156"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="151">
         <v>0</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="151">
         <v>0</v>
       </c>
-      <c r="H4" s="78">
+      <c r="H4" s="79">
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="160"/>
+      <c r="I4" s="149"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="140"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="151">
         <v>0</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="151">
         <v>0</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="151">
         <v>0</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="138">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H5" s="137">
+      <c r="H5" s="139">
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="161"/>
+      <c r="I5" s="150"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -3005,85 +3345,85 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="134" t="s">
-        <v>130</v>
+      <c r="B7" s="136" t="s">
+        <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E7" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="78">
+      <c r="E7" s="151">
+        <v>0</v>
+      </c>
+      <c r="F7" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="138">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="139">
         <f>SUM(D7:G7)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I7" s="138">
+      <c r="I7" s="140">
         <f>SUM(H7:H9)</f>
         <v>18.833333333333332</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="134"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="79">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="151">
         <v>0</v>
       </c>
-      <c r="H8" s="78">
+      <c r="H8" s="79">
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
         <v>9</v>
       </c>
-      <c r="I8" s="138"/>
+      <c r="I8" s="140"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="134"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="78">
+        <v>86</v>
+      </c>
+      <c r="D9" s="151">
         <v>0</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="151">
         <v>0</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="151">
         <v>0</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="138">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="139">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I9" s="138"/>
+      <c r="I9" s="140"/>
     </row>
     <row r="10" spans="2:22" ht="4" customHeight="1"/>
     <row r="11" spans="2:22">
@@ -3111,46 +3451,46 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="20" customHeight="1">
-      <c r="K13" s="124" t="s">
+      <c r="K13" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="122">
         <f>N13+N14+N15+P14+P15</f>
         <v>18</v>
       </c>
-      <c r="M13" s="78" t="s">
+      <c r="M13" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="126">
+      <c r="N13" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36" customHeight="1">
-      <c r="K14" s="124"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="79" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="126">
-        <v>1</v>
-      </c>
-      <c r="O14" s="79" t="s">
+      <c r="N14" s="129">
+        <v>1</v>
+      </c>
+      <c r="O14" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="126">
+      <c r="P14" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1">
-      <c r="K15" s="124"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="125">
+      <c r="K15" s="125"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="126">
         <f>P14+P15</f>
         <v>8</v>
       </c>
-      <c r="O15" s="79"/>
-      <c r="P15" s="125">
+      <c r="O15" s="80"/>
+      <c r="P15" s="126">
         <f>N17+N18+N20+N21+N22</f>
         <v>7</v>
       </c>
@@ -3162,44 +3502,44 @@
       </c>
     </row>
     <row r="17" spans="11:20">
-      <c r="K17" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="121">
+      <c r="K17" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="122">
         <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="M17" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="126">
-        <v>1</v>
-      </c>
-      <c r="O17" s="79" t="s">
+      <c r="N17" s="129">
+        <v>1</v>
+      </c>
+      <c r="O17" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="129">
+      <c r="P17" s="131">
         <v>1</v>
       </c>
       <c r="Q17"/>
     </row>
     <row r="18" spans="11:20" ht="34" customHeight="1">
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="125">
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="126">
         <f>P17:P18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="79"/>
-      <c r="P18" s="125">
+      <c r="O18" s="80"/>
+      <c r="P18" s="126">
         <f>R18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="82" t="s">
+      <c r="Q18" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="126">
+      <c r="R18" s="129">
         <v>1</v>
       </c>
     </row>
@@ -3210,142 +3550,142 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="121" t="s">
+      <c r="K20" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L20" s="122">
         <f>N20+N21+N22+P22+P23</f>
         <v>8</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="127">
+      <c r="N20" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="118" t="s">
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="152">
-        <v>1</v>
-      </c>
-      <c r="O21" s="94"/>
-      <c r="P21" s="157"/>
+      <c r="N21" s="143">
+        <v>1</v>
+      </c>
+      <c r="O21" s="96"/>
+      <c r="P21" s="146"/>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="110">
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="111">
         <f>P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="153">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="139" t="s">
+      <c r="O22" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="144">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="139">
+      <c r="R22" s="141">
         <f>T22+T23</f>
         <v>2</v>
       </c>
-      <c r="S22" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="T22" s="127">
+      <c r="S22" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="T22" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="125">
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="126">
         <f>R22</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="140"/>
-      <c r="S23" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="T23" s="127">
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="T23" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="11:20">
-      <c r="K24" s="131">
+      <c r="K24" s="133">
         <f>L25/3</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="25" spans="11:20" ht="20" customHeight="1">
-      <c r="K25" s="121" t="s">
+      <c r="K25" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="121">
+      <c r="L25" s="122">
         <f>N26+N25</f>
         <v>5</v>
       </c>
-      <c r="M25" s="118" t="s">
+      <c r="M25" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="126">
-        <v>1</v>
-      </c>
-      <c r="O25" s="116" t="s">
+      <c r="N25" s="129">
+        <v>1</v>
+      </c>
+      <c r="O25" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="126">
+      <c r="P25" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="11:20" ht="20" customHeight="1">
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="121">
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="122">
         <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
-      <c r="O26" s="116" t="s">
+      <c r="O26" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="126">
+      <c r="P26" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="11:20" ht="20" customHeight="1">
-      <c r="K27" s="122"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="116" t="s">
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="126">
+      <c r="P27" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="11:20" ht="20" customHeight="1">
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="116" t="s">
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="126">
+      <c r="P28" s="129">
         <v>1</v>
       </c>
     </row>
@@ -3387,410 +3727,497 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T24"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="116" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
-    <col min="18" max="18" width="3.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="D2" s="132" t="s">
+    <row r="2" spans="2:14" ht="16" thickBot="1"/>
+    <row r="3" spans="2:14" ht="22" customHeight="1">
+      <c r="B3" s="189" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="125">
+        <f>D11/4</f>
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125">
+        <f>D15/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125">
+        <f>D18/4</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="125"/>
+      <c r="L3" s="158">
+        <f>D23/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M3" s="178"/>
+      <c r="N3" s="188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="22" customHeight="1">
+      <c r="B4" s="190"/>
+      <c r="C4" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="133" t="s">
+      <c r="G4" s="161"/>
+      <c r="H4" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K4" s="161"/>
+      <c r="L4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="135" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="134" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="M4" s="172"/>
+      <c r="N4" s="188"/>
+    </row>
+    <row r="5" spans="2:14" ht="20" customHeight="1">
+      <c r="B5" s="175">
+        <f>F5+J5+F6+J6+L7+H5</f>
+        <v>17.166666666666664</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="80">
+        <f>F3</f>
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="163">
+        <f>H3</f>
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="163"/>
+      <c r="J5" s="80">
+        <f>J3</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="176">
+        <v>0</v>
+      </c>
+      <c r="M5" s="177"/>
+      <c r="N5" s="158">
+        <v>17.170000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20" customHeight="1">
+      <c r="B6" s="182"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="163">
+        <f>F3</f>
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="163">
+        <f>$C$10</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="153">
+        <v>0</v>
+      </c>
+      <c r="I6" s="153"/>
+      <c r="J6" s="80">
+        <f>J3</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="80"/>
+      <c r="L6" s="157">
+        <v>0</v>
+      </c>
+      <c r="M6" s="174"/>
+      <c r="N6" s="158"/>
+    </row>
+    <row r="7" spans="2:14" ht="20" customHeight="1" thickBot="1">
+      <c r="B7" s="183"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="153">
+        <v>0</v>
+      </c>
+      <c r="G7" s="153">
+        <v>0</v>
+      </c>
+      <c r="H7" s="153">
+        <v>0</v>
+      </c>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153">
+        <v>0</v>
+      </c>
+      <c r="K7" s="153"/>
+      <c r="L7" s="140">
+        <f>L3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M7" s="179"/>
+      <c r="N7" s="158"/>
+    </row>
+    <row r="8" spans="2:14" ht="4" customHeight="1"/>
+    <row r="11" spans="2:14" ht="20" customHeight="1">
+      <c r="B11" s="122">
+        <v>18</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="122">
+        <f>F11+F12+F13+H12+H13</f>
+        <v>18</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="36" customHeight="1">
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="129">
+        <v>1</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="25" customHeight="1">
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="154">
+        <f>H12+H13</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="154">
+        <f>F15+F16+F18+F19+F20</f>
         <v>7</v>
       </c>
-      <c r="D3" s="78">
-        <f>$K$8</f>
-        <v>4.5</v>
-      </c>
-      <c r="E3" s="163">
-        <v>0</v>
-      </c>
-      <c r="F3" s="78">
-        <f>$K$15</f>
+    </row>
+    <row r="14" spans="2:14" ht="10" customHeight="1"/>
+    <row r="15" spans="2:14" ht="20" customHeight="1">
+      <c r="B15" s="122">
+        <v>5</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="122">
+        <f>F15+F16+H15+H16+J16</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="129">
+        <v>1</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="131">
+        <v>1</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="2:14" ht="34" customHeight="1">
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="154">
+        <f>H15:H16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="154">
+        <f>J16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="10" customHeight="1"/>
+    <row r="18" spans="2:12" ht="20" customHeight="1">
+      <c r="B18" s="122">
+        <v>8</v>
+      </c>
+      <c r="C18" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="136">
-        <f>$K$20</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H3" s="137">
-        <f>SUM(D3:G3)</f>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="I3" s="138">
-        <f>SUM(H3:H5)</f>
-        <v>18.833333333333332</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="134"/>
-      <c r="C4" s="4" t="s">
+      <c r="D18" s="122">
+        <f>F18+F19+F20+H20+H21</f>
         <v>8</v>
       </c>
-      <c r="D4" s="78">
-        <f>$K$8</f>
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="78">
-        <f>$K$12</f>
-        <v>2.5</v>
-      </c>
-      <c r="F4" s="78">
-        <f>$K$15</f>
+      <c r="E18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20" customHeight="1">
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="143">
+        <v>1</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="146"/>
+    </row>
+    <row r="20" spans="2:12" ht="20" customHeight="1">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="164">
+        <f>H20+H21</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="144">
+        <v>1</v>
+      </c>
+      <c r="I20" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="80"/>
+      <c r="L20" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="20" customHeight="1">
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="154">
+        <f>L20+L21</f>
         <v>2</v>
       </c>
-      <c r="G4" s="163">
-        <v>0</v>
-      </c>
-      <c r="H4" s="78">
-        <f t="shared" ref="H4:H5" si="0">SUM(D4:G4)</f>
-        <v>9</v>
-      </c>
-      <c r="I4" s="138"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="134"/>
-      <c r="C5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="163">
-        <v>0</v>
-      </c>
-      <c r="E5" s="163">
-        <v>0</v>
-      </c>
-      <c r="F5" s="78">
-        <v>0</v>
-      </c>
-      <c r="G5" s="136">
-        <f>$K$20</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H5" s="137">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I5" s="138"/>
-    </row>
-    <row r="6" spans="2:18" ht="4" customHeight="1"/>
-    <row r="7" spans="2:18">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="162"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="K8">
-        <f>L9/4</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="20" customHeight="1">
-      <c r="K9" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="121">
-        <f>N9+N10+N11+P10+P11</f>
-        <v>18</v>
-      </c>
-      <c r="M9" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="36" customHeight="1">
-      <c r="K10" s="124"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="126">
-        <v>1</v>
-      </c>
-      <c r="O10" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="25" customHeight="1">
-      <c r="K11" s="124"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="125">
-        <f>P10+P11</f>
-        <v>8</v>
-      </c>
-      <c r="O11" s="79"/>
-      <c r="P11" s="125">
-        <f>N13+N14+N16+N17+N18</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="25" customHeight="1">
-      <c r="K12">
-        <f>L13/2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="K13" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="121">
-        <f>N13+N14+P13+P14+R14</f>
+      <c r="I21" s="142"/>
+      <c r="J21" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="80"/>
+      <c r="L21" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="10" customHeight="1">
+      <c r="C22" s="133"/>
+    </row>
+    <row r="23" spans="2:12" ht="20" customHeight="1">
+      <c r="B23" s="122">
         <v>5</v>
       </c>
-      <c r="M13" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="126">
-        <v>1</v>
-      </c>
-      <c r="O13" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="129">
-        <v>1</v>
-      </c>
-      <c r="Q13"/>
-    </row>
-    <row r="14" spans="2:18" ht="34" customHeight="1">
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="125">
-        <f>P13:P14</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="79"/>
-      <c r="P14" s="125">
-        <f>R14</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="K15">
-        <f>L16/4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="20" customHeight="1">
-      <c r="K16" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="121">
-        <f>N16+N17+N18+P18+P19</f>
-        <v>8</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="11:20" ht="20" customHeight="1">
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="N17" s="152">
-        <v>1</v>
-      </c>
-      <c r="O17" s="94"/>
-      <c r="P17" s="157"/>
-    </row>
-    <row r="18" spans="11:20" ht="20" customHeight="1">
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="110">
-        <f>P17+P18+P19</f>
+      <c r="C23" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" s="153">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" s="139">
-        <f>T18+T19</f>
-        <v>2</v>
-      </c>
-      <c r="S18" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="T18" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="11:20" ht="20" customHeight="1">
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="125">
-        <f>R18</f>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="T19" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="11:20">
-      <c r="K20" s="131">
-        <f>L21/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="121">
-        <f>N22+N21</f>
+      <c r="D23" s="122">
+        <f>F24+F23</f>
         <v>5</v>
       </c>
-      <c r="M21" s="118" t="s">
+      <c r="E23" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="126">
-        <v>1</v>
-      </c>
-      <c r="O21" s="116" t="s">
+      <c r="F23" s="129">
+        <v>1</v>
+      </c>
+      <c r="G23" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="P21" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="121">
-        <f>P21+P22+P23+P24</f>
+      <c r="H23" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="20" customHeight="1">
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="166">
+        <f>H23+H24+H25+H26</f>
         <v>4</v>
       </c>
-      <c r="O22" s="116" t="s">
+      <c r="G24" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="122"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="116" t="s">
+      <c r="H24" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="20" customHeight="1">
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="P23" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="11:20" ht="20" customHeight="1">
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="116" t="s">
+      <c r="H25" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20" customHeight="1">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="126">
-        <v>1</v>
-      </c>
+      <c r="H26" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="16" thickBot="1"/>
+    <row r="29" spans="2:12" ht="24" customHeight="1" thickBot="1">
+      <c r="B29" s="197" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="199">
+        <f>F11+F18+L7+F23+H25+H26</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E29" s="200"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
+  <mergeCells count="56">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3804,480 +4231,394 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H64"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="C3" s="3" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="2:7" ht="30">
+      <c r="B3" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="204" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B22" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="201" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="202" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="D12" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12">
+      <c r="D15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.5</v>
       </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F15" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="D17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22">
-        <v>0.5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="D23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="D25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="D27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="D29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="D31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="D33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="D35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="D36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="D38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="D42" s="48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="C43" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="C44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="D48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="D52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="D55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="D57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="D58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="D59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="D61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="D62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="D63" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="D64" t="s">
-        <v>163</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C43:H43"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4291,417 +4632,1788 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V23"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="2:7" ht="30">
+      <c r="B3" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="204" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B22" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="201" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="202" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="116" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
-    <col min="18" max="18" width="3.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
-      <c r="D2" s="132" t="s">
+    <row r="2" spans="2:14" ht="16" thickBot="1"/>
+    <row r="3" spans="2:14" ht="22" customHeight="1">
+      <c r="B3" s="191" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="125">
+        <f>D11/4</f>
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125">
+        <f>D15/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125">
+        <f>D18/4</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="125"/>
+      <c r="L3" s="169">
+        <f>D23/3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M3" s="171"/>
+      <c r="N3" s="186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="22" customHeight="1">
+      <c r="B4" s="192"/>
+      <c r="C4" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="133" t="s">
+      <c r="G4" s="161"/>
+      <c r="H4" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K4" s="161"/>
+      <c r="L4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M4" s="172"/>
+      <c r="N4" s="187"/>
+    </row>
+    <row r="5" spans="2:14" ht="20" customHeight="1">
+      <c r="B5" s="181">
+        <f>F5+J5+L5+F6+H6+J6+L7</f>
+        <v>18.833333333333332</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="80">
+        <f>F3</f>
+        <v>4.5</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="153">
+        <v>0</v>
+      </c>
+      <c r="I5" s="153"/>
+      <c r="J5" s="80">
+        <f>J3</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="80"/>
+      <c r="L5" s="170">
+        <f>L3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M5" s="173"/>
+      <c r="N5" s="184">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="20" customHeight="1">
+      <c r="B6" s="182"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="163">
+        <f>F3</f>
+        <v>4.5</v>
+      </c>
+      <c r="G6" s="163">
+        <f>$C$10</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="80">
+        <f>H3</f>
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80">
+        <f>J3</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="80"/>
+      <c r="L6" s="157">
+        <v>0</v>
+      </c>
+      <c r="M6" s="174"/>
+      <c r="N6" s="184"/>
+    </row>
+    <row r="7" spans="2:14" ht="20" customHeight="1" thickBot="1">
+      <c r="B7" s="183"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="153">
+        <v>0</v>
+      </c>
+      <c r="G7" s="153">
+        <v>0</v>
+      </c>
+      <c r="H7" s="153">
+        <v>0</v>
+      </c>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153">
+        <v>0</v>
+      </c>
+      <c r="K7" s="153"/>
+      <c r="L7" s="170">
+        <f>L3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M7" s="173"/>
+      <c r="N7" s="185"/>
+    </row>
+    <row r="8" spans="2:14" ht="4" customHeight="1"/>
+    <row r="11" spans="2:14" ht="20" customHeight="1">
+      <c r="B11" s="125">
+        <v>18</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="122">
+        <f>F11+F12+F13+H12+H13</f>
+        <v>18</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="36" customHeight="1">
+      <c r="B12" s="125"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="129">
+        <v>1</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="25" customHeight="1">
+      <c r="B13" s="125"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="154">
+        <f>H12+H13</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="154">
+        <f>F15+F16+F18+F19+F20</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="10" customHeight="1"/>
+    <row r="15" spans="2:14" ht="20" customHeight="1">
+      <c r="B15" s="125">
+        <v>5</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="122">
+        <f>F15+F16+H15+H16+J16</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="129">
+        <v>1</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="131">
+        <v>1</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="2:14" ht="34" customHeight="1">
+      <c r="B16" s="125"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="154">
+        <f>H15:H16</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="80"/>
+      <c r="H16" s="154">
+        <f>J16</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="10" customHeight="1"/>
+    <row r="18" spans="2:12" ht="20" customHeight="1">
+      <c r="B18" s="125">
+        <v>8</v>
+      </c>
+      <c r="C18" s="122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="122">
+        <f>F18+F19+F20+H20+H21</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20" customHeight="1">
+      <c r="B19" s="125"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="143">
+        <v>1</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="146"/>
+    </row>
+    <row r="20" spans="2:12" ht="20" customHeight="1">
+      <c r="B20" s="125"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="164">
+        <f>H20+H21</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="144">
+        <v>1</v>
+      </c>
+      <c r="I20" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="80"/>
+      <c r="L20" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="20" customHeight="1">
+      <c r="B21" s="125"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="154">
+        <f>L20+L21</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="142"/>
+      <c r="J21" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="80"/>
+      <c r="L21" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="10" customHeight="1">
+      <c r="C22" s="133"/>
+    </row>
+    <row r="23" spans="2:12" ht="20" customHeight="1">
+      <c r="B23" s="125">
+        <v>5</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="122">
+        <f>F24+F23</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="129">
+        <v>1</v>
+      </c>
+      <c r="G23" s="118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="20" customHeight="1">
+      <c r="B24" s="125"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="166">
+        <f>H23+H24+H25+H26</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="20" customHeight="1">
+      <c r="B25" s="125"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="118" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="20" customHeight="1">
+      <c r="B26" s="125"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="16" thickBot="1"/>
+    <row r="29" spans="2:12" ht="24" customHeight="1" thickBot="1">
+      <c r="B29" s="193" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="194"/>
+      <c r="D29" s="196">
+        <f>F11+F18+F23+H25+H26+L7</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E29" s="195"/>
+    </row>
+  </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="2:7" ht="30">
+      <c r="B3" s="204" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="C3" s="204" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="2:22">
-      <c r="B3" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="204" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="204" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="204" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B28" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D3" s="78">
-        <f>$K$7</f>
-        <v>4.5</v>
-      </c>
-      <c r="E3" s="78">
-        <f>K11</f>
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="78">
-        <f>K14</f>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="1" customFormat="1">
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:7" s="1" customFormat="1">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:7" s="1" customFormat="1">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:7" s="1" customFormat="1">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="3:7" s="1" customFormat="1">
+      <c r="C33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="3:7" s="1" customFormat="1">
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="203" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="2:7" ht="30">
+      <c r="B3" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="204" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="204" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="204" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="204" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
+        <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="G3" s="163">
-        <v>0</v>
-      </c>
-      <c r="H3" s="78">
-        <f>SUM(D3:G3)</f>
+      <c r="C5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B28" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I3" s="138">
-        <f>SUM(H3:H5)</f>
-        <v>17.166666666666668</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="V3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="83"/>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="78">
-        <f>$K$7</f>
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="163">
-        <v>0</v>
-      </c>
-      <c r="F4" s="78">
-        <f>K14</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="163">
-        <v>0</v>
-      </c>
-      <c r="H4" s="78">
-        <f>SUM(D4:G4)</f>
-        <v>6.5</v>
-      </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="2"/>
-      <c r="V4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="83"/>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="163">
-        <v>0</v>
-      </c>
-      <c r="E5" s="163">
-        <v>0</v>
-      </c>
-      <c r="F5" s="163">
-        <v>0</v>
-      </c>
-      <c r="G5" s="136">
-        <f>K19</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H5" s="137">
-        <f>SUM(D5:G5)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="I5" s="138"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="K7">
-        <f>L8/4</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="20" customHeight="1">
-      <c r="K8" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="121">
-        <f>N8+N9+N10+P9+P10</f>
-        <v>18</v>
-      </c>
-      <c r="M8" s="149" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="36" customHeight="1">
-      <c r="K9" s="124"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="79" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="126">
-        <v>1</v>
-      </c>
-      <c r="O9" s="142" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="25" customHeight="1">
-      <c r="K10" s="124"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="125">
-        <f>P9+P10</f>
-        <v>8</v>
-      </c>
-      <c r="O10" s="142"/>
-      <c r="P10" s="125">
-        <f>N12+N13+N15+N16+N17</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="15" customHeight="1">
-      <c r="K11">
-        <f>L12/2</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
-      <c r="K12" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="121">
-        <f>N12+N13+P12+P13+R13</f>
-        <v>5</v>
-      </c>
-      <c r="M12" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="126">
-        <v>1</v>
-      </c>
-      <c r="O12" s="142" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="129">
-        <v>1</v>
-      </c>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="2:22" ht="34" customHeight="1">
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="125">
-        <f>P12:P13</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="142"/>
-      <c r="P13" s="125">
-        <f>R13</f>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="141" t="s">
-        <v>32</v>
-      </c>
-      <c r="R13" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22">
-      <c r="K14">
-        <f>L15/4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="20" customHeight="1">
-      <c r="K15" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="121">
-        <f>N15+N16+N17+P17+P18</f>
-        <v>8</v>
-      </c>
-      <c r="M15" s="151" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="20" customHeight="1">
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" s="127">
-        <v>1</v>
-      </c>
-      <c r="O16" s="154"/>
-      <c r="P16" s="155"/>
-    </row>
-    <row r="17" spans="11:20" ht="20" customHeight="1">
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="110">
-        <f>P17+P18</f>
-        <v>3</v>
-      </c>
-      <c r="O17" s="143" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="128">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="139" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" s="139">
-        <f>T17+T18</f>
-        <v>2</v>
-      </c>
-      <c r="S17" s="145" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T17" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="11:20" ht="20" customHeight="1">
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="125">
-        <f>R17</f>
-        <v>2</v>
-      </c>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="140"/>
-      <c r="S18" s="145" t="s">
-        <v>127</v>
-      </c>
-      <c r="T18" s="127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="11:20">
-      <c r="K19" s="131">
-        <f>L20/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="121">
-        <f>N21+N20</f>
-        <v>5</v>
-      </c>
-      <c r="M20" s="146" t="s">
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="126">
-        <v>1</v>
-      </c>
-      <c r="O20" s="150" t="s">
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="121">
-        <f>P20+P21+P22+P23</f>
-        <v>4</v>
-      </c>
-      <c r="O21" s="150" t="s">
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="150" t="s">
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="150" t="s">
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="126">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="29" spans="2:7" s="1" customFormat="1">
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:7" s="1" customFormat="1">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:7" s="1" customFormat="1">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:7" s="1" customFormat="1">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="3:7" s="1" customFormat="1">
+      <c r="C33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="3:7" s="1" customFormat="1">
+      <c r="F34"/>
+      <c r="G34"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4728,90 +6440,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="39" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4846,198 +6558,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="35"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
-      <c r="B3" s="33"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="33"/>
+      <c r="D3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
-      <c r="B4" s="35"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="85" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="78" t="s">
+      <c r="E4" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B5" s="34"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:8" ht="20" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="89" t="s">
+      <c r="D6" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:8" ht="20" customHeight="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="2:8" ht="20" customHeight="1">
+      <c r="B8" s="36"/>
+      <c r="C8" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="2:8" ht="20" customHeight="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="35"/>
-      <c r="C6" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="91" t="s">
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="2:8" ht="20" customHeight="1">
+      <c r="B10" s="36"/>
+      <c r="C10" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" ht="20" customHeight="1">
+      <c r="B11" s="36"/>
+      <c r="C11" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="2:8" ht="20" customHeight="1">
+      <c r="B12" s="36"/>
+      <c r="C12" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="94"/>
+      <c r="G12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="2:8" ht="20" customHeight="1">
+      <c r="B13" s="36"/>
+      <c r="C13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="35"/>
-      <c r="C7" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="92" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="2:8" ht="23" customHeight="1">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="2:8" ht="20" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="2:8" ht="23" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="33"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="45"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5080,14 +6792,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="47"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="47"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -5126,155 +6838,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="33"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="25" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="37"/>
+      <c r="B6" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="69" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="70" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="72" t="s">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="56" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="34"/>
+      <c r="E10" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5292,10 +7004,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5317,452 +7029,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="24"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="82" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="36"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="36"/>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="36"/>
+    </row>
+    <row r="7" spans="1:15" ht="30">
+      <c r="A7" s="36"/>
+      <c r="B7" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="99"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="104"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" ht="30">
+      <c r="A9" s="36"/>
+      <c r="B9" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="36"/>
+    </row>
+    <row r="11" spans="1:15" ht="30">
+      <c r="A11" s="36"/>
+      <c r="B11" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="30">
+      <c r="A12" s="36"/>
+      <c r="B12" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="80" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="96" t="s">
+      <c r="G12" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96" t="s">
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" ht="37" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="36"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="36"/>
+      <c r="O14" s="27"/>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98" t="s">
+      <c r="M15" s="36"/>
+      <c r="O15" s="27"/>
+    </row>
+    <row r="16" spans="1:15" ht="30">
+      <c r="A16" s="36"/>
+      <c r="B16" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="33"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="96" t="s">
+      <c r="J16" s="97"/>
+      <c r="K16" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="97"/>
+      <c r="M16" s="36"/>
+      <c r="O16" s="27"/>
+    </row>
+    <row r="17" spans="1:15" ht="30" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:15" ht="30">
-      <c r="A7" s="33"/>
-      <c r="B7" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="100" t="s">
+      <c r="M17" s="36"/>
+      <c r="O17" s="27"/>
+    </row>
+    <row r="18" spans="1:15" ht="30" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="102"/>
-      <c r="M7" s="33"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="33"/>
-      <c r="B9" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" ht="30">
-      <c r="A11" s="33"/>
-      <c r="B11" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="33"/>
-    </row>
-    <row r="13" spans="1:15" ht="30">
-      <c r="A13" s="33"/>
-      <c r="B13" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="97" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="37" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="33"/>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" ht="30">
-      <c r="A17" s="33"/>
-      <c r="B17" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="97"/>
-      <c r="M17" s="33"/>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="96" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="33"/>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" ht="30" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="33"/>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
+      <c r="M18" s="36"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5801,15 +7494,15 @@
   <sheetData>
     <row r="7" spans="2:14">
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -5817,132 +7510,132 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="46" t="s">
-        <v>97</v>
+      <c r="B9" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="H9" s="46" t="s">
-        <v>97</v>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="H9" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="75"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="H10" s="46"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="75"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="H11" s="46"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="75"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="46"/>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="43" t="s">
+      <c r="F12" s="76"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="75"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75" t="s">
+      <c r="B13" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="H13" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="H13" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="46"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="75"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="46"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="75"/>
-      <c r="H15" s="46"/>
+      <c r="F15" s="76"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="75"/>
+        <v>86</v>
+      </c>
+      <c r="J15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5981,33 +7674,33 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="E5" s="77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="80" customHeight="1">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E6" s="77" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="77"/>
-      <c r="D6" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6039,51 +7732,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36" customHeight="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="36" customHeight="1">
+      <c r="B3" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1">
+      <c r="B4" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="36" customHeight="1">
-      <c r="B3" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="36" customHeight="1">
-      <c r="B4" s="44" t="s">
+    <row r="5" spans="2:3" ht="36" customHeight="1">
+      <c r="B5" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="36" customHeight="1">
-      <c r="B5" s="44" t="s">
+    <row r="6" spans="2:3" ht="36" customHeight="1">
+      <c r="B6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="36" customHeight="1">
-      <c r="B6" s="44" t="s">
+    <row r="7" spans="2:3" ht="36" customHeight="1">
+      <c r="B7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C7" s="106" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="36" customHeight="1">
-      <c r="B7" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6113,7 +7806,7 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="115" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="116" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
@@ -6121,232 +7814,232 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="M2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="M3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="20" customHeight="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="122">
         <f>E5+E6+E7+G6+G7</f>
         <v>18</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="124"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="125"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="126">
-        <v>1</v>
-      </c>
-      <c r="F6" s="79" t="s">
+      <c r="E6" s="129">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="126">
+      <c r="G6" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="124"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="130">
+      <c r="B7" s="125"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="132">
         <f>G6+G7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="125">
+      <c r="F7" s="80"/>
+      <c r="G7" s="126">
         <f>E9+E10+E12+E13+E14</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="121">
+      <c r="B9" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="122">
         <f>E9+E10+G9+G10+I10</f>
         <v>5</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="126">
-        <v>1</v>
-      </c>
-      <c r="F9" s="79" t="s">
+      <c r="E9" s="129">
+        <v>1</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="129">
+      <c r="G9" s="131">
         <v>1</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="2:13" ht="38" customHeight="1">
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="125">
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="126">
         <f>G9:G10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="125">
+      <c r="F10" s="80"/>
+      <c r="G10" s="126">
         <f>I10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="126">
+      <c r="I10" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20" customHeight="1">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="121">
+      <c r="C12" s="122">
         <f>E12+E13+E14+G13+G14+G15</f>
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="127">
+      <c r="E12" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="36" customHeight="1">
-      <c r="B13" s="124"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="79" t="s">
+      <c r="B13" s="125"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="158">
-        <v>1</v>
-      </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="157"/>
+      <c r="E13" s="147">
+        <v>1</v>
+      </c>
+      <c r="F13" s="96"/>
+      <c r="G13" s="146"/>
     </row>
     <row r="14" spans="2:13" ht="25" customHeight="1">
-      <c r="B14" s="124"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="110">
+      <c r="B14" s="125"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="111">
         <f>G13+G14+G15</f>
         <v>3</v>
       </c>
-      <c r="F14" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="153">
-        <v>1</v>
-      </c>
-      <c r="H14" s="83" t="s">
+      <c r="F14" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="144">
+        <v>1</v>
+      </c>
+      <c r="H14" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="85">
         <f>K14+K15</f>
         <v>2</v>
       </c>
-      <c r="J14" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="127">
+      <c r="J14" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="25" customHeight="1">
-      <c r="B15" s="124"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="125">
+      <c r="B15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="126">
         <f>I14</f>
         <v>2</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" s="127">
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="130">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="20" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="125">
         <f>E18+E17</f>
         <v>5</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="126">
-        <v>1</v>
-      </c>
-      <c r="F17" s="116" t="s">
+      <c r="E17" s="129">
+        <v>1</v>
+      </c>
+      <c r="F17" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20" customHeight="1">
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="121">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="122">
         <f>G17+G18+G19+G20</f>
         <v>4</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="126">
+      <c r="G18" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20" customHeight="1">
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="116" t="s">
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="126">
+      <c r="G19" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20" customHeight="1">
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="116" t="s">
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="126">
+      <c r="G20" s="129">
         <v>1</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,21 +553,9 @@
     <t>Do you trust on the e-service to use it again?</t>
   </si>
   <si>
-    <t>Does provider collect metrics related to the quality of its services and the problems related to it? [38]</t>
-  </si>
-  <si>
-    <t>Is service provider commited to responsiveness when dealing with service problems? [38]</t>
-  </si>
-  <si>
     <t>Was it easy to learn the functionality?</t>
   </si>
   <si>
-    <t>Was the service interrupted when you were using it? [38]</t>
-  </si>
-  <si>
-    <t>Was the service available when you needed it? [38]</t>
-  </si>
-  <si>
     <t>Was it easy to use the e-service?</t>
   </si>
   <si>
@@ -616,18 +604,6 @@
     <t>Does provider have up to date technology to deliver the service?</t>
   </si>
   <si>
-    <t>Is the service able to properly deal with external organizations? [38]</t>
-  </si>
-  <si>
-    <t>Does provider take necessary corrective actions for any wrong doing by the service? [38]</t>
-  </si>
-  <si>
-    <t>Does provider assume responsibility for any wrong doing by the service? [38]</t>
-  </si>
-  <si>
-    <t>Does service have and up to date disaster recovery plan? [38]</t>
-  </si>
-  <si>
     <t>Does service have time performance guarantee?</t>
   </si>
   <si>
@@ -658,12 +634,6 @@
     <t>Does service perform authentication tasks to guarantee authorized users are allowed to use the service?</t>
   </si>
   <si>
-    <t>Does service provider assume responsibility for any problems caused by serivce interactions with external third parties? [38]</t>
-  </si>
-  <si>
-    <t>Dimensional factor</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -706,9 +676,6 @@
     <t>When you had a problem, did you get faster or proper solution from the provider?</t>
   </si>
   <si>
-    <t>Have you experienced any security problems when accessing or using the service? [38]</t>
-  </si>
-  <si>
     <t>Did you face any response problems when you were using the service?</t>
   </si>
   <si>
@@ -724,13 +691,46 @@
     <t>Does provider protect the interests and privacy of its service users?</t>
   </si>
   <si>
-    <t>Does the medium for publishing e-services interacts or alter the users information? [38]</t>
-  </si>
-  <si>
     <t>Does service takes care of the confidentiality of user information?</t>
   </si>
   <si>
     <t>Survey to be answered by the e-service provider</t>
+  </si>
+  <si>
+    <t>Does service have and up to date disaster recovery plan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does provider assume responsibility for any wrong doing by the service? </t>
+  </si>
+  <si>
+    <t>Does provider take necessary corrective actions for any wrong doing by the service?</t>
+  </si>
+  <si>
+    <t>Does service provider assume responsibility for any problems caused by serivce interactions with external third parties?</t>
+  </si>
+  <si>
+    <t>Does provider collect metrics related to the quality of its services and the problems related to it?</t>
+  </si>
+  <si>
+    <t>Is service provider commited to responsiveness when dealing with service problems?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the medium for publishing e-services interacts or alter the users information? </t>
+  </si>
+  <si>
+    <t>Have you experienced any security problems when accessing or using the service?</t>
+  </si>
+  <si>
+    <t>Was the service available when you needed it?</t>
+  </si>
+  <si>
+    <t>Was the service interrupted when you were using it?</t>
+  </si>
+  <si>
+    <t>Is the service able to properly deal with external organizations?</t>
+  </si>
+  <si>
+    <t>Dimensional factor per dimension</t>
   </si>
 </sst>
 </file>
@@ -2783,1024 +2783,1024 @@
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="241">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4151,6 +4151,1036 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5393,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5436,10 +6466,10 @@
     <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="206"/>
       <c r="C3" s="183" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D3" s="198" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E3" s="198"/>
       <c r="F3" s="167"/>
@@ -5464,7 +6494,7 @@
       </c>
       <c r="N3" s="201"/>
       <c r="O3" s="261" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="P3" s="207"/>
     </row>
@@ -5472,7 +6502,7 @@
       <c r="B4" s="206"/>
       <c r="C4" s="184"/>
       <c r="D4" s="220" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E4" s="166" t="s">
         <v>11</v>
@@ -5530,7 +6560,7 @@
       </c>
       <c r="N5" s="181"/>
       <c r="O5" s="178">
-        <v>17</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="P5" s="207"/>
     </row>
@@ -5616,19 +6646,19 @@
     <row r="9" spans="2:16" ht="20" customHeight="1">
       <c r="B9" s="206"/>
       <c r="C9" s="195" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D9" s="195" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E9" s="195" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F9" s="195" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G9" s="195" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H9" s="208"/>
       <c r="I9" s="208"/>
@@ -6066,7 +7096,7 @@
         <v>6.6</v>
       </c>
       <c r="D27" s="197" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E27" s="187">
         <f>G10+G17+M7+G22+I24+I25</f>
@@ -6160,144 +7190,141 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="137" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="135" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="133" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="131" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="129" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="127" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="125" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="123" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="121" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="119" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="117" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="115" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="113" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="111" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="lessThan">
-      <formula>$O$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="greaterThan">
-      <formula>$O$5</formula>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+      <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="greaterThan">
-      <formula>$C$27</formula>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6315,7 +7342,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6341,7 +7368,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="193"/>
       <c r="B2" s="128" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="128"/>
@@ -6358,13 +7385,13 @@
         <v>133</v>
       </c>
       <c r="D3" s="192" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E3" s="192" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G3" s="193"/>
     </row>
@@ -6377,7 +7404,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E4" s="133">
         <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
@@ -6395,10 +7422,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E5" s="133">
         <f t="shared" si="0"/>
@@ -6416,10 +7443,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E6" s="133">
         <f t="shared" si="0"/>
@@ -6440,7 +7467,7 @@
         <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E7" s="133">
         <f>IF(D7="YES",0.5,0)</f>
@@ -6458,10 +7485,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="133">
         <f>IF(D8="NO",1,0)</f>
@@ -6479,10 +7506,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E9" s="133">
         <f>IF(D9="YES",1,0)</f>
@@ -6500,10 +7527,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E10" s="133">
         <f>IF(D10="YES",1,0)</f>
@@ -6521,10 +7548,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E11" s="133">
         <f>IF(D11="YES",1,0)</f>
@@ -6542,17 +7569,17 @@
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E12" s="133">
         <f>IF(D12="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G12" s="193"/>
     </row>
@@ -6563,10 +7590,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E13" s="133">
         <f>IF(D13="YES",1,0)</f>
@@ -6584,10 +7611,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="190" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E14" s="133">
         <f>IF(D14="YES",0.5,0)</f>
@@ -6608,7 +7635,7 @@
         <v>135</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E15" s="133">
         <f>IF(D15="YES",0.5,0)</f>
@@ -6626,10 +7653,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E16" s="133">
         <f>IF(D16="YES",1,0)</f>
@@ -6647,10 +7674,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E17" s="133">
         <f>IF(D17="YES",1,0)</f>
@@ -6668,10 +7695,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E18" s="133">
         <f>IF(D18="YES",1,0)</f>
@@ -6689,10 +7716,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E19" s="133">
         <f>IF(D19="YES",1,0)</f>
@@ -6710,10 +7737,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E20" s="133">
         <f>IF(D20="YES",1,0)</f>
@@ -6731,10 +7758,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E21" s="133">
         <f>IF(D21="NO",1,0)</f>
@@ -6752,10 +7779,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E22" s="133">
         <f>IF(D22="NO",1,0)</f>
@@ -6773,7 +7800,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="194"/>
       <c r="B24" s="26" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -6817,7 +7844,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6860,16 +7887,16 @@
     <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="231"/>
       <c r="C3" s="185" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D3" s="198" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="E3" s="198"/>
       <c r="F3" s="167"/>
       <c r="G3" s="199">
         <f>E10/4</f>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="H3" s="199"/>
       <c r="I3" s="199">
@@ -6879,7 +7906,7 @@
       <c r="J3" s="199"/>
       <c r="K3" s="199">
         <f>E17/4</f>
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="L3" s="199"/>
       <c r="M3" s="218">
@@ -6888,7 +7915,7 @@
       </c>
       <c r="N3" s="219"/>
       <c r="O3" s="259" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="P3" s="233"/>
     </row>
@@ -6896,7 +7923,7 @@
       <c r="B4" s="231"/>
       <c r="C4" s="186"/>
       <c r="D4" s="220" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E4" s="166" t="s">
         <v>11</v>
@@ -6925,10 +7952,10 @@
       <c r="B5" s="231"/>
       <c r="C5" s="263">
         <f>G5+K5+M5+G6+I6+K6+M7</f>
-        <v>18.083333333333336</v>
+        <v>18.833333333333332</v>
       </c>
       <c r="D5" s="234" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E5" s="235" t="s">
         <v>7</v>
@@ -6936,7 +7963,7 @@
       <c r="F5" s="236"/>
       <c r="G5" s="120">
         <f>G3</f>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="H5" s="120"/>
       <c r="I5" s="237">
@@ -6945,7 +7972,7 @@
       <c r="J5" s="237"/>
       <c r="K5" s="120">
         <f>K3</f>
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="L5" s="120"/>
       <c r="M5" s="238">
@@ -6968,7 +7995,7 @@
       <c r="F6" s="236"/>
       <c r="G6" s="242">
         <f>G3</f>
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="H6" s="242" t="str">
         <f>$D$9</f>
@@ -6981,7 +8008,7 @@
       <c r="J6" s="120"/>
       <c r="K6" s="120">
         <f>K3</f>
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="L6" s="120"/>
       <c r="M6" s="243">
@@ -7041,19 +8068,19 @@
     <row r="9" spans="2:16" ht="20" customHeight="1">
       <c r="B9" s="231"/>
       <c r="C9" s="195" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D9" s="195" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E9" s="195" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F9" s="195" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G9" s="195" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H9" s="208"/>
       <c r="I9" s="208"/>
@@ -7075,7 +8102,7 @@
       </c>
       <c r="E10" s="164">
         <f>G10+G11+G12+I11+I12</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="160" t="s">
         <v>27</v>
@@ -7129,12 +8156,12 @@
       <c r="F12" s="120"/>
       <c r="G12" s="248">
         <f>I11+I12</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H12" s="120"/>
       <c r="I12" s="248">
         <f>G14+G15+G17+G18+G19</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J12" s="209"/>
       <c r="K12" s="208"/>
@@ -7250,7 +8277,7 @@
       </c>
       <c r="E17" s="164">
         <f>G17+G18+G19+I19+I20</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F17" s="249" t="s">
         <v>33</v>
@@ -7278,8 +8305,8 @@
         <v>34</v>
       </c>
       <c r="G18" s="147">
-        <f>Providers_Survey!E19</f>
-        <v>0.5</v>
+        <f>Providers_Survey!E18+Providers_Survey!E19</f>
+        <v>1</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="154"/>
@@ -7491,7 +8518,7 @@
         <v>6.6</v>
       </c>
       <c r="D27" s="252" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E27" s="253">
         <f>G10+G17+G22+I24+I25+M7</f>
@@ -7585,140 +8612,140 @@
     <mergeCell ref="H14:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="2" operator="greaterThan">
       <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="1" operator="greaterThan">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7736,15 +8763,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="102.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -7763,7 +8790,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="193"/>
       <c r="B2" s="191" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C2" s="191"/>
       <c r="D2" s="191"/>
@@ -7780,13 +8807,13 @@
         <v>133</v>
       </c>
       <c r="D3" s="192" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E3" s="192" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F3" s="192" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G3" s="193"/>
     </row>
@@ -7796,10 +8823,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E4" s="133">
         <f>IF(D4="YES",1,0)</f>
@@ -7817,10 +8844,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E5" s="133">
         <f>IF(D5="YES",0.25,0)</f>
@@ -7838,10 +8865,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E6" s="133">
         <f t="shared" ref="E6:E8" si="1">IF(D6="YES",0.25,0)</f>
@@ -7859,10 +8886,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E7" s="133">
         <f t="shared" si="1"/>
@@ -7880,10 +8907,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E8" s="133">
         <f t="shared" si="1"/>
@@ -7901,10 +8928,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E9" s="133">
         <f>IF(D9="YES",1,0)</f>
@@ -7922,10 +8949,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E10" s="133">
         <f>IF(D10="YES",1,0)</f>
@@ -7943,10 +8970,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E11" s="133">
         <f>IF(D11="YES",1,0)</f>
@@ -7964,10 +8991,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E12" s="133">
         <f>IF(D12="YES",1,0)</f>
@@ -7985,17 +9012,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E13" s="133">
         <f>IF(D13="YES",0.2,0)</f>
         <v>0.2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G13" s="193"/>
     </row>
@@ -8006,17 +9033,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E14" s="133">
         <f t="shared" ref="E14:E18" si="2">IF(D14="YES",0.2,0)</f>
         <v>0.2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G14" s="193"/>
     </row>
@@ -8027,17 +9054,17 @@
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E15" s="133">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G15" s="193"/>
     </row>
@@ -8048,17 +9075,17 @@
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E16" s="133">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G16" s="193"/>
     </row>
@@ -8069,17 +9096,17 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E17" s="133">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G17" s="193"/>
     </row>
@@ -8090,10 +9117,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E18" s="133">
         <f>IF(D18="YES",0.5,0)</f>
@@ -8111,10 +9138,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E19" s="133">
         <f t="shared" ref="E19:E21" si="3">IF(D19="YES",0.5,0)</f>
@@ -8132,10 +9159,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E20" s="133">
         <f t="shared" si="3"/>
@@ -8153,10 +9180,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E21" s="133">
         <f t="shared" si="3"/>
@@ -8174,10 +9201,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E22" s="133">
         <f>IF(D22="YES",1,0)</f>
@@ -8195,10 +9222,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E23" s="133">
         <f>IF(D23="YES",1,0)</f>
@@ -8216,10 +9243,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E24" s="133">
         <f>IF(D24="YES",1,0)</f>
@@ -8237,10 +9264,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E25" s="133">
         <f>IF(D25="YES",1,0)</f>
@@ -8258,10 +9285,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E26" s="133">
         <f>IF(D26="YES",1,0)</f>
@@ -8279,10 +9306,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E27" s="133">
         <f>IF(D27="NO",1,0)</f>
@@ -8300,10 +9327,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E28" s="133">
         <f>IF(D28="YES",1,0)</f>
@@ -8322,7 +9349,7 @@
     <row r="30" spans="1:7" s="1" customFormat="1">
       <c r="A30" s="193"/>
       <c r="B30" s="224" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C30" s="225"/>
       <c r="D30" s="225"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -6424,7 +6424,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="196">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>Answer (YES/NO/NA)</t>
-  </si>
-  <si>
-    <t>Answer key mapped values: Yes = 0,5; No = 0; NA (Not Apply) = 0</t>
   </si>
   <si>
     <t>Quality Top Factor</t>
@@ -868,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1227,19 +1224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1681,7 +1665,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1700,9 +1684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,12 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2246,7 +2221,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2314,26 +2288,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2397,12 +2362,12 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2806,331 +2771,671 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3841,346 +4146,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5538,193 +5503,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="39"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="113" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="2:10" s="30" customFormat="1" ht="20" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="34" t="s">
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:10" s="27" customFormat="1" ht="20" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="114"/>
-      <c r="J3" s="41"/>
-    </row>
-    <row r="4" spans="2:10" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="115"/>
-      <c r="C4" s="109" t="s">
+      <c r="I3" s="111"/>
+      <c r="J3" s="38"/>
+    </row>
+    <row r="4" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B4" s="112"/>
+      <c r="C4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="115"/>
-    </row>
-    <row r="5" spans="2:10" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="115"/>
-      <c r="C5" s="110" t="s">
+      <c r="J4" s="112"/>
+    </row>
+    <row r="5" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B5" s="112"/>
+      <c r="C5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="115"/>
-    </row>
-    <row r="6" spans="2:10" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="115"/>
-      <c r="C6" s="111" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="112"/>
+    </row>
+    <row r="6" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B6" s="112"/>
+      <c r="C6" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="37" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="115"/>
-    </row>
-    <row r="7" spans="2:10" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="115"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24" t="s">
+      <c r="J6" s="112"/>
+    </row>
+    <row r="7" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
+      <c r="B7" s="112"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="115"/>
+      <c r="J7" s="112"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="116" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="113" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="117"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="109">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="35" t="s">
+      <c r="C14" s="106">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="32" t="s">
         <v>0</v>
       </c>
       <c r="J14">
@@ -5732,17 +5697,17 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="110">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="36" t="s">
+      <c r="C15" s="107">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J15">
@@ -5750,21 +5715,21 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="111">
-        <v>1</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="37" t="s">
+      <c r="C16" s="108">
+        <v>1</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="34" t="s">
         <v>2</v>
       </c>
       <c r="J16">
@@ -5772,22 +5737,22 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="112"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24">
-        <v>1</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="38" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>3</v>
       </c>
     </row>
@@ -5917,59 +5882,59 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="118" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="136" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="136" t="s">
+      <c r="E2" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="138" t="s">
+      <c r="I2" s="135" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="139" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="79">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G3" s="159">
+      <c r="G3" s="156">
         <v>0</v>
       </c>
-      <c r="H3" s="82">
+      <c r="H3" s="79">
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="156">
+      <c r="I3" s="153">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
@@ -5979,57 +5944,57 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="153"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="159">
+      <c r="E4" s="156">
         <v>0</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G4" s="159">
+      <c r="G4" s="156">
         <v>0</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="79">
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="157"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="143"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="159">
+      <c r="D5" s="156">
         <v>0</v>
       </c>
-      <c r="E5" s="159">
+      <c r="E5" s="156">
         <v>0</v>
       </c>
-      <c r="F5" s="159">
+      <c r="F5" s="156">
         <v>0</v>
       </c>
-      <c r="G5" s="139">
+      <c r="G5" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H5" s="140">
+      <c r="H5" s="137">
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="158"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -6039,85 +6004,85 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="134" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E7" s="159">
+      <c r="E7" s="156">
         <v>0</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G7" s="139">
+      <c r="G7" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H7" s="140">
+      <c r="H7" s="137">
         <f>SUM(D7:G7)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I7" s="141">
+      <c r="I7" s="138">
         <f>SUM(H7:H9)</f>
         <v>18.833333333333332</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="137"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="79">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="79">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G8" s="159">
+      <c r="G8" s="156">
         <v>0</v>
       </c>
-      <c r="H8" s="82">
+      <c r="H8" s="79">
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
         <v>9</v>
       </c>
-      <c r="I8" s="141"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="137"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="159">
+      <c r="D9" s="156">
         <v>0</v>
       </c>
-      <c r="E9" s="159">
+      <c r="E9" s="156">
         <v>0</v>
       </c>
-      <c r="F9" s="159">
+      <c r="F9" s="156">
         <v>0</v>
       </c>
-      <c r="G9" s="139">
+      <c r="G9" s="136">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="140">
+      <c r="H9" s="137">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I9" s="141"/>
+      <c r="I9" s="138"/>
     </row>
     <row r="10" spans="2:22" ht="4" customHeight="1"/>
     <row r="11" spans="2:22">
@@ -6145,46 +6110,46 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="20" customHeight="1">
-      <c r="K13" s="128" t="s">
+      <c r="K13" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="125">
+      <c r="L13" s="122">
         <f>N13+N14+N15+P14+P15</f>
         <v>18</v>
       </c>
-      <c r="M13" s="82" t="s">
+      <c r="M13" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="130">
+      <c r="N13" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36" customHeight="1">
-      <c r="K14" s="128"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="83" t="s">
+      <c r="K14" s="125"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="130">
-        <v>1</v>
-      </c>
-      <c r="O14" s="83" t="s">
+      <c r="N14" s="127">
+        <v>1</v>
+      </c>
+      <c r="O14" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="130">
+      <c r="P14" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1">
-      <c r="K15" s="128"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="129">
+      <c r="K15" s="125"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="126">
         <f>P14+P15</f>
         <v>8</v>
       </c>
-      <c r="O15" s="83"/>
-      <c r="P15" s="129">
+      <c r="O15" s="80"/>
+      <c r="P15" s="126">
         <f>N17+N18+N20+N21+N22</f>
         <v>7</v>
       </c>
@@ -6196,44 +6161,44 @@
       </c>
     </row>
     <row r="17" spans="11:20">
-      <c r="K17" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="125">
+      <c r="K17" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="122">
         <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
-      <c r="M17" s="83" t="s">
+      <c r="M17" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="130">
-        <v>1</v>
-      </c>
-      <c r="O17" s="83" t="s">
+      <c r="N17" s="127">
+        <v>1</v>
+      </c>
+      <c r="O17" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="132">
+      <c r="P17" s="129">
         <v>1</v>
       </c>
       <c r="Q17"/>
     </row>
     <row r="18" spans="11:20" ht="34" customHeight="1">
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="129">
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="126">
         <f>P17:P18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="83"/>
-      <c r="P18" s="129">
+      <c r="O18" s="80"/>
+      <c r="P18" s="126">
         <f>R18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="86" t="s">
+      <c r="Q18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="130">
+      <c r="R18" s="127">
         <v>1</v>
       </c>
     </row>
@@ -6244,142 +6209,142 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="125" t="s">
+      <c r="K20" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="125">
+      <c r="L20" s="122">
         <f>N20+N21+N22+P22+P23</f>
         <v>8</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="131">
+      <c r="N20" s="128">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="122" t="s">
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="151">
-        <v>1</v>
-      </c>
-      <c r="O21" s="98"/>
-      <c r="P21" s="154"/>
+      <c r="N21" s="148">
+        <v>1</v>
+      </c>
+      <c r="O21" s="95"/>
+      <c r="P21" s="151"/>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="113">
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="110">
         <f>P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="153" t="s">
+      <c r="O22" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="152">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="142" t="s">
+      <c r="P22" s="149">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="142">
+      <c r="R22" s="139">
         <f>T22+T23</f>
         <v>2</v>
       </c>
-      <c r="S22" s="121" t="s">
+      <c r="S22" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="T22" s="131">
+      <c r="T22" s="128">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="127"/>
-      <c r="L23" s="127"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="129">
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="126">
         <f>R22</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="121" t="s">
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="T23" s="131">
+      <c r="T23" s="128">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="11:20">
-      <c r="K24" s="134">
+      <c r="K24" s="131">
         <f>L25/3</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="25" spans="11:20" ht="20" customHeight="1">
-      <c r="K25" s="125" t="s">
+      <c r="K25" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="125">
+      <c r="L25" s="122">
         <f>N26+N25</f>
         <v>5</v>
       </c>
-      <c r="M25" s="122" t="s">
+      <c r="M25" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="130">
-        <v>1</v>
-      </c>
-      <c r="O25" s="119" t="s">
+      <c r="N25" s="127">
+        <v>1</v>
+      </c>
+      <c r="O25" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="130">
+      <c r="P25" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="11:20" ht="20" customHeight="1">
-      <c r="K26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="125">
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="122">
         <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
-      <c r="O26" s="119" t="s">
+      <c r="O26" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="130">
+      <c r="P26" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="11:20" ht="20" customHeight="1">
-      <c r="K27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="119" t="s">
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="130">
+      <c r="P27" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="11:20" ht="20" customHeight="1">
-      <c r="K28" s="127"/>
-      <c r="L28" s="127"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="127"/>
-      <c r="O28" s="119" t="s">
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="124"/>
+      <c r="O28" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="130">
+      <c r="P28" s="127">
         <v>1</v>
       </c>
     </row>
@@ -6423,7 +6388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -6438,7 +6403,7 @@
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="118" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="115" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
@@ -6447,689 +6412,689 @@
   <sheetData>
     <row r="1" spans="2:16" ht="5" customHeight="1"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="202"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="205"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="201"/>
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="206"/>
-      <c r="C3" s="183" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="198" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="198"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="199">
+      <c r="D3" s="194" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="194"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="195">
         <f>E10/4</f>
         <v>4.5</v>
       </c>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199">
+      <c r="H3" s="195"/>
+      <c r="I3" s="195">
         <f>E14/2</f>
         <v>2.5</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199">
+      <c r="J3" s="195"/>
+      <c r="K3" s="195">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="199"/>
-      <c r="M3" s="200">
+      <c r="L3" s="195"/>
+      <c r="M3" s="196">
         <f>E22/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N3" s="201"/>
-      <c r="O3" s="261" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="207"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="254" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="203"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="206"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="220" t="s">
+      <c r="B4" s="202"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="216" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="168" t="s">
+      <c r="F4" s="164"/>
+      <c r="G4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="M4" s="169" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="176"/>
-      <c r="O4" s="262"/>
-      <c r="P4" s="207"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="203"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="206"/>
-      <c r="C5" s="178">
+      <c r="B5" s="202"/>
+      <c r="C5" s="175">
         <f>G5+K5+G6+K6+M7+I5</f>
         <v>17.166666666666664</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="83">
+      <c r="F5" s="26"/>
+      <c r="G5" s="80">
         <f>G3</f>
         <v>4.5</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="170">
+      <c r="H5" s="80"/>
+      <c r="I5" s="167">
         <f>I3</f>
         <v>2.5</v>
       </c>
-      <c r="J5" s="170"/>
-      <c r="K5" s="83">
+      <c r="J5" s="167"/>
+      <c r="K5" s="80">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="180">
+      <c r="L5" s="80"/>
+      <c r="M5" s="177">
         <v>0</v>
       </c>
-      <c r="N5" s="181"/>
-      <c r="O5" s="178">
+      <c r="N5" s="178"/>
+      <c r="O5" s="175">
         <v>17.170000000000002</v>
       </c>
-      <c r="P5" s="207"/>
+      <c r="P5" s="203"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="206"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="28" t="s">
+      <c r="B6" s="202"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="170">
+      <c r="F6" s="26"/>
+      <c r="G6" s="167">
         <f>G3</f>
         <v>4.5</v>
       </c>
-      <c r="H6" s="170" t="str">
+      <c r="H6" s="167" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="161">
+      <c r="I6" s="158">
         <v>0</v>
       </c>
-      <c r="J6" s="161"/>
-      <c r="K6" s="83">
+      <c r="J6" s="158"/>
+      <c r="K6" s="80">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="83"/>
-      <c r="M6" s="163">
+      <c r="L6" s="80"/>
+      <c r="M6" s="160">
         <v>0</v>
       </c>
-      <c r="N6" s="177"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="207"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="203"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="206"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="28" t="s">
+      <c r="B7" s="202"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="161">
+      <c r="F7" s="26"/>
+      <c r="G7" s="158">
         <v>0</v>
       </c>
-      <c r="H7" s="161">
+      <c r="H7" s="158">
         <v>0</v>
       </c>
-      <c r="I7" s="161">
+      <c r="I7" s="158">
         <v>0</v>
       </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161">
+      <c r="J7" s="158"/>
+      <c r="K7" s="158">
         <v>0</v>
       </c>
-      <c r="L7" s="161"/>
-      <c r="M7" s="141">
+      <c r="L7" s="158"/>
+      <c r="M7" s="138">
         <f>M3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N7" s="182"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="207"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="203"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="206"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="207"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="203"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="206"/>
-      <c r="C9" s="195" t="s">
+      <c r="B9" s="202"/>
+      <c r="C9" s="191" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="195" t="s">
+      <c r="E9" s="191" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="195" t="s">
+      <c r="F9" s="191" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="195" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="195" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="207"/>
+      <c r="G9" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="203"/>
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="206"/>
-      <c r="C10" s="125">
+      <c r="B10" s="202"/>
+      <c r="C10" s="122">
         <v>18</v>
       </c>
-      <c r="D10" s="221" t="s">
+      <c r="D10" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="125">
+      <c r="E10" s="122">
         <f>G10+G11+G12+I11+I12</f>
         <v>18</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="130">
+      <c r="G10" s="127">
         <f>Users_Survey!E4+Users_Survey!E5</f>
         <v>1</v>
       </c>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="208"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="207"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="203"/>
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="206"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="83" t="s">
+      <c r="B11" s="202"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="130">
+      <c r="G11" s="127">
         <f>Users_Survey!E6+Users_Survey!E7</f>
         <v>1</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="127">
         <f>Users_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="J11" s="209"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="208"/>
-      <c r="P11" s="207"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="203"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="206"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="162">
+      <c r="B12" s="202"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="159">
         <f>I11+I12</f>
         <v>8</v>
       </c>
-      <c r="H12" s="83"/>
-      <c r="I12" s="162">
+      <c r="H12" s="80"/>
+      <c r="I12" s="159">
         <f>G14+G15+G17+G18+G19</f>
         <v>7</v>
       </c>
-      <c r="J12" s="209"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="207"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="203"/>
     </row>
     <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="206"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
-      <c r="P13" s="207"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="203"/>
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="206"/>
-      <c r="C14" s="125">
+      <c r="B14" s="202"/>
+      <c r="C14" s="122">
         <v>5</v>
       </c>
-      <c r="D14" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="125">
+      <c r="D14" s="217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="122">
         <f>G14+G15+I14+I15+K15</f>
         <v>5</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="127">
         <f>Users_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="130">
+      <c r="I14" s="127">
         <f>Users_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="207"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="203"/>
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="206"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="162">
+      <c r="B15" s="202"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="159">
         <f>I14:I15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="162">
+      <c r="H15" s="80"/>
+      <c r="I15" s="159">
         <f>K15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="130">
+      <c r="K15" s="127">
         <f>Users_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="207"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="203"/>
     </row>
     <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="206"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="207"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="203"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="206"/>
-      <c r="C17" s="125">
+      <c r="B17" s="202"/>
+      <c r="C17" s="122">
         <v>8</v>
       </c>
-      <c r="D17" s="221" t="s">
+      <c r="D17" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="122">
         <f>G17+G18+G19+I19+I20</f>
         <v>8</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="130">
+      <c r="G17" s="127">
         <f>Users_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="207"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="203"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="206"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="122" t="s">
+      <c r="B18" s="202"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="130">
+      <c r="G18" s="127">
         <f>Users_Survey!E13</f>
         <v>1</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="207"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="204"/>
+      <c r="P18" s="203"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="206"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="171">
+      <c r="B19" s="202"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="168">
         <f>I19+I20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="153" t="s">
+      <c r="H19" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="130">
+      <c r="I19" s="127">
         <f>Users_Survey!E14+Users_Survey!E15</f>
         <v>1</v>
       </c>
-      <c r="J19" s="142" t="s">
+      <c r="J19" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="130">
+      <c r="L19" s="80"/>
+      <c r="M19" s="127">
         <f>Users_Survey!E16</f>
         <v>1</v>
       </c>
-      <c r="N19" s="208"/>
-      <c r="O19" s="208"/>
-      <c r="P19" s="207"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="203"/>
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="206"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="162">
+      <c r="B20" s="202"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="159">
         <f>M19+M20</f>
         <v>2</v>
       </c>
-      <c r="J20" s="143"/>
-      <c r="K20" s="83" t="s">
+      <c r="J20" s="140"/>
+      <c r="K20" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="83"/>
-      <c r="M20" s="130">
+      <c r="L20" s="80"/>
+      <c r="M20" s="127">
         <f>Users_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="207"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="203"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="206"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
-      <c r="M21" s="208"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="207"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="203"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="206"/>
-      <c r="C22" s="125">
+      <c r="B22" s="202"/>
+      <c r="C22" s="122">
         <v>5</v>
       </c>
-      <c r="D22" s="221" t="s">
+      <c r="D22" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="125">
+      <c r="E22" s="122">
         <f>G23+G22</f>
         <v>5</v>
       </c>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="130">
+      <c r="G22" s="127">
         <f>Users_Survey!E18</f>
         <v>1</v>
       </c>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="130">
+      <c r="I22" s="127">
         <f>Users_Survey!E19</f>
         <v>1</v>
       </c>
-      <c r="J22" s="209"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="207"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="203"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="206"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="173">
+      <c r="B23" s="202"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="170">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
-      <c r="H23" s="121" t="s">
+      <c r="H23" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="130">
+      <c r="I23" s="127">
         <f>Users_Survey!E20</f>
         <v>1</v>
       </c>
-      <c r="J23" s="209"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
-      <c r="N23" s="208"/>
-      <c r="O23" s="208"/>
-      <c r="P23" s="207"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="203"/>
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="206"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="121" t="s">
+      <c r="B24" s="202"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="130">
+      <c r="I24" s="127">
         <f>Users_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J24" s="209"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="207"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="204"/>
+      <c r="P24" s="203"/>
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="206"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="121" t="s">
+      <c r="B25" s="202"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="130">
+      <c r="I25" s="127">
         <f>Users_Survey!E22</f>
         <v>1</v>
       </c>
-      <c r="J25" s="209"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="208"/>
-      <c r="N25" s="208"/>
-      <c r="O25" s="208"/>
-      <c r="P25" s="207"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="203"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="206"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="208"/>
-      <c r="N26" s="208"/>
-      <c r="O26" s="208"/>
-      <c r="P26" s="207"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="203"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="206"/>
-      <c r="C27" s="196">
+      <c r="B27" s="202"/>
+      <c r="C27" s="192">
         <v>6.6</v>
       </c>
-      <c r="D27" s="197" t="s">
+      <c r="D27" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="187">
+      <c r="E27" s="184">
         <f>G10+G17+M7+G22+I24+I25</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F27" s="188"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="207"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="204"/>
+      <c r="P27" s="203"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="211"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="212"/>
-      <c r="L28" s="212"/>
-      <c r="M28" s="212"/>
-      <c r="N28" s="212"/>
-      <c r="O28" s="212"/>
-      <c r="P28" s="214"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="208"/>
+      <c r="I28" s="208"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="208"/>
+      <c r="L28" s="208"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="208"/>
+      <c r="O28" s="208"/>
+      <c r="P28" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -7190,140 +7155,140 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="68" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="62" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7339,10 +7304,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7357,46 +7322,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
+      <c r="A1" s="190"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="193"/>
-      <c r="B2" s="128" t="s">
+      <c r="A2" s="190"/>
+      <c r="B2" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="193"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="190"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="193"/>
-      <c r="B3" s="129" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="193"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="193"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -7406,38 +7371,38 @@
       <c r="D4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="130">
         <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="193"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="193"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="4">
         <f>B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="130">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="193"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="193"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="4">
         <f t="shared" ref="B6:B22" si="1">B5+1</f>
         <v>3</v>
@@ -7448,59 +7413,59 @@
       <c r="D6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="130">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="193"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="193"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="186" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="130">
         <f>IF(D7="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="193"/>
+      <c r="G7" s="190"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="193"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="130">
         <f>IF(D8="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="193"/>
+      <c r="G8" s="190"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="193"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7511,17 +7476,17 @@
       <c r="D9" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="130">
         <f>IF(D9="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="193"/>
+      <c r="G9" s="190"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="193"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7532,17 +7497,17 @@
       <c r="D10" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="130">
         <f>IF(D10="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="193"/>
+      <c r="G10" s="190"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="193"/>
+      <c r="A11" s="190"/>
       <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7553,80 +7518,80 @@
       <c r="D11" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="130">
         <f>IF(D11="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="193"/>
+      <c r="G11" s="190"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="193"/>
+      <c r="A12" s="190"/>
       <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="130">
         <f>IF(D12="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="193"/>
+      <c r="G12" s="190"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="193"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="130">
         <f>IF(D13="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="193"/>
+      <c r="G13" s="190"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="193"/>
+      <c r="A14" s="190"/>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="190" t="s">
+      <c r="C14" s="187" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="130">
         <f>IF(D14="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="193"/>
+      <c r="G14" s="190"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="193"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7637,17 +7602,17 @@
       <c r="D15" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="130">
         <f>IF(D15="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="193"/>
+      <c r="G15" s="190"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="193"/>
+      <c r="A16" s="190"/>
       <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7658,17 +7623,17 @@
       <c r="D16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="130">
         <f>IF(D16="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="193"/>
+      <c r="G16" s="190"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="193"/>
+      <c r="A17" s="190"/>
       <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7679,38 +7644,38 @@
       <c r="D17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="130">
         <f>IF(D17="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="193"/>
+      <c r="G17" s="190"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="193"/>
+      <c r="A18" s="190"/>
       <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="133">
+      <c r="E18" s="130">
         <f>IF(D18="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="193"/>
+      <c r="G18" s="190"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="193"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7721,17 +7686,17 @@
       <c r="D19" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="130">
         <f>IF(D19="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="193"/>
+      <c r="G19" s="190"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="193"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7742,17 +7707,17 @@
       <c r="D20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="130">
         <f>IF(D20="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="193"/>
+      <c r="G20" s="190"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="193"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7763,17 +7728,17 @@
       <c r="D21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="130">
         <f>IF(D21="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="193"/>
+      <c r="G21" s="190"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="193"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7784,46 +7749,34 @@
       <c r="D22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="130">
         <f>IF(D22="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="193"/>
+      <c r="G22" s="190"/>
     </row>
     <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="193"/>
-      <c r="G23" s="193"/>
+      <c r="A23" s="190"/>
+      <c r="G23" s="190"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="194"/>
-      <c r="B24" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="193"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="193"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B24:F24"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G2:G24"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A2:A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7858,7 +7811,7 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="118" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="115" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
@@ -7868,690 +7821,690 @@
   <sheetData>
     <row r="1" spans="2:16" ht="5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="227"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="230"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="223"/>
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="231"/>
-      <c r="C3" s="185" t="s">
+      <c r="B3" s="224"/>
+      <c r="C3" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="198" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="198"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="199">
+      <c r="D3" s="194" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="194"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="195">
         <f>E10/4</f>
         <v>4.5</v>
       </c>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199">
+      <c r="H3" s="195"/>
+      <c r="I3" s="195">
         <f>E14/2</f>
         <v>2.5</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199">
+      <c r="J3" s="195"/>
+      <c r="K3" s="195">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="199"/>
-      <c r="M3" s="218">
+      <c r="L3" s="195"/>
+      <c r="M3" s="214">
         <f>E22/3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N3" s="219"/>
-      <c r="O3" s="259" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="233"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="252" t="s">
+        <v>171</v>
+      </c>
+      <c r="P3" s="226"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="231"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="220" t="s">
+      <c r="B4" s="224"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="216" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="168" t="s">
+      <c r="F4" s="164"/>
+      <c r="G4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168" t="s">
+      <c r="H4" s="165"/>
+      <c r="I4" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="M4" s="169" t="s">
+      <c r="L4" s="165"/>
+      <c r="M4" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="176"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="233"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="226"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="231"/>
-      <c r="C5" s="263">
+      <c r="B5" s="224"/>
+      <c r="C5" s="256">
         <f>G5+K5+M5+G6+I6+K6+M7</f>
         <v>18.833333333333332</v>
       </c>
-      <c r="D5" s="234" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="235" t="s">
+      <c r="D5" s="227" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="120">
+      <c r="F5" s="229"/>
+      <c r="G5" s="117">
         <f>G3</f>
         <v>4.5</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="237">
+      <c r="H5" s="117"/>
+      <c r="I5" s="230">
         <v>0</v>
       </c>
-      <c r="J5" s="237"/>
-      <c r="K5" s="120">
+      <c r="J5" s="230"/>
+      <c r="K5" s="117">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="120"/>
-      <c r="M5" s="238">
+      <c r="L5" s="117"/>
+      <c r="M5" s="231">
         <f>M3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N5" s="239"/>
-      <c r="O5" s="240">
+      <c r="N5" s="232"/>
+      <c r="O5" s="233">
         <v>18</v>
       </c>
-      <c r="P5" s="233"/>
+      <c r="P5" s="226"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="231"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="235" t="s">
+      <c r="B6" s="224"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="236"/>
-      <c r="G6" s="242">
+      <c r="F6" s="229"/>
+      <c r="G6" s="235">
         <f>G3</f>
         <v>4.5</v>
       </c>
-      <c r="H6" s="242" t="str">
+      <c r="H6" s="235" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="120">
+      <c r="I6" s="117">
         <f>I3</f>
         <v>2.5</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120">
+      <c r="J6" s="117"/>
+      <c r="K6" s="117">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="243">
+      <c r="L6" s="117"/>
+      <c r="M6" s="236">
         <v>0</v>
       </c>
-      <c r="N6" s="244"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="233"/>
+      <c r="N6" s="237"/>
+      <c r="O6" s="233"/>
+      <c r="P6" s="226"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="231"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="235" t="s">
+      <c r="B7" s="224"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="236"/>
-      <c r="G7" s="237">
+      <c r="F7" s="229"/>
+      <c r="G7" s="230">
         <v>0</v>
       </c>
-      <c r="H7" s="237">
+      <c r="H7" s="230">
         <v>0</v>
       </c>
-      <c r="I7" s="237">
+      <c r="I7" s="230">
         <v>0</v>
       </c>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237">
+      <c r="J7" s="230"/>
+      <c r="K7" s="230">
         <v>0</v>
       </c>
-      <c r="L7" s="237"/>
-      <c r="M7" s="238">
+      <c r="L7" s="230"/>
+      <c r="M7" s="231">
         <f>M3</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N7" s="239"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="233"/>
+      <c r="N7" s="232"/>
+      <c r="O7" s="239"/>
+      <c r="P7" s="226"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="231"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="233"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="226"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="231"/>
-      <c r="C9" s="195" t="s">
+      <c r="B9" s="224"/>
+      <c r="C9" s="191" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="195" t="s">
+      <c r="E9" s="191" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="195" t="s">
+      <c r="F9" s="191" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="195" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="195" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="233"/>
+      <c r="G9" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="226"/>
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="231"/>
-      <c r="C10" s="232">
+      <c r="B10" s="224"/>
+      <c r="C10" s="225">
         <v>18</v>
       </c>
-      <c r="D10" s="221" t="s">
+      <c r="D10" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="164">
+      <c r="E10" s="161">
         <f>G10+G11+G12+I11+I12</f>
         <v>18</v>
       </c>
-      <c r="F10" s="160" t="s">
+      <c r="F10" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="144">
         <f>Providers_Survey!E4</f>
         <v>1</v>
       </c>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="208"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="233"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="226"/>
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="231"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="247"/>
-      <c r="F11" s="120" t="s">
+      <c r="B11" s="224"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="147">
+      <c r="G11" s="144">
         <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="H11" s="120" t="s">
+      <c r="H11" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="147">
+      <c r="I11" s="144">
         <f>Providers_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="J11" s="209"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="208"/>
-      <c r="N11" s="208"/>
-      <c r="O11" s="208"/>
-      <c r="P11" s="233"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="226"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="248">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="241">
         <f>I11+I12</f>
         <v>8</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="248">
+      <c r="H12" s="117"/>
+      <c r="I12" s="241">
         <f>G14+G15+G17+G18+G19</f>
         <v>7</v>
       </c>
-      <c r="J12" s="209"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="208"/>
-      <c r="N12" s="208"/>
-      <c r="O12" s="208"/>
-      <c r="P12" s="233"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="226"/>
     </row>
     <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="231"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="208"/>
-      <c r="J13" s="209"/>
-      <c r="K13" s="208"/>
-      <c r="L13" s="208"/>
-      <c r="M13" s="208"/>
-      <c r="N13" s="208"/>
-      <c r="O13" s="208"/>
-      <c r="P13" s="233"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="205"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
+      <c r="P13" s="226"/>
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="231"/>
-      <c r="C14" s="232">
+      <c r="B14" s="224"/>
+      <c r="C14" s="225">
         <v>5</v>
       </c>
-      <c r="D14" s="221" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="164">
+      <c r="D14" s="217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="161">
         <f>G14+G15+I14+I15+K15</f>
         <v>5</v>
       </c>
-      <c r="F14" s="120" t="s">
+      <c r="F14" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="147">
+      <c r="G14" s="144">
         <f>Providers_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="H14" s="120" t="s">
+      <c r="H14" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="147">
+      <c r="I14" s="144">
         <f>Providers_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="J14" s="208"/>
-      <c r="K14" s="208"/>
-      <c r="L14" s="208"/>
-      <c r="M14" s="208"/>
-      <c r="N14" s="208"/>
-      <c r="O14" s="208"/>
-      <c r="P14" s="233"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="226"/>
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="248">
+      <c r="B15" s="224"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="241">
         <f>I14:I15</f>
         <v>1</v>
       </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="248">
+      <c r="H15" s="117"/>
+      <c r="I15" s="241">
         <f>K15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="144" t="s">
+      <c r="J15" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="147">
+      <c r="K15" s="144">
         <f>Providers_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="L15" s="208"/>
-      <c r="M15" s="208"/>
-      <c r="N15" s="208"/>
-      <c r="O15" s="208"/>
-      <c r="P15" s="233"/>
+      <c r="L15" s="204"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="204"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="226"/>
     </row>
     <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="231"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="209"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="208"/>
-      <c r="M16" s="208"/>
-      <c r="N16" s="208"/>
-      <c r="O16" s="208"/>
-      <c r="P16" s="233"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="226"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="231"/>
-      <c r="C17" s="232">
+      <c r="B17" s="224"/>
+      <c r="C17" s="225">
         <v>8</v>
       </c>
-      <c r="D17" s="221" t="s">
+      <c r="D17" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="164">
+      <c r="E17" s="161">
         <f>G17+G18+G19+I19+I20</f>
         <v>8</v>
       </c>
-      <c r="F17" s="249" t="s">
+      <c r="F17" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="147">
+      <c r="G17" s="144">
         <f>Providers_Survey!E13+Providers_Survey!E14+Providers_Survey!E15+Providers_Survey!E16+Providers_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="208"/>
-      <c r="M17" s="208"/>
-      <c r="N17" s="208"/>
-      <c r="O17" s="208"/>
-      <c r="P17" s="233"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="204"/>
+      <c r="L17" s="204"/>
+      <c r="M17" s="204"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="204"/>
+      <c r="P17" s="226"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="231"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="148" t="s">
+      <c r="B18" s="224"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="147">
+      <c r="G18" s="144">
         <f>Providers_Survey!E18+Providers_Survey!E19</f>
         <v>1</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="233"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="205"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="204"/>
+      <c r="P18" s="226"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="231"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="247"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="171">
+      <c r="B19" s="224"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="240"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="168">
         <f>I19+I20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="250" t="s">
+      <c r="H19" s="243" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="147">
+      <c r="I19" s="144">
         <f>Providers_Survey!E20+Providers_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J19" s="145" t="s">
+      <c r="J19" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="120" t="s">
+      <c r="K19" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="120"/>
-      <c r="M19" s="147">
+      <c r="L19" s="117"/>
+      <c r="M19" s="144">
         <f>Providers_Survey!E22</f>
         <v>1</v>
       </c>
-      <c r="N19" s="208"/>
-      <c r="O19" s="208"/>
-      <c r="P19" s="233"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="226"/>
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="231"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="248">
+      <c r="B20" s="224"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="241">
         <f>M19+M20</f>
         <v>2</v>
       </c>
-      <c r="J20" s="146"/>
-      <c r="K20" s="120" t="s">
+      <c r="J20" s="143"/>
+      <c r="K20" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="120"/>
-      <c r="M20" s="147">
+      <c r="L20" s="117"/>
+      <c r="M20" s="144">
         <f>Providers_Survey!E23</f>
         <v>1</v>
       </c>
-      <c r="N20" s="208"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="233"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="226"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="231"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="208"/>
-      <c r="L21" s="208"/>
-      <c r="M21" s="208"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="233"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="205"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="204"/>
+      <c r="N21" s="204"/>
+      <c r="O21" s="204"/>
+      <c r="P21" s="226"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="231"/>
-      <c r="C22" s="232">
+      <c r="B22" s="224"/>
+      <c r="C22" s="225">
         <v>5</v>
       </c>
-      <c r="D22" s="221" t="s">
+      <c r="D22" s="217" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="164">
+      <c r="E22" s="161">
         <f>G23+G22</f>
         <v>5</v>
       </c>
-      <c r="F22" s="148" t="s">
+      <c r="F22" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="147">
+      <c r="G22" s="144">
         <f>Providers_Survey!E24</f>
         <v>1</v>
       </c>
-      <c r="H22" s="147" t="s">
+      <c r="H22" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="147">
+      <c r="I22" s="144">
         <f>Providers_Survey!E25</f>
         <v>1</v>
       </c>
-      <c r="J22" s="209"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="208"/>
-      <c r="P22" s="233"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="204"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="226"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="231"/>
-      <c r="C23" s="232"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="171">
+      <c r="B23" s="224"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="168">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
-      <c r="H23" s="147" t="s">
+      <c r="H23" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="147">
+      <c r="I23" s="144">
         <f>Providers_Survey!E26</f>
         <v>1</v>
       </c>
-      <c r="J23" s="209"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
-      <c r="N23" s="208"/>
-      <c r="O23" s="208"/>
-      <c r="P23" s="233"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="204"/>
+      <c r="L23" s="204"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="226"/>
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="231"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="147" t="s">
+      <c r="B24" s="224"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="147">
+      <c r="I24" s="144">
         <f>Providers_Survey!E27</f>
         <v>1</v>
       </c>
-      <c r="J24" s="209"/>
-      <c r="K24" s="208"/>
-      <c r="L24" s="208"/>
-      <c r="M24" s="208"/>
-      <c r="N24" s="208"/>
-      <c r="O24" s="208"/>
-      <c r="P24" s="233"/>
+      <c r="J24" s="205"/>
+      <c r="K24" s="204"/>
+      <c r="L24" s="204"/>
+      <c r="M24" s="204"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="204"/>
+      <c r="P24" s="226"/>
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="231"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="147" t="s">
+      <c r="B25" s="224"/>
+      <c r="C25" s="225"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="147">
+      <c r="I25" s="144">
         <f>Providers_Survey!E28</f>
         <v>1</v>
       </c>
-      <c r="J25" s="209"/>
-      <c r="K25" s="208"/>
-      <c r="L25" s="208"/>
-      <c r="M25" s="208"/>
-      <c r="N25" s="208"/>
-      <c r="O25" s="208"/>
-      <c r="P25" s="233"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="204"/>
+      <c r="N25" s="204"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="226"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="231"/>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="208"/>
-      <c r="J26" s="209"/>
-      <c r="K26" s="208"/>
-      <c r="L26" s="208"/>
-      <c r="M26" s="208"/>
-      <c r="N26" s="208"/>
-      <c r="O26" s="208"/>
-      <c r="P26" s="233"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="204"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="204"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="226"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="231"/>
-      <c r="C27" s="252">
+      <c r="B27" s="224"/>
+      <c r="C27" s="245">
         <v>6.6</v>
       </c>
-      <c r="D27" s="252" t="s">
+      <c r="D27" s="245" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="253">
+      <c r="E27" s="246">
         <f>G10+G17+G22+I24+I25+M7</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F27" s="254"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="233"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="204"/>
+      <c r="L27" s="204"/>
+      <c r="M27" s="204"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="204"/>
+      <c r="P27" s="226"/>
     </row>
     <row r="28" spans="2:16" ht="16" thickBot="1">
-      <c r="B28" s="255"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="257"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="256"/>
-      <c r="M28" s="256"/>
-      <c r="N28" s="256"/>
-      <c r="O28" s="256"/>
-      <c r="P28" s="258"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="250"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
+      <c r="N28" s="249"/>
+      <c r="O28" s="249"/>
+      <c r="P28" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -8612,140 +8565,140 @@
     <mergeCell ref="H14:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="205" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="203" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="201" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="199" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="197" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="195" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="193" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="191" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="189" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="187" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="185" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="183" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="181" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="179" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="177" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="175" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="173" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="172" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8761,10 +8714,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8779,46 +8732,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
+      <c r="A1" s="190"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="193"/>
-      <c r="B2" s="191" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="193"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="188" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="190"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="193"/>
-      <c r="B3" s="192" t="s">
+      <c r="A3" s="190"/>
+      <c r="B3" s="189" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="189" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="189" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="189" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="192" t="s">
+      <c r="F3" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="193"/>
+      <c r="G3" s="190"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="193"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -8828,17 +8781,17 @@
       <c r="D4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="130">
         <f>IF(D4="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="193"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="193"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="4">
         <f>B4+1</f>
         <v>2</v>
@@ -8849,17 +8802,17 @@
       <c r="D5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="130">
         <f>IF(D5="YES",0.25,0)</f>
         <v>0.25</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="193"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="193"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="4">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
@@ -8870,17 +8823,17 @@
       <c r="D6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="130">
         <f t="shared" ref="E6:E8" si="1">IF(D6="YES",0.25,0)</f>
         <v>0.25</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="193"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="193"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8891,59 +8844,59 @@
       <c r="D7" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="130">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="193"/>
+      <c r="G7" s="190"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="193"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="130">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="193"/>
+      <c r="G8" s="190"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="193"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="130">
         <f>IF(D9="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="193"/>
+      <c r="G9" s="190"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="193"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8954,17 +8907,17 @@
       <c r="D10" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="130">
         <f>IF(D10="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="193"/>
+      <c r="G10" s="190"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="193"/>
+      <c r="A11" s="190"/>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8975,17 +8928,17 @@
       <c r="D11" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="130">
         <f>IF(D11="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="193"/>
+      <c r="G11" s="190"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="193"/>
+      <c r="A12" s="190"/>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8996,164 +8949,164 @@
       <c r="D12" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="130">
         <f>IF(D12="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="193"/>
+      <c r="G12" s="190"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="193"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="133">
+      <c r="E13" s="130">
         <f>IF(D13="YES",0.2,0)</f>
         <v>0.2</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="193"/>
+      <c r="G13" s="190"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="193"/>
+      <c r="A14" s="190"/>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="130">
         <f t="shared" ref="E14:E18" si="2">IF(D14="YES",0.2,0)</f>
         <v>0.2</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="193"/>
+      <c r="G14" s="190"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="193"/>
+      <c r="A15" s="190"/>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="130">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="193"/>
+      <c r="G15" s="190"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="193"/>
+      <c r="A16" s="190"/>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="133">
+      <c r="E16" s="130">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="193"/>
+      <c r="G16" s="190"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="193"/>
+      <c r="A17" s="190"/>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="133">
+      <c r="E17" s="130">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="193"/>
+      <c r="G17" s="190"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="193"/>
+      <c r="A18" s="190"/>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="133">
+      <c r="E18" s="130">
         <f>IF(D18="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="193"/>
+      <c r="G18" s="190"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="193"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="133">
+      <c r="E19" s="130">
         <f t="shared" ref="E19:E21" si="3">IF(D19="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="193"/>
+      <c r="G19" s="190"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="193"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9164,17 +9117,17 @@
       <c r="D20" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="130">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="193"/>
+      <c r="G20" s="190"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="193"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9185,17 +9138,17 @@
       <c r="D21" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="130">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="193"/>
+      <c r="G21" s="190"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="193"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9206,17 +9159,17 @@
       <c r="D22" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="133">
+      <c r="E22" s="130">
         <f>IF(D22="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="193"/>
+      <c r="G22" s="190"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="193"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9227,17 +9180,17 @@
       <c r="D23" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="130">
         <f>IF(D23="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="193"/>
+      <c r="G23" s="190"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="193"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9248,17 +9201,17 @@
       <c r="D24" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="130">
         <f>IF(D24="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="193"/>
+      <c r="G24" s="190"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="193"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9269,123 +9222,111 @@
       <c r="D25" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="133">
+      <c r="E25" s="130">
         <f>IF(D25="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="193"/>
+      <c r="G25" s="190"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="193"/>
+      <c r="A26" s="190"/>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="133">
+      <c r="E26" s="130">
         <f>IF(D26="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="193"/>
+      <c r="G26" s="190"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="193"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="133">
+      <c r="E27" s="130">
         <f>IF(D27="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="193"/>
+      <c r="G27" s="190"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="193"/>
+      <c r="A28" s="190"/>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="133">
+      <c r="E28" s="130">
         <f>IF(D28="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="193"/>
+      <c r="G28" s="190"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="193"/>
+      <c r="A29" s="190"/>
       <c r="F29"/>
-      <c r="G29" s="193"/>
+      <c r="G29" s="190"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="193"/>
-      <c r="B30" s="224" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="193"/>
+      <c r="A30" s="190"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1">
-      <c r="A31" s="193"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
+      <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1">
+      <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="3:7" s="1" customFormat="1">
-      <c r="C33"/>
+    <row r="33" spans="6:7" s="1" customFormat="1">
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="3:7" s="1" customFormat="1">
-      <c r="F34"/>
-      <c r="G34"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G2:G31"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G2:G30"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9416,90 +9357,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="45" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9534,198 +9475,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="41"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="39"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
-      <c r="B4" s="41"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="89" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="82" t="s">
+      <c r="E4" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="40"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="39"/>
-      <c r="C8" s="90" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="88" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="39"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="88" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="39"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="39"/>
-      <c r="C12" s="90" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96" t="s">
+      <c r="D12" s="92"/>
+      <c r="E12" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="93"/>
+      <c r="G12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="39"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="39"/>
-      <c r="C13" s="88" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="2:8" ht="23" customHeight="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="50"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9768,14 +9709,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="52"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="52"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -9814,155 +9755,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="59" t="s">
+      <c r="D4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="39"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="74" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="40"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="40"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10005,433 +9946,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="30"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="86" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="80" t="s">
+      <c r="J3" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="41"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99" t="s">
+      <c r="H4" s="96"/>
+      <c r="I4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="39"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="102" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="39"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="88" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="99" t="s">
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99" t="s">
+      <c r="H6" s="96"/>
+      <c r="I6" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="100" t="s">
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="30">
-      <c r="A7" s="39"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="104" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="106"/>
-      <c r="M7" s="39"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100" t="s">
+      <c r="F8" s="100"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="39"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101" t="s">
+      <c r="I9" s="98"/>
+      <c r="J9" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="101" t="s">
+      <c r="K9" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="L9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="39"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99" t="s">
+      <c r="I10" s="96"/>
+      <c r="J10" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100" t="s">
+      <c r="K10" s="96"/>
+      <c r="L10" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="39"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:15" ht="30">
-      <c r="A11" s="39"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="39"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:15" ht="30">
-      <c r="A12" s="39"/>
-      <c r="B12" s="88" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100" t="s">
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:15" ht="37" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="160" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101" t="s">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101" t="s">
+      <c r="J13" s="98"/>
+      <c r="K13" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="39"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="88" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="39"/>
-      <c r="O14" s="30"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="36"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="160" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="104" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="O15" s="30"/>
+      <c r="M15" s="36"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="30">
-      <c r="A16" s="39"/>
-      <c r="B16" s="88" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="100" t="s">
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="103" t="s">
+      <c r="J16" s="96"/>
+      <c r="K16" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="39"/>
-      <c r="O16" s="30"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="36"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="160" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="104" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="O17" s="30"/>
+      <c r="M17" s="36"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="107" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="39"/>
-      <c r="O18" s="30"/>
+      <c r="M18" s="36"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10474,9 +10415,9 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="3" t="s">
         <v>100</v>
       </c>
@@ -10486,7 +10427,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -10496,122 +10437,122 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="H9" s="51" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="H9" s="48" t="s">
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="79"/>
+      <c r="J9" s="76"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="51"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="H10" s="51"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="51"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="H11" s="51"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="H11" s="48"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="79"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="51"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="48" t="s">
+      <c r="F12" s="76"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="79"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="H13" s="51" t="s">
+      <c r="F13" s="76"/>
+      <c r="H13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="48"/>
-      <c r="J13" s="79"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="76"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="51"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79" t="s">
+      <c r="D14" s="76"/>
+      <c r="E14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="H14" s="51"/>
+      <c r="F14" s="76"/>
+      <c r="H14" s="48"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="79"/>
+      <c r="J14" s="76"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="51"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="76"/>
+      <c r="E15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="H15" s="51"/>
+      <c r="F15" s="76"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="79"/>
+      <c r="J15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10650,22 +10591,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="77" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="81"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="77" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10708,50 +10649,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36" customHeight="1">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="36" customHeight="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="36" customHeight="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="46" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="36" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="46" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="36" customHeight="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="36" customHeight="1">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="105" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10782,7 +10723,7 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="118" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="115" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
@@ -10799,223 +10740,223 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20" customHeight="1">
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="122">
         <f>E5+E6+E7+G6+G7</f>
         <v>18</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="130">
+      <c r="E5" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="128"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="83" t="s">
+      <c r="B6" s="125"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="130">
-        <v>1</v>
-      </c>
-      <c r="F6" s="83" t="s">
+      <c r="E6" s="127">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="128"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="133">
+      <c r="B7" s="125"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="130">
         <f>G6+G7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="129">
+      <c r="F7" s="80"/>
+      <c r="G7" s="126">
         <f>E9+E10+E12+E13+E14</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="125">
+      <c r="B9" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="122">
         <f>E9+E10+G9+G10+I10</f>
         <v>5</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="130">
-        <v>1</v>
-      </c>
-      <c r="F9" s="83" t="s">
+      <c r="E9" s="127">
+        <v>1</v>
+      </c>
+      <c r="F9" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="132">
+      <c r="G9" s="129">
         <v>1</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="2:13" ht="38" customHeight="1">
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="129">
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="126">
         <f>G9:G10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="129">
+      <c r="F10" s="80"/>
+      <c r="G10" s="126">
         <f>I10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="130">
+      <c r="I10" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20" customHeight="1">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="125">
+      <c r="C12" s="122">
         <f>E12+E13+E14+G13+G14+G15</f>
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="131">
+      <c r="E12" s="128">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="36" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="83" t="s">
+      <c r="B13" s="125"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="155">
-        <v>1</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="154"/>
+      <c r="E13" s="152">
+        <v>1</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="151"/>
     </row>
     <row r="14" spans="2:13" ht="25" customHeight="1">
-      <c r="B14" s="128"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="113">
+      <c r="B14" s="125"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="110">
         <f>G13+G14+G15</f>
         <v>3</v>
       </c>
-      <c r="F14" s="143" t="s">
+      <c r="F14" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="152">
-        <v>1</v>
-      </c>
-      <c r="H14" s="87" t="s">
+      <c r="G14" s="149">
+        <v>1</v>
+      </c>
+      <c r="H14" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="84">
         <f>K14+K15</f>
         <v>2</v>
       </c>
-      <c r="J14" s="121" t="s">
+      <c r="J14" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="128">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="25" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="129">
+      <c r="B15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="126">
         <f>I14</f>
         <v>2</v>
       </c>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="121" t="s">
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="K15" s="131">
+      <c r="K15" s="128">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="20" customHeight="1">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="125">
         <f>E18+E17</f>
         <v>5</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="130">
-        <v>1</v>
-      </c>
-      <c r="F17" s="119" t="s">
+      <c r="E17" s="127">
+        <v>1</v>
+      </c>
+      <c r="F17" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="130">
+      <c r="G17" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20" customHeight="1">
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="125">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="122">
         <f>G17+G18+G19+G20</f>
         <v>4</v>
       </c>
-      <c r="F18" s="119" t="s">
+      <c r="F18" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="130">
+      <c r="G18" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="119" t="s">
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="130">
+      <c r="G19" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20" customHeight="1">
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="119" t="s">
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="130">
+      <c r="G20" s="127">
         <v>1</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7306,7 +7306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -8716,7 +8716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1665,7 +1665,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2075,6 +2075,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2127,9 +2133,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,21 +2155,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,17 +2329,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2385,6 +2367,36 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="359">
@@ -2748,1404 +2760,1354 @@
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="241">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+  <dxfs count="236">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5927,14 +5889,14 @@
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G3" s="156">
+      <c r="G3" s="158">
         <v>0</v>
       </c>
       <c r="H3" s="79">
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="153">
+      <c r="I3" s="155">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
@@ -5944,7 +5906,7 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="150"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
@@ -5952,21 +5914,21 @@
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="156">
+      <c r="E4" s="158">
         <v>0</v>
       </c>
       <c r="F4" s="79">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G4" s="156">
+      <c r="G4" s="158">
         <v>0</v>
       </c>
       <c r="H4" s="79">
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="154"/>
+      <c r="I4" s="156"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
         <v>123</v>
@@ -5977,13 +5939,13 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="156">
+      <c r="D5" s="158">
         <v>0</v>
       </c>
-      <c r="E5" s="156">
+      <c r="E5" s="158">
         <v>0</v>
       </c>
-      <c r="F5" s="156">
+      <c r="F5" s="158">
         <v>0</v>
       </c>
       <c r="G5" s="136">
@@ -5994,7 +5956,7 @@
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="155"/>
+      <c r="I5" s="157"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -6014,7 +5976,7 @@
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E7" s="156">
+      <c r="E7" s="158">
         <v>0</v>
       </c>
       <c r="F7" s="79">
@@ -6051,7 +6013,7 @@
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G8" s="156">
+      <c r="G8" s="158">
         <v>0</v>
       </c>
       <c r="H8" s="79">
@@ -6065,13 +6027,13 @@
       <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="156">
+      <c r="D9" s="158">
         <v>0</v>
       </c>
-      <c r="E9" s="156">
+      <c r="E9" s="158">
         <v>0</v>
       </c>
-      <c r="F9" s="156">
+      <c r="F9" s="158">
         <v>0</v>
       </c>
       <c r="G9" s="136">
@@ -6229,11 +6191,11 @@
       <c r="M21" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="148">
+      <c r="N21" s="150">
         <v>1</v>
       </c>
       <c r="O21" s="95"/>
-      <c r="P21" s="151"/>
+      <c r="P21" s="153"/>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
       <c r="K22" s="123"/>
@@ -6243,10 +6205,10 @@
         <f>P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="150" t="s">
+      <c r="O22" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="149">
+      <c r="P22" s="151">
         <v>1</v>
       </c>
       <c r="Q22" s="139" t="s">
@@ -6388,8 +6350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6412,93 +6374,93 @@
   <sheetData>
     <row r="1" spans="2:16" ht="5" customHeight="1"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="198"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="201"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="197"/>
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="202"/>
-      <c r="C3" s="180" t="s">
+      <c r="B3" s="198"/>
+      <c r="C3" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="190" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="194"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="195">
+      <c r="E3" s="190"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="191">
         <f>E10/4</f>
-        <v>4.5</v>
-      </c>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195">
+        <v>5</v>
+      </c>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191">
         <f>E14/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195">
+        <v>3</v>
+      </c>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="195"/>
-      <c r="M3" s="196">
+      <c r="L3" s="191"/>
+      <c r="M3" s="192">
         <f>E22/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N3" s="197"/>
-      <c r="O3" s="254" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="193"/>
+      <c r="O3" s="248" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="203"/>
+      <c r="P3" s="199"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="202"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="216" t="s">
+      <c r="B4" s="198"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="165" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="166" t="s">
+      <c r="L4" s="166"/>
+      <c r="M4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="173"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="203"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="199"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="202"/>
-      <c r="C5" s="175">
+      <c r="B5" s="198"/>
+      <c r="C5" s="171">
         <f>G5+K5+G6+K6+M7+I5</f>
-        <v>17.166666666666664</v>
-      </c>
-      <c r="D5" s="211" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="207" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="25" t="s">
@@ -6507,374 +6469,374 @@
       <c r="F5" s="26"/>
       <c r="G5" s="80">
         <f>G3</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H5" s="80"/>
-      <c r="I5" s="167">
+      <c r="I5" s="168">
         <f>I3</f>
-        <v>2.5</v>
-      </c>
-      <c r="J5" s="167"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="168"/>
       <c r="K5" s="80">
         <f>K3</f>
         <v>2</v>
       </c>
       <c r="L5" s="80"/>
-      <c r="M5" s="177">
+      <c r="M5" s="173">
         <v>0</v>
       </c>
-      <c r="N5" s="178"/>
-      <c r="O5" s="175">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="P5" s="203"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="171">
+        <v>20</v>
+      </c>
+      <c r="P5" s="199"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="202"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="212"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="167">
+      <c r="G6" s="168">
         <f>G3</f>
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="167" t="str">
+        <v>5</v>
+      </c>
+      <c r="H6" s="168" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="158">
+      <c r="I6" s="160">
         <v>0</v>
       </c>
-      <c r="J6" s="158"/>
+      <c r="J6" s="160"/>
       <c r="K6" s="80">
         <f>K3</f>
         <v>2</v>
       </c>
       <c r="L6" s="80"/>
-      <c r="M6" s="160">
+      <c r="M6" s="161">
         <v>0</v>
       </c>
-      <c r="N6" s="174"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="203"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="199"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="202"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="213"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="209"/>
       <c r="E7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="158">
+      <c r="G7" s="160">
         <v>0</v>
       </c>
-      <c r="H7" s="158">
+      <c r="H7" s="160">
         <v>0</v>
       </c>
-      <c r="I7" s="158">
+      <c r="I7" s="160">
         <v>0</v>
       </c>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158">
+      <c r="J7" s="160"/>
+      <c r="K7" s="160">
         <v>0</v>
       </c>
-      <c r="L7" s="158"/>
+      <c r="L7" s="160"/>
       <c r="M7" s="138">
         <f>M3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N7" s="179"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="203"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="175"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="199"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="202"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="203"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="199"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="202"/>
-      <c r="C9" s="191" t="s">
+      <c r="B9" s="198"/>
+      <c r="C9" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="191" t="s">
+      <c r="F9" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="191" t="s">
+      <c r="G9" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="203"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="199"/>
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="202"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="122">
-        <v>18</v>
-      </c>
-      <c r="D10" s="217" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="213" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="122">
         <f>G10+G11+G12+I11+I12</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="127">
+      <c r="G10" s="252">
         <f>Users_Survey!E4+Users_Survey!E5</f>
         <v>1</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="203"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="199"/>
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="202"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="123"/>
-      <c r="D11" s="218"/>
+      <c r="D11" s="214"/>
       <c r="E11" s="123"/>
       <c r="F11" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="252">
         <f>Users_Survey!E6+Users_Survey!E7</f>
         <v>1</v>
       </c>
       <c r="H11" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="127">
+      <c r="I11" s="252">
         <f>Users_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="J11" s="205"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="203"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="199"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="202"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="124"/>
-      <c r="D12" s="219"/>
+      <c r="D12" s="215"/>
       <c r="E12" s="124"/>
       <c r="F12" s="80"/>
-      <c r="G12" s="159">
+      <c r="G12" s="253">
         <f>I11+I12</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="253">
+        <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="159">
-        <f>G14+G15+G17+G18+G19</f>
-        <v>7</v>
-      </c>
-      <c r="J12" s="205"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="203"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="199"/>
     </row>
     <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="202"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="203"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="199"/>
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="202"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="122">
-        <v>5</v>
-      </c>
-      <c r="D14" s="217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="213" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="122">
         <f>G14+G15+I14+I15+K15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="127">
+      <c r="G14" s="252">
         <f>Users_Survey!E9</f>
         <v>1</v>
       </c>
       <c r="H14" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="127">
+      <c r="I14" s="252">
         <f>Users_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="203"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="199"/>
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="202"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="124"/>
-      <c r="D15" s="219"/>
+      <c r="D15" s="215"/>
       <c r="E15" s="124"/>
       <c r="F15" s="80"/>
-      <c r="G15" s="159">
-        <f>I14:I15</f>
-        <v>1</v>
+      <c r="G15" s="253">
+        <f>I14+I15</f>
+        <v>2</v>
       </c>
       <c r="H15" s="80"/>
-      <c r="I15" s="159">
+      <c r="I15" s="253">
         <f>K15</f>
         <v>1</v>
       </c>
       <c r="J15" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="127">
+      <c r="K15" s="252">
         <f>Users_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="203"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="199"/>
     </row>
     <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="202"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="204"/>
-      <c r="P16" s="203"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="200"/>
+      <c r="P16" s="199"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="202"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="122">
         <v>8</v>
       </c>
-      <c r="D17" s="217" t="s">
+      <c r="D17" s="213" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="122">
-        <f>G17+G18+G19+I19+I20</f>
+        <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="252">
         <f>Users_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
-      <c r="P17" s="203"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="199"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="202"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="123"/>
-      <c r="D18" s="218"/>
+      <c r="D18" s="214"/>
       <c r="E18" s="123"/>
       <c r="F18" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="127">
+      <c r="G18" s="252">
         <f>Users_Survey!E13</f>
         <v>1</v>
       </c>
       <c r="H18" s="95"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
-      <c r="P18" s="203"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="199"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="202"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="123"/>
-      <c r="D19" s="218"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="123"/>
       <c r="F19" s="120"/>
-      <c r="G19" s="168">
-        <f>I19+I20</f>
+      <c r="G19" s="254">
+        <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="150" t="s">
+      <c r="H19" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="127">
+      <c r="I19" s="141">
         <f>Users_Survey!E14+Users_Survey!E15</f>
         <v>1</v>
       </c>
@@ -6885,220 +6847,218 @@
         <v>125</v>
       </c>
       <c r="L19" s="80"/>
-      <c r="M19" s="127">
+      <c r="M19" s="252">
         <f>Users_Survey!E16</f>
         <v>1</v>
       </c>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="203"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
+      <c r="P19" s="199"/>
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="202"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="124"/>
-      <c r="D20" s="219"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="124"/>
       <c r="F20" s="121"/>
-      <c r="G20" s="169"/>
+      <c r="G20" s="255"/>
       <c r="H20" s="140"/>
-      <c r="I20" s="159">
-        <f>M19+M20</f>
-        <v>2</v>
-      </c>
+      <c r="I20" s="142"/>
       <c r="J20" s="140"/>
       <c r="K20" s="80" t="s">
         <v>126</v>
       </c>
       <c r="L20" s="80"/>
-      <c r="M20" s="127">
+      <c r="M20" s="252">
         <f>Users_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="N20" s="204"/>
-      <c r="O20" s="204"/>
-      <c r="P20" s="203"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="199"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="202"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="203"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="199"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="202"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="122">
-        <v>5</v>
-      </c>
-      <c r="D22" s="217" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="213" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="122">
-        <f>G23+G22</f>
-        <v>5</v>
+        <f>G23+G22+I22+I23+I24+I25</f>
+        <v>9</v>
       </c>
       <c r="F22" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="127">
+      <c r="G22" s="252">
         <f>Users_Survey!E18</f>
         <v>1</v>
       </c>
       <c r="H22" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="127">
+      <c r="I22" s="252">
         <f>Users_Survey!E19</f>
         <v>1</v>
       </c>
-      <c r="J22" s="205"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-      <c r="P22" s="203"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="200"/>
+      <c r="O22" s="200"/>
+      <c r="P22" s="199"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="202"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="123"/>
-      <c r="D23" s="218"/>
+      <c r="D23" s="214"/>
       <c r="E23" s="123"/>
       <c r="F23" s="120"/>
-      <c r="G23" s="170">
+      <c r="G23" s="256">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
       <c r="H23" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="127">
+      <c r="I23" s="252">
         <f>Users_Survey!E20</f>
         <v>1</v>
       </c>
-      <c r="J23" s="205"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="203"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="200"/>
+      <c r="O23" s="200"/>
+      <c r="P23" s="199"/>
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="202"/>
+      <c r="B24" s="198"/>
       <c r="C24" s="123"/>
-      <c r="D24" s="218"/>
+      <c r="D24" s="214"/>
       <c r="E24" s="123"/>
       <c r="F24" s="120"/>
-      <c r="G24" s="171"/>
+      <c r="G24" s="257"/>
       <c r="H24" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="127">
+      <c r="I24" s="252">
         <f>Users_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J24" s="205"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="204"/>
-      <c r="P24" s="203"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="199"/>
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="202"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="219"/>
+      <c r="D25" s="215"/>
       <c r="E25" s="124"/>
       <c r="F25" s="121"/>
-      <c r="G25" s="172"/>
+      <c r="G25" s="258"/>
       <c r="H25" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="127">
+      <c r="I25" s="252">
         <f>Users_Survey!E22</f>
         <v>1</v>
       </c>
-      <c r="J25" s="205"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="203"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="200"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="199"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="202"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="203"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="199"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="202"/>
-      <c r="C27" s="192">
-        <v>6.6</v>
-      </c>
-      <c r="D27" s="193" t="s">
+      <c r="B27" s="198"/>
+      <c r="C27" s="188">
+        <v>8</v>
+      </c>
+      <c r="D27" s="189" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="184">
+      <c r="E27" s="180">
         <f>G10+G17+M7+G22+I24+I25</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F27" s="185"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="204"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="204"/>
-      <c r="P27" s="203"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="181"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="199"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="207"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="208"/>
-      <c r="L28" s="208"/>
-      <c r="M28" s="208"/>
-      <c r="N28" s="208"/>
-      <c r="O28" s="208"/>
-      <c r="P28" s="210"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+      <c r="M28" s="204"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="204"/>
+      <c r="P28" s="206"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C17:C20"/>
@@ -7155,141 +7115,136 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="67" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="57" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="53" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>$C$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
-      <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7322,16 +7277,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="190"/>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
+      <c r="A1" s="186"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="190"/>
+      <c r="A2" s="186"/>
       <c r="B2" s="125" t="s">
         <v>161</v>
       </c>
@@ -7339,29 +7294,29 @@
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
       <c r="F2" s="125"/>
-      <c r="G2" s="190"/>
+      <c r="G2" s="186"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="190"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="126" t="s">
         <v>132</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="185" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="189" t="s">
+      <c r="E3" s="185" t="s">
         <v>168</v>
       </c>
       <c r="F3" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="186"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="190"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -7378,10 +7333,10 @@
       <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="190"/>
+      <c r="G4" s="186"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="190"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="4">
         <f>B4+1</f>
         <v>2</v>
@@ -7399,10 +7354,10 @@
       <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="186"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="190"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="4">
         <f t="shared" ref="B6:B22" si="1">B5+1</f>
         <v>3</v>
@@ -7420,15 +7375,15 @@
       <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="190"/>
+      <c r="G6" s="186"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="190"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="182" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -7441,10 +7396,10 @@
       <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="190"/>
+      <c r="G7" s="186"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="190"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7462,10 +7417,10 @@
       <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="190"/>
+      <c r="G8" s="186"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="190"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7483,10 +7438,10 @@
       <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="190"/>
+      <c r="G9" s="186"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="190"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7504,10 +7459,10 @@
       <c r="F10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="190"/>
+      <c r="G10" s="186"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7525,10 +7480,10 @@
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="190"/>
+      <c r="G11" s="186"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="190"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7546,10 +7501,10 @@
       <c r="F12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="190"/>
+      <c r="G12" s="186"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7567,15 +7522,15 @@
       <c r="F13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="190"/>
+      <c r="G13" s="186"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="190"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="187" t="s">
+      <c r="C14" s="183" t="s">
         <v>139</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -7588,10 +7543,10 @@
       <c r="F14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="190"/>
+      <c r="G14" s="186"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="190"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7609,10 +7564,10 @@
       <c r="F15" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="190"/>
+      <c r="G15" s="186"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="190"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7630,10 +7585,10 @@
       <c r="F16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="190"/>
+      <c r="G16" s="186"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="190"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7651,10 +7606,10 @@
       <c r="F17" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="190"/>
+      <c r="G17" s="186"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="190"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7672,10 +7627,10 @@
       <c r="F18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="190"/>
+      <c r="G18" s="186"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="190"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7693,10 +7648,10 @@
       <c r="F19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="190"/>
+      <c r="G19" s="186"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="190"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7714,10 +7669,10 @@
       <c r="F20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="190"/>
+      <c r="G20" s="186"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="190"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7735,10 +7690,10 @@
       <c r="F21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="190"/>
+      <c r="G21" s="186"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="190"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7756,20 +7711,20 @@
       <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="190"/>
+      <c r="G22" s="186"/>
     </row>
     <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="190"/>
-      <c r="G23" s="190"/>
+      <c r="A23" s="186"/>
+      <c r="G23" s="186"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="190"/>
-      <c r="B24" s="190"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="190"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7797,7 +7752,7 @@
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7821,142 +7776,142 @@
   <sheetData>
     <row r="1" spans="2:16" ht="5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="220"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
-      <c r="N2" s="221"/>
-      <c r="O2" s="221"/>
-      <c r="P2" s="223"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="219"/>
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="224"/>
-      <c r="C3" s="182" t="s">
+      <c r="B3" s="220"/>
+      <c r="C3" s="178" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="194" t="s">
+      <c r="D3" s="190" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="194"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="195">
+      <c r="E3" s="190"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="191">
         <f>E10/4</f>
-        <v>4.5</v>
-      </c>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195">
+        <v>5</v>
+      </c>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191">
         <f>E14/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195">
+        <v>3</v>
+      </c>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="195"/>
-      <c r="M3" s="214">
+      <c r="L3" s="191"/>
+      <c r="M3" s="210">
         <f>E22/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N3" s="215"/>
-      <c r="O3" s="252" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="211"/>
+      <c r="O3" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="226"/>
+      <c r="P3" s="222"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="224"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="216" t="s">
+      <c r="B4" s="220"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="165" t="s">
+      <c r="F4" s="165"/>
+      <c r="G4" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="166" t="s">
+      <c r="L4" s="166"/>
+      <c r="M4" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="173"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="226"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="247"/>
+      <c r="P4" s="222"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="224"/>
-      <c r="C5" s="256">
+      <c r="B5" s="220"/>
+      <c r="C5" s="250">
         <f>G5+K5+M5+G6+I6+K6+M7</f>
-        <v>18.833333333333332</v>
-      </c>
-      <c r="D5" s="227" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="228" t="s">
+      <c r="E5" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="229"/>
+      <c r="F5" s="225"/>
       <c r="G5" s="117">
         <f>G3</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H5" s="117"/>
-      <c r="I5" s="230">
+      <c r="I5" s="226">
         <v>0</v>
       </c>
-      <c r="J5" s="230"/>
+      <c r="J5" s="226"/>
       <c r="K5" s="117">
         <f>K3</f>
         <v>2</v>
       </c>
       <c r="L5" s="117"/>
-      <c r="M5" s="231">
+      <c r="M5" s="227">
         <f>M3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N5" s="232"/>
-      <c r="O5" s="233">
-        <v>18</v>
-      </c>
-      <c r="P5" s="226"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="228"/>
+      <c r="O5" s="229">
+        <v>23</v>
+      </c>
+      <c r="P5" s="222"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="224"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="228" t="s">
+      <c r="B6" s="220"/>
+      <c r="C6" s="250"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="224" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="235">
+      <c r="F6" s="225"/>
+      <c r="G6" s="231">
         <f>G3</f>
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="235" t="str">
+        <v>5</v>
+      </c>
+      <c r="H6" s="231" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
       <c r="I6" s="117">
         <f>I3</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="117"/>
       <c r="K6" s="117">
@@ -7964,551 +7919,549 @@
         <v>2</v>
       </c>
       <c r="L6" s="117"/>
-      <c r="M6" s="236">
+      <c r="M6" s="232">
         <v>0</v>
       </c>
-      <c r="N6" s="237"/>
-      <c r="O6" s="233"/>
-      <c r="P6" s="226"/>
+      <c r="N6" s="233"/>
+      <c r="O6" s="229"/>
+      <c r="P6" s="222"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="224"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="228" t="s">
+      <c r="B7" s="220"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="229"/>
-      <c r="G7" s="230">
+      <c r="F7" s="225"/>
+      <c r="G7" s="226">
         <v>0</v>
       </c>
-      <c r="H7" s="230">
+      <c r="H7" s="226">
         <v>0</v>
       </c>
-      <c r="I7" s="230">
+      <c r="I7" s="226">
         <v>0</v>
       </c>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230">
+      <c r="J7" s="226"/>
+      <c r="K7" s="226">
         <v>0</v>
       </c>
-      <c r="L7" s="230"/>
-      <c r="M7" s="231">
+      <c r="L7" s="226"/>
+      <c r="M7" s="227">
         <f>M3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N7" s="232"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="226"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="228"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="222"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="224"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="226"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="222"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="224"/>
-      <c r="C9" s="191" t="s">
+      <c r="B9" s="220"/>
+      <c r="C9" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="191" t="s">
+      <c r="F9" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="191" t="s">
+      <c r="G9" s="187" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
-      <c r="P9" s="226"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="222"/>
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225">
-        <v>18</v>
-      </c>
-      <c r="D10" s="217" t="s">
+      <c r="B10" s="220"/>
+      <c r="C10" s="221">
+        <v>20</v>
+      </c>
+      <c r="D10" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="161">
+      <c r="E10" s="162">
         <f>G10+G11+G12+I11+I12</f>
-        <v>18</v>
-      </c>
-      <c r="F10" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="144">
+      <c r="G10" s="159">
         <f>Providers_Survey!E4</f>
         <v>1</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
-      <c r="P10" s="226"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="222"/>
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="224"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="240"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="236"/>
       <c r="F11" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="144">
+      <c r="G11" s="159">
         <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
         <v>1</v>
       </c>
       <c r="H11" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="144">
+      <c r="I11" s="159">
         <f>Providers_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="J11" s="205"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
-      <c r="P11" s="226"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="222"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="224"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="162"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="117"/>
-      <c r="G12" s="241">
+      <c r="G12" s="260">
         <f>I11+I12</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="117"/>
+      <c r="I12" s="260">
+        <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="241">
-        <f>G14+G15+G17+G18+G19</f>
-        <v>7</v>
-      </c>
-      <c r="J12" s="205"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="226"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="222"/>
     </row>
     <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="224"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="226"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="222"/>
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="224"/>
-      <c r="C14" s="225">
-        <v>5</v>
-      </c>
-      <c r="D14" s="217" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="161">
+      <c r="B14" s="220"/>
+      <c r="C14" s="221">
+        <v>6</v>
+      </c>
+      <c r="D14" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="162">
         <f>G14+G15+I14+I15+K15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="144">
+      <c r="G14" s="159">
         <f>Providers_Survey!E10</f>
         <v>1</v>
       </c>
       <c r="H14" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="144">
+      <c r="I14" s="159">
         <f>Providers_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="226"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="222"/>
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="224"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="162"/>
+      <c r="B15" s="220"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="163"/>
       <c r="F15" s="117"/>
-      <c r="G15" s="241">
-        <f>I14:I15</f>
-        <v>1</v>
+      <c r="G15" s="260">
+        <f>I14+I15</f>
+        <v>2</v>
       </c>
       <c r="H15" s="117"/>
-      <c r="I15" s="241">
+      <c r="I15" s="260">
         <f>K15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="141" t="s">
+      <c r="J15" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="144">
+      <c r="K15" s="159">
         <f>Providers_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="L15" s="204"/>
-      <c r="M15" s="204"/>
-      <c r="N15" s="204"/>
-      <c r="O15" s="204"/>
-      <c r="P15" s="226"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="222"/>
     </row>
     <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="224"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="204"/>
-      <c r="M16" s="204"/>
-      <c r="N16" s="204"/>
-      <c r="O16" s="204"/>
-      <c r="P16" s="226"/>
+      <c r="B16" s="220"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="200"/>
+      <c r="P16" s="222"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="224"/>
-      <c r="C17" s="225">
+      <c r="B17" s="220"/>
+      <c r="C17" s="221">
         <v>8</v>
       </c>
-      <c r="D17" s="217" t="s">
+      <c r="D17" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="161">
-        <f>G17+G18+G19+I19+I20</f>
+      <c r="E17" s="162">
+        <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
-      <c r="F17" s="242" t="s">
+      <c r="F17" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="144">
+      <c r="G17" s="159">
         <f>Providers_Survey!E13+Providers_Survey!E14+Providers_Survey!E15+Providers_Survey!E16+Providers_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="204"/>
-      <c r="L17" s="204"/>
-      <c r="M17" s="204"/>
-      <c r="N17" s="204"/>
-      <c r="O17" s="204"/>
-      <c r="P17" s="226"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="222"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="224"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="145" t="s">
+      <c r="B18" s="220"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="144">
+      <c r="G18" s="159">
         <f>Providers_Survey!E18+Providers_Survey!E19</f>
         <v>1</v>
       </c>
       <c r="H18" s="95"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
-      <c r="P18" s="226"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="222"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="224"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="240"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="168">
-        <f>I19+I20</f>
+      <c r="B19" s="220"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="254">
+        <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="243" t="s">
+      <c r="H19" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="144">
+      <c r="I19" s="147">
         <f>Providers_Survey!E20+Providers_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J19" s="142" t="s">
+      <c r="J19" s="144" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="117" t="s">
         <v>125</v>
       </c>
       <c r="L19" s="117"/>
-      <c r="M19" s="144">
+      <c r="M19" s="159">
         <f>Providers_Survey!E22</f>
         <v>1</v>
       </c>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="226"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
+      <c r="P19" s="222"/>
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="224"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="241">
-        <f>M19+M20</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="143"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="255"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="145"/>
       <c r="K20" s="117" t="s">
         <v>126</v>
       </c>
       <c r="L20" s="117"/>
-      <c r="M20" s="144">
+      <c r="M20" s="159">
         <f>Providers_Survey!E23</f>
         <v>1</v>
       </c>
-      <c r="N20" s="204"/>
-      <c r="O20" s="204"/>
-      <c r="P20" s="226"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="222"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="224"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="204"/>
-      <c r="L21" s="204"/>
-      <c r="M21" s="204"/>
-      <c r="N21" s="204"/>
-      <c r="O21" s="204"/>
-      <c r="P21" s="226"/>
+      <c r="B21" s="220"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="222"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="224"/>
-      <c r="C22" s="225">
-        <v>5</v>
-      </c>
-      <c r="D22" s="217" t="s">
+      <c r="B22" s="220"/>
+      <c r="C22" s="221">
+        <v>9</v>
+      </c>
+      <c r="D22" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="161">
-        <f>G23+G22</f>
-        <v>5</v>
-      </c>
-      <c r="F22" s="145" t="s">
+      <c r="E22" s="162">
+        <f>G23+G22+I22+I23+I24+I25</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="144">
+      <c r="G22" s="159">
         <f>Providers_Survey!E24</f>
         <v>1</v>
       </c>
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="144">
+      <c r="I22" s="159">
         <f>Providers_Survey!E25</f>
         <v>1</v>
       </c>
-      <c r="J22" s="205"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="204"/>
-      <c r="M22" s="204"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="204"/>
-      <c r="P22" s="226"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="200"/>
+      <c r="O22" s="200"/>
+      <c r="P22" s="222"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="224"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="168">
+      <c r="B23" s="220"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="254">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="144">
+      <c r="I23" s="159">
         <f>Providers_Survey!E26</f>
         <v>1</v>
       </c>
-      <c r="J23" s="205"/>
-      <c r="K23" s="204"/>
-      <c r="L23" s="204"/>
-      <c r="M23" s="204"/>
-      <c r="N23" s="204"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="226"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="200"/>
+      <c r="O23" s="200"/>
+      <c r="P23" s="222"/>
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="224"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="240"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="244"/>
-      <c r="H24" s="144" t="s">
+      <c r="B24" s="220"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="261"/>
+      <c r="H24" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="144">
+      <c r="I24" s="159">
         <f>Providers_Survey!E27</f>
         <v>1</v>
       </c>
-      <c r="J24" s="205"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="204"/>
-      <c r="N24" s="204"/>
-      <c r="O24" s="204"/>
-      <c r="P24" s="226"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="222"/>
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="224"/>
-      <c r="C25" s="225"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="144" t="s">
+      <c r="B25" s="220"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="144">
+      <c r="I25" s="159">
         <f>Providers_Survey!E28</f>
         <v>1</v>
       </c>
-      <c r="J25" s="205"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="204"/>
-      <c r="M25" s="204"/>
-      <c r="N25" s="204"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="226"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="200"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="222"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="224"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="204"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="226"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="222"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="224"/>
-      <c r="C27" s="245">
+      <c r="B27" s="220"/>
+      <c r="C27" s="239">
         <v>6.6</v>
       </c>
-      <c r="D27" s="245" t="s">
+      <c r="D27" s="239" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="246">
+      <c r="E27" s="240">
         <f>G10+G17+G22+I24+I25+M7</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F27" s="247"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="204"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="204"/>
-      <c r="L27" s="204"/>
-      <c r="M27" s="204"/>
-      <c r="N27" s="204"/>
-      <c r="O27" s="204"/>
-      <c r="P27" s="226"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="241"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="222"/>
     </row>
     <row r="28" spans="2:16" ht="16" thickBot="1">
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="249"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="249"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="K28" s="249"/>
-      <c r="L28" s="249"/>
-      <c r="M28" s="249"/>
-      <c r="N28" s="249"/>
-      <c r="O28" s="249"/>
-      <c r="P28" s="251"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="243"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
+      <c r="K28" s="243"/>
+      <c r="L28" s="243"/>
+      <c r="M28" s="243"/>
+      <c r="N28" s="243"/>
+      <c r="O28" s="243"/>
+      <c r="P28" s="245"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C17:C20"/>
@@ -8565,141 +8518,136 @@
     <mergeCell ref="H14:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="greaterThan">
       <formula>$C$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$O$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8716,7 +8664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -8732,46 +8680,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="190"/>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
+      <c r="A1" s="186"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="190"/>
-      <c r="B2" s="188" t="s">
+      <c r="A2" s="186"/>
+      <c r="B2" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="190"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="186"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="190"/>
-      <c r="B3" s="189" t="s">
+      <c r="A3" s="186"/>
+      <c r="B3" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="D3" s="185" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="189" t="s">
+      <c r="E3" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="189" t="s">
+      <c r="F3" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="190"/>
+      <c r="G3" s="186"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="190"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -8788,10 +8736,10 @@
       <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="190"/>
+      <c r="G4" s="186"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="190"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="4">
         <f>B4+1</f>
         <v>2</v>
@@ -8809,10 +8757,10 @@
       <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="190"/>
+      <c r="G5" s="186"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="190"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="4">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
@@ -8830,10 +8778,10 @@
       <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="190"/>
+      <c r="G6" s="186"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="190"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8851,10 +8799,10 @@
       <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="190"/>
+      <c r="G7" s="186"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="190"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8872,10 +8820,10 @@
       <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="190"/>
+      <c r="G8" s="186"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="190"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8893,10 +8841,10 @@
       <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="190"/>
+      <c r="G9" s="186"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="190"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8914,10 +8862,10 @@
       <c r="F10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="190"/>
+      <c r="G10" s="186"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8935,10 +8883,10 @@
       <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="190"/>
+      <c r="G11" s="186"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="190"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8956,10 +8904,10 @@
       <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="190"/>
+      <c r="G12" s="186"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="190"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8977,10 +8925,10 @@
       <c r="F13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="190"/>
+      <c r="G13" s="186"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="190"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8998,10 +8946,10 @@
       <c r="F14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="190"/>
+      <c r="G14" s="186"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="190"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9019,10 +8967,10 @@
       <c r="F15" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="190"/>
+      <c r="G15" s="186"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="190"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9040,10 +8988,10 @@
       <c r="F16" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="190"/>
+      <c r="G16" s="186"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="190"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9061,10 +9009,10 @@
       <c r="F17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="190"/>
+      <c r="G17" s="186"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="190"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9082,10 +9030,10 @@
       <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="190"/>
+      <c r="G18" s="186"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="190"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9103,10 +9051,10 @@
       <c r="F19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="190"/>
+      <c r="G19" s="186"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="190"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9124,10 +9072,10 @@
       <c r="F20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="190"/>
+      <c r="G20" s="186"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="190"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9145,10 +9093,10 @@
       <c r="F21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="190"/>
+      <c r="G21" s="186"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="190"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9166,10 +9114,10 @@
       <c r="F22" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="190"/>
+      <c r="G22" s="186"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="190"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9187,10 +9135,10 @@
       <c r="F23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="190"/>
+      <c r="G23" s="186"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="190"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9208,10 +9156,10 @@
       <c r="F24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="190"/>
+      <c r="G24" s="186"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="190"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9229,10 +9177,10 @@
       <c r="F25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="190"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="190"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9250,10 +9198,10 @@
       <c r="F26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="190"/>
+      <c r="G26" s="186"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="190"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9271,10 +9219,10 @@
       <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="190"/>
+      <c r="G27" s="186"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="190"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9292,21 +9240,21 @@
       <c r="F28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="190"/>
+      <c r="G28" s="186"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="190"/>
+      <c r="A29" s="186"/>
       <c r="F29"/>
-      <c r="G29" s="190"/>
+      <c r="G29" s="186"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="190"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="F31"/>
@@ -10236,7 +10184,7 @@
     </row>
     <row r="13" spans="1:15" ht="37" customHeight="1">
       <c r="A13" s="36"/>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="159" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="98"/>
@@ -10277,7 +10225,7 @@
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="36"/>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="159" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="98"/>
@@ -10321,7 +10269,7 @@
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1">
       <c r="A17" s="36"/>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="159" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="98"/>
@@ -10847,11 +10795,11 @@
       <c r="D13" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="154">
         <v>1</v>
       </c>
       <c r="F13" s="95"/>
-      <c r="G13" s="151"/>
+      <c r="G13" s="153"/>
     </row>
     <row r="14" spans="2:13" ht="25" customHeight="1">
       <c r="B14" s="125"/>
@@ -10864,7 +10812,7 @@
       <c r="F14" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="149">
+      <c r="G14" s="151">
         <v>1</v>
       </c>
       <c r="H14" s="84" t="s">

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="203">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -469,9 +469,6 @@
     <t>Security / Privacy</t>
   </si>
   <si>
-    <t>e-service AUES dimentional components</t>
-  </si>
-  <si>
     <t>e-service Quality dimensions (AUES)</t>
   </si>
   <si>
@@ -652,9 +649,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Answer (YES/NO/NA)</t>
-  </si>
-  <si>
     <t>Quality Top Factor</t>
   </si>
   <si>
@@ -727,7 +721,34 @@
     <t>Is the service able to properly deal with external organizations?</t>
   </si>
   <si>
-    <t>Dimensional factor per dimension</t>
+    <t>figure 12</t>
+  </si>
+  <si>
+    <t>figure 13</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>e-service AUES dimensional components</t>
+  </si>
+  <si>
+    <t>DIMENSIONS</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>DIMENSIONAL FACTOR PER DIMENSION</t>
+  </si>
+  <si>
+    <t>Quality Top Limit</t>
+  </si>
+  <si>
+    <t>Answer YES/NO/NA</t>
   </si>
 </sst>
 </file>
@@ -865,7 +886,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1235,6 +1256,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1303,6 +1337,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1665,7 +1736,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1679,7 +1750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1705,6 +1775,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1733,9 +1806,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2133,6 +2203,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,24 +2218,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2177,12 +2238,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2196,10 +2251,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,9 +2267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,15 +2297,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,25 +2316,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2344,24 +2377,18 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2397,6 +2424,57 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="359">
@@ -2760,7 +2838,7 @@
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="236">
+  <dxfs count="166">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3433,6 +3511,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3743,6 +3831,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3763,6 +3861,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3773,6 +3881,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4043,6 +4161,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4103,6 +4241,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4338,776 +4486,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5124,6 +4502,53 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="2019300"/>
+          <a:ext cx="5316855" cy="1286510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5465,57 +4890,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="2:10" ht="21" customHeight="1">
-      <c r="B2" s="36"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="110" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="36"/>
-    </row>
-    <row r="3" spans="2:10" s="27" customFormat="1" ht="20" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="31" t="s">
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="2:10" s="26" customFormat="1" ht="20" customHeight="1">
+      <c r="B3" s="37"/>
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="38"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="106" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="105" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -5529,14 +4954,14 @@
         <v>10</v>
       </c>
       <c r="H4" s="18"/>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="112"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="107" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="106" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="19"/>
@@ -5546,14 +4971,14 @@
         <v>10</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="112"/>
+      <c r="I5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="B6" s="112"/>
-      <c r="C6" s="108" t="s">
+      <c r="B6" s="111"/>
+      <c r="C6" s="107" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -5567,14 +4992,14 @@
         <v>10</v>
       </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="112"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="2:10" s="16" customFormat="1" ht="21" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="109"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23" t="s">
         <v>10</v>
@@ -5586,58 +5011,58 @@
       <c r="H7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="112"/>
+      <c r="J7" s="111"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="113" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="112" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="114"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="C14" s="106">
+      <c r="C14" s="105">
         <v>1</v>
       </c>
       <c r="D14" s="17">
@@ -5651,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="31" t="s">
         <v>0</v>
       </c>
       <c r="J14">
@@ -5659,7 +5084,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="C15" s="107">
+      <c r="C15" s="106">
         <v>1</v>
       </c>
       <c r="D15" s="19"/>
@@ -5669,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>1</v>
       </c>
       <c r="J15">
@@ -5677,7 +5102,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="C16" s="108">
+      <c r="C16" s="107">
         <v>1</v>
       </c>
       <c r="D16" s="21">
@@ -5691,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J16">
@@ -5699,7 +5124,7 @@
       </c>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="109"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23">
         <v>1</v>
@@ -5711,7 +5136,7 @@
       <c r="H17" s="24">
         <v>1</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="34" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="19">
@@ -5844,119 +5269,119 @@
     <col min="14" max="14" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="115" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="114" customWidth="1"/>
     <col min="18" max="18" width="3.83203125" customWidth="1"/>
     <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="133" t="s">
+      <c r="E2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="135" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="139" t="s">
-        <v>128</v>
+      <c r="B3" s="138" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="79">
+      <c r="D3" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="78">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G3" s="158">
+      <c r="G3" s="157">
         <v>0</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="78">
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="155">
+      <c r="I3" s="154">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
       <c r="J3" s="2"/>
       <c r="V3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="152"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="158">
+      <c r="E4" s="157">
         <v>0</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G4" s="158">
+      <c r="G4" s="157">
         <v>0</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="78">
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="156"/>
+      <c r="I4" s="155"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="140"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="158">
+      <c r="D5" s="157">
         <v>0</v>
       </c>
-      <c r="E5" s="158">
+      <c r="E5" s="157">
         <v>0</v>
       </c>
-      <c r="F5" s="158">
+      <c r="F5" s="157">
         <v>0</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="135">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H5" s="137">
+      <c r="H5" s="136">
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="157"/>
+      <c r="I5" s="156"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -5966,85 +5391,85 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="134" t="s">
-        <v>129</v>
+      <c r="B7" s="133" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E7" s="158">
+      <c r="E7" s="157">
         <v>0</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="135">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="136">
         <f>SUM(D7:G7)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I7" s="138">
+      <c r="I7" s="137">
         <f>SUM(H7:H9)</f>
         <v>18.833333333333332</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="134"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="78">
         <f>$K$12</f>
         <v>4.5</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="78">
         <f>$K$16</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="78">
         <f>$K$19</f>
         <v>2</v>
       </c>
-      <c r="G8" s="158">
+      <c r="G8" s="157">
         <v>0</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="78">
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
         <v>9</v>
       </c>
-      <c r="I8" s="138"/>
+      <c r="I8" s="137"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="134"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="158">
+      <c r="D9" s="157">
         <v>0</v>
       </c>
-      <c r="E9" s="158">
+      <c r="E9" s="157">
         <v>0</v>
       </c>
-      <c r="F9" s="158">
+      <c r="F9" s="157">
         <v>0</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="135">
         <f>$K$24</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="136">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I9" s="138"/>
+      <c r="I9" s="137"/>
     </row>
     <row r="10" spans="2:22" ht="4" customHeight="1"/>
     <row r="11" spans="2:22">
@@ -6072,46 +5497,46 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="20" customHeight="1">
-      <c r="K13" s="125" t="s">
+      <c r="K13" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="122">
+      <c r="L13" s="121">
         <f>N13+N14+N15+P14+P15</f>
         <v>18</v>
       </c>
-      <c r="M13" s="79" t="s">
+      <c r="M13" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="127">
+      <c r="N13" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="36" customHeight="1">
-      <c r="K14" s="125"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="80" t="s">
+      <c r="K14" s="124"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="127">
-        <v>1</v>
-      </c>
-      <c r="O14" s="80" t="s">
+      <c r="N14" s="126">
+        <v>1</v>
+      </c>
+      <c r="O14" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="127">
+      <c r="P14" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1">
-      <c r="K15" s="125"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="126">
+      <c r="K15" s="124"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="125">
         <f>P14+P15</f>
         <v>8</v>
       </c>
-      <c r="O15" s="80"/>
-      <c r="P15" s="126">
+      <c r="O15" s="79"/>
+      <c r="P15" s="125">
         <f>N17+N18+N20+N21+N22</f>
         <v>7</v>
       </c>
@@ -6123,44 +5548,44 @@
       </c>
     </row>
     <row r="17" spans="11:20">
-      <c r="K17" s="122" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="122">
+      <c r="K17" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="121">
         <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
-      <c r="M17" s="80" t="s">
+      <c r="M17" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="N17" s="127">
-        <v>1</v>
-      </c>
-      <c r="O17" s="80" t="s">
+      <c r="N17" s="126">
+        <v>1</v>
+      </c>
+      <c r="O17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="129">
+      <c r="P17" s="128">
         <v>1</v>
       </c>
       <c r="Q17"/>
     </row>
     <row r="18" spans="11:20" ht="34" customHeight="1">
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="126">
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="125">
         <f>P17:P18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="126">
+      <c r="O18" s="79"/>
+      <c r="P18" s="125">
         <f>R18</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="83" t="s">
+      <c r="Q18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="127">
+      <c r="R18" s="126">
         <v>1</v>
       </c>
     </row>
@@ -6171,142 +5596,142 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="122" t="s">
+      <c r="K20" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="122">
+      <c r="L20" s="121">
         <f>N20+N21+N22+P22+P23</f>
         <v>8</v>
       </c>
       <c r="M20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N20" s="128">
+      <c r="N20" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="119" t="s">
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="150">
-        <v>1</v>
-      </c>
-      <c r="O21" s="95"/>
-      <c r="P21" s="153"/>
+      <c r="N21" s="149">
+        <v>1</v>
+      </c>
+      <c r="O21" s="94"/>
+      <c r="P21" s="152"/>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="110">
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="109">
         <f>P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="151">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="139" t="s">
+      <c r="O22" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="150">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="139">
+      <c r="R22" s="138">
         <f>T22+T23</f>
         <v>2</v>
       </c>
-      <c r="S22" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="T22" s="128">
+      <c r="S22" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="126">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="125">
         <f>R22</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="140"/>
-      <c r="S23" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="T23" s="128">
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="T23" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="11:20">
-      <c r="K24" s="131">
+      <c r="K24" s="130">
         <f>L25/3</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="25" spans="11:20" ht="20" customHeight="1">
-      <c r="K25" s="122" t="s">
+      <c r="K25" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="122">
+      <c r="L25" s="121">
         <f>N26+N25</f>
         <v>5</v>
       </c>
-      <c r="M25" s="119" t="s">
+      <c r="M25" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="127">
-        <v>1</v>
-      </c>
-      <c r="O25" s="116" t="s">
+      <c r="N25" s="126">
+        <v>1</v>
+      </c>
+      <c r="O25" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="127">
+      <c r="P25" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="11:20" ht="20" customHeight="1">
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="122">
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="121">
         <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
-      <c r="O26" s="116" t="s">
+      <c r="O26" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="127">
+      <c r="P26" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="11:20" ht="20" customHeight="1">
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="116" t="s">
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="127">
+      <c r="P27" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="11:20" ht="20" customHeight="1">
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="116" t="s">
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="123"/>
+      <c r="O28" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="P28" s="127">
+      <c r="P28" s="126">
         <v>1</v>
       </c>
     </row>
@@ -6348,10 +5773,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P28"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6365,695 +5790,711 @@
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="115" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="114" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="5" customHeight="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="194"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="197"/>
-    </row>
-    <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="198"/>
-      <c r="C3" s="176" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="190" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="191">
+    <row r="1" spans="2:18" ht="5" customHeight="1"/>
+    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1">
+      <c r="B2" s="185"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="188"/>
+    </row>
+    <row r="3" spans="2:18" ht="22" customHeight="1">
+      <c r="B3" s="189"/>
+      <c r="C3" s="255" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="248" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="249"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="182">
         <f>E10/4</f>
         <v>5</v>
       </c>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182">
         <f>E14/2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191">
+      <c r="J3" s="182"/>
+      <c r="K3" s="182">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="191"/>
-      <c r="M3" s="192">
+      <c r="L3" s="182"/>
+      <c r="M3" s="183">
         <f>E22/3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="193"/>
-      <c r="O3" s="248" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="199"/>
-    </row>
-    <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="198"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="212" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="166" t="s">
+      <c r="N3" s="184"/>
+      <c r="O3" s="172" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" s="190"/>
+    </row>
+    <row r="4" spans="2:18" ht="22" customHeight="1">
+      <c r="B4" s="189"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="200" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="246" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="247"/>
+      <c r="G4" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166" t="s">
+      <c r="H4" s="203"/>
+      <c r="I4" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="167" t="s">
+      <c r="L4" s="203"/>
+      <c r="M4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="169"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="199"/>
-    </row>
-    <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="198"/>
-      <c r="C5" s="171">
+      <c r="N4" s="251"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="190"/>
+      <c r="R4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="20" customHeight="1">
+      <c r="B5" s="189"/>
+      <c r="C5" s="257">
         <f>G5+K5+G6+K6+M7+I5</f>
         <v>20</v>
       </c>
-      <c r="D5" s="207" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="252" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="80">
+      <c r="F5" s="161"/>
+      <c r="G5" s="79">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="168">
+      <c r="H5" s="79"/>
+      <c r="I5" s="165">
         <f>I3</f>
         <v>3</v>
       </c>
-      <c r="J5" s="168"/>
-      <c r="K5" s="80">
+      <c r="J5" s="165"/>
+      <c r="K5" s="79">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="173">
+      <c r="L5" s="79"/>
+      <c r="M5" s="169">
         <v>0</v>
       </c>
-      <c r="N5" s="174"/>
-      <c r="O5" s="171">
+      <c r="N5" s="170"/>
+      <c r="O5" s="167">
         <v>20</v>
       </c>
-      <c r="P5" s="199"/>
-    </row>
-    <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="198"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="25" t="s">
+      <c r="P5" s="190"/>
+    </row>
+    <row r="6" spans="2:18" ht="20" customHeight="1">
+      <c r="B6" s="189"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="253"/>
+      <c r="E6" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="168">
+      <c r="F6" s="161"/>
+      <c r="G6" s="165">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H6" s="168" t="str">
+      <c r="H6" s="165" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="160">
+      <c r="I6" s="159">
         <v>0</v>
       </c>
-      <c r="J6" s="160"/>
-      <c r="K6" s="80">
+      <c r="J6" s="159"/>
+      <c r="K6" s="79">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="161">
+      <c r="L6" s="79"/>
+      <c r="M6" s="162">
         <v>0</v>
       </c>
-      <c r="N6" s="170"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="199"/>
-    </row>
-    <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="198"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="25" t="s">
+      <c r="N6" s="166"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="190"/>
+      <c r="R6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="20" customHeight="1" thickBot="1">
+      <c r="B7" s="189"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="160">
+      <c r="F7" s="161"/>
+      <c r="G7" s="159">
         <v>0</v>
       </c>
-      <c r="H7" s="160">
+      <c r="H7" s="159">
         <v>0</v>
       </c>
-      <c r="I7" s="160">
+      <c r="I7" s="159">
         <v>0</v>
       </c>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160">
+      <c r="J7" s="159"/>
+      <c r="K7" s="159">
         <v>0</v>
       </c>
-      <c r="L7" s="160"/>
-      <c r="M7" s="138">
+      <c r="L7" s="159"/>
+      <c r="M7" s="137">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N7" s="175"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="199"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="198"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="199"/>
-    </row>
-    <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="198"/>
-      <c r="C9" s="187" t="s">
+      <c r="N7" s="171"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="190"/>
+      <c r="R7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="189"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="190"/>
+      <c r="R8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="20" customHeight="1">
+      <c r="B9" s="189"/>
+      <c r="C9" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="179" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="F9" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="187" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="187" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="187" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="199"/>
-    </row>
-    <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="198"/>
-      <c r="C10" s="122">
+      <c r="G9" s="179" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="190"/>
+      <c r="R9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="20" customHeight="1">
+      <c r="B10" s="189"/>
+      <c r="C10" s="121">
         <v>20</v>
       </c>
-      <c r="D10" s="213" t="s">
+      <c r="D10" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="121">
         <f>G10+G11+G12+I11+I12</f>
         <v>20</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="252">
+      <c r="G10" s="236">
         <f>Users_Survey!E4+Users_Survey!E5</f>
         <v>1</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="199"/>
-    </row>
-    <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="198"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="80" t="s">
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="190"/>
+    </row>
+    <row r="11" spans="2:18" ht="36" customHeight="1">
+      <c r="B11" s="189"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="252">
+      <c r="G11" s="236">
         <f>Users_Survey!E6+Users_Survey!E7</f>
         <v>1</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="252">
+      <c r="I11" s="236">
         <f>Users_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="J11" s="201"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="199"/>
-    </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="198"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="253">
+      <c r="J11" s="192"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="190"/>
+    </row>
+    <row r="12" spans="2:18" ht="25" customHeight="1">
+      <c r="B12" s="189"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="237">
         <f>I11+I12</f>
         <v>9</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="253">
+      <c r="H12" s="79"/>
+      <c r="I12" s="237">
         <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
       </c>
-      <c r="J12" s="201"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="199"/>
-    </row>
-    <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="198"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="199"/>
-    </row>
-    <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="198"/>
-      <c r="C14" s="122">
+      <c r="J12" s="192"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="190"/>
+    </row>
+    <row r="13" spans="2:18" ht="10" customHeight="1">
+      <c r="B13" s="189"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="190"/>
+    </row>
+    <row r="14" spans="2:18" ht="20" customHeight="1">
+      <c r="B14" s="189"/>
+      <c r="C14" s="121">
         <v>6</v>
       </c>
-      <c r="D14" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="122">
+      <c r="D14" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="121">
         <f>G14+G15+I14+I15+K15</f>
         <v>6</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="252">
+      <c r="G14" s="236">
         <f>Users_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="252">
+      <c r="I14" s="236">
         <f>Users_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="199"/>
-    </row>
-    <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="198"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="253">
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="190"/>
+    </row>
+    <row r="15" spans="2:18" ht="34" customHeight="1">
+      <c r="B15" s="189"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="237">
         <f>I14+I15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="253">
+      <c r="H15" s="79"/>
+      <c r="I15" s="237">
         <f>K15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="83" t="s">
+      <c r="J15" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="252">
+      <c r="K15" s="236">
         <f>Users_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="199"/>
-    </row>
-    <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="198"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="200"/>
-      <c r="P16" s="199"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="190"/>
+    </row>
+    <row r="16" spans="2:18" ht="10" customHeight="1">
+      <c r="B16" s="189"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="190"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="198"/>
-      <c r="C17" s="122">
+      <c r="B17" s="189"/>
+      <c r="C17" s="121">
         <v>8</v>
       </c>
-      <c r="D17" s="213" t="s">
+      <c r="D17" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="121">
         <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="252">
+      <c r="G17" s="236">
         <f>Users_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="199"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="190"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="198"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="119" t="s">
+      <c r="B18" s="189"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="252">
+      <c r="G18" s="236">
         <f>Users_Survey!E13</f>
         <v>1</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="199"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="190"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="198"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="254">
+      <c r="B19" s="189"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="238">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="141">
+      <c r="H19" s="151" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="140">
         <f>Users_Survey!E14+Users_Survey!E15</f>
         <v>1</v>
       </c>
-      <c r="J19" s="139" t="s">
+      <c r="J19" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="80" t="s">
+      <c r="K19" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="79"/>
+      <c r="M19" s="236">
+        <f>Users_Survey!E16</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="190"/>
+    </row>
+    <row r="20" spans="2:16" ht="20" customHeight="1">
+      <c r="B20" s="189"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="80"/>
-      <c r="M19" s="252">
-        <f>Users_Survey!E16</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="199"/>
-    </row>
-    <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="198"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="252">
+      <c r="L20" s="79"/>
+      <c r="M20" s="236">
         <f>Users_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="N20" s="200"/>
-      <c r="O20" s="200"/>
-      <c r="P20" s="199"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="190"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="198"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="199"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="190"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="198"/>
-      <c r="C22" s="122">
+      <c r="B22" s="189"/>
+      <c r="C22" s="121">
         <v>9</v>
       </c>
-      <c r="D22" s="213" t="s">
+      <c r="D22" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="121">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>9</v>
       </c>
-      <c r="F22" s="119" t="s">
+      <c r="F22" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="252">
+      <c r="G22" s="236">
         <f>Users_Survey!E18</f>
         <v>1</v>
       </c>
-      <c r="H22" s="118" t="s">
+      <c r="H22" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="252">
+      <c r="I22" s="236">
         <f>Users_Survey!E19</f>
         <v>1</v>
       </c>
-      <c r="J22" s="201"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="199"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="190"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="198"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="256">
+      <c r="B23" s="189"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="240">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H23" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="252">
+      <c r="I23" s="236">
         <f>Users_Survey!E20</f>
         <v>1</v>
       </c>
-      <c r="J23" s="201"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="199"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="190"/>
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="198"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="118" t="s">
+      <c r="B24" s="189"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="252">
+      <c r="I24" s="236">
         <f>Users_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J24" s="201"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="200"/>
-      <c r="M24" s="200"/>
-      <c r="N24" s="200"/>
-      <c r="O24" s="200"/>
-      <c r="P24" s="199"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="190"/>
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="198"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="118" t="s">
+      <c r="B25" s="189"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="252">
+      <c r="I25" s="236">
         <f>Users_Survey!E22</f>
         <v>1</v>
       </c>
-      <c r="J25" s="201"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="200"/>
-      <c r="M25" s="200"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="199"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="190"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="198"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="199"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="190"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="198"/>
-      <c r="C27" s="188">
+      <c r="B27" s="189"/>
+      <c r="C27" s="180">
         <v>8</v>
       </c>
-      <c r="D27" s="189" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="180">
+      <c r="D27" s="181" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="174">
         <f>G10+G17+M7+G22+I24+I25</f>
         <v>8</v>
       </c>
-      <c r="F27" s="181"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="199"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="190"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="203"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="204"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="204"/>
-      <c r="L28" s="204"/>
-      <c r="M28" s="204"/>
-      <c r="N28" s="204"/>
-      <c r="O28" s="204"/>
-      <c r="P28" s="206"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="195"/>
+      <c r="L28" s="195"/>
+      <c r="M28" s="195"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="195"/>
+      <c r="P28" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -7115,140 +6556,141 @@
     <mergeCell ref="K4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="63" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="57" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="55" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7262,469 +6704,469 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="186"/>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="186"/>
-      <c r="B2" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="186"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="186"/>
-      <c r="B3" s="126" t="s">
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="178"/>
+      <c r="B2" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:7" ht="38" customHeight="1">
+      <c r="A3" s="178"/>
+      <c r="B3" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="D3" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="178"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="178"/>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="185" t="s">
+      <c r="D4" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="186"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="186"/>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="130">
+      <c r="E4" s="125">
         <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="186"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="186"/>
-      <c r="B5" s="4">
+      <c r="G4" s="178"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="178"/>
+      <c r="B5" s="78">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="130">
+      <c r="C5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="125">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="186"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="186"/>
-      <c r="B6" s="4">
+      <c r="G5" s="178"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="178"/>
+      <c r="B6" s="78">
         <f t="shared" ref="B6:B22" si="1">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="130">
+      <c r="C6" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="125">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="186"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="186"/>
-      <c r="B7" s="4">
+      <c r="G6" s="178"/>
+    </row>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="178"/>
+      <c r="B7" s="78">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="182" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="130">
+      <c r="C7" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="125">
         <f>IF(D7="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="186"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="186"/>
-      <c r="B8" s="4">
+      <c r="G7" s="178"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="178"/>
+      <c r="B8" s="78">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="130">
+      <c r="C8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="125">
         <f>IF(D8="NO",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="186"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="186"/>
-      <c r="B9" s="4">
+      <c r="G8" s="178"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="178"/>
+      <c r="B9" s="78">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="130">
+      <c r="C9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="125">
         <f>IF(D9="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="186"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="186"/>
-      <c r="B10" s="4">
+      <c r="G9" s="178"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="178"/>
+      <c r="B10" s="78">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="130">
+      <c r="C10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="125">
         <f>IF(D10="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="186"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="186"/>
-      <c r="B11" s="4">
+      <c r="G10" s="178"/>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="178"/>
+      <c r="B11" s="78">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="130">
+      <c r="C11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="125">
         <f>IF(D11="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="186"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="186"/>
-      <c r="B12" s="4">
+      <c r="G11" s="178"/>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="178"/>
+      <c r="B12" s="78">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="130">
+      <c r="C12" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="125">
         <f>IF(D12="NO",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="186"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="186"/>
-      <c r="B13" s="4">
+      <c r="F12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="178"/>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="178"/>
+      <c r="B13" s="78">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="130">
+      <c r="C13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="125">
         <f>IF(D13="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="186"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="186"/>
-      <c r="B14" s="4">
+      <c r="G13" s="178"/>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="178"/>
+      <c r="B14" s="78">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="183" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="130">
+      <c r="C14" s="262" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="125">
         <f>IF(D14="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="186"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="186"/>
-      <c r="B15" s="4">
+      <c r="F14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="178"/>
+    </row>
+    <row r="15" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="178"/>
+      <c r="B15" s="78">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="130">
+      <c r="C15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="125">
         <f>IF(D15="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="186"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="186"/>
-      <c r="B16" s="4">
+      <c r="F15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="178"/>
+    </row>
+    <row r="16" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="178"/>
+      <c r="B16" s="78">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="130">
+      <c r="C16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="125">
         <f>IF(D16="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="186"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="186"/>
-      <c r="B17" s="4">
+      <c r="F16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="178"/>
+    </row>
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="178"/>
+      <c r="B17" s="78">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="130">
+      <c r="C17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="125">
         <f>IF(D17="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="186"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="186"/>
-      <c r="B18" s="4">
+      <c r="F17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="178"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="78">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="130">
+      <c r="C18" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="125">
         <f>IF(D18="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="186"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="186"/>
-      <c r="B19" s="4">
+      <c r="G18" s="178"/>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="178"/>
+      <c r="B19" s="78">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="130">
+      <c r="C19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="125">
         <f>IF(D19="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="186"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="186"/>
-      <c r="B20" s="4">
+      <c r="G19" s="178"/>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="78">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="130">
+      <c r="C20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="125">
         <f>IF(D20="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="186"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="186"/>
-      <c r="B21" s="4">
+      <c r="G20" s="178"/>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="178"/>
+      <c r="B21" s="78">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="130">
+      <c r="C21" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="125">
         <f>IF(D21="NO",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="186"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="186"/>
-      <c r="B22" s="4">
+      <c r="G21" s="178"/>
+    </row>
+    <row r="22" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="78">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="130">
+      <c r="E22" s="125">
         <f>IF(D22="NO",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="186"/>
+      <c r="G22" s="178"/>
     </row>
     <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="186"/>
-      <c r="G23" s="186"/>
+      <c r="A23" s="178"/>
+      <c r="G23" s="178"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="186"/>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7749,10 +7191,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P28"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7766,7 +7208,7 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="115" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="114" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
@@ -7774,689 +7216,704 @@
     <col min="16" max="16" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="216"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="219"/>
-    </row>
-    <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="220"/>
-      <c r="C3" s="178" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="190" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="190"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="191">
+    <row r="1" spans="2:18" ht="5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:18" ht="15" customHeight="1" thickBot="1">
+      <c r="B2" s="204"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="207"/>
+    </row>
+    <row r="3" spans="2:18" ht="22" customHeight="1">
+      <c r="B3" s="208"/>
+      <c r="C3" s="172" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="248" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="249"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="182">
         <f>E10/4</f>
         <v>5</v>
       </c>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191">
+      <c r="H3" s="182"/>
+      <c r="I3" s="182">
         <f>E14/2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191">
+      <c r="J3" s="182"/>
+      <c r="K3" s="182">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="191"/>
-      <c r="M3" s="210">
+      <c r="L3" s="182"/>
+      <c r="M3" s="198">
         <f>E22/3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="246" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="222"/>
-    </row>
-    <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="220"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="212" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="166" t="s">
+      <c r="N3" s="199"/>
+      <c r="O3" s="232" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="210"/>
+    </row>
+    <row r="4" spans="2:18" ht="22" customHeight="1">
+      <c r="B4" s="208"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="200" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="246" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="247"/>
+      <c r="G4" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166" t="s">
+      <c r="H4" s="203"/>
+      <c r="I4" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="167" t="s">
+      <c r="L4" s="203"/>
+      <c r="M4" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="169"/>
-      <c r="O4" s="247"/>
-      <c r="P4" s="222"/>
-    </row>
-    <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="220"/>
-      <c r="C5" s="250">
+      <c r="N4" s="251"/>
+      <c r="O4" s="233"/>
+      <c r="P4" s="210"/>
+      <c r="R4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="20" customHeight="1">
+      <c r="B5" s="208"/>
+      <c r="C5" s="234">
         <f>G5+K5+M5+G6+I6+K6+M7</f>
         <v>23</v>
       </c>
-      <c r="D5" s="223" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="224" t="s">
+      <c r="D5" s="211" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="117">
+      <c r="F5" s="260"/>
+      <c r="G5" s="116">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="226">
+      <c r="H5" s="116"/>
+      <c r="I5" s="212">
         <v>0</v>
       </c>
-      <c r="J5" s="226"/>
-      <c r="K5" s="117">
+      <c r="J5" s="212"/>
+      <c r="K5" s="116">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="227">
+      <c r="L5" s="116"/>
+      <c r="M5" s="213">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N5" s="228"/>
-      <c r="O5" s="229">
+      <c r="N5" s="214"/>
+      <c r="O5" s="215">
         <v>23</v>
       </c>
-      <c r="P5" s="222"/>
-    </row>
-    <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="220"/>
-      <c r="C6" s="250"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="224" t="s">
+      <c r="P5" s="210"/>
+    </row>
+    <row r="6" spans="2:18" ht="20" customHeight="1">
+      <c r="B6" s="208"/>
+      <c r="C6" s="234"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="225"/>
-      <c r="G6" s="231">
+      <c r="F6" s="260"/>
+      <c r="G6" s="217">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H6" s="231" t="str">
+      <c r="H6" s="217" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="116">
         <f>I3</f>
         <v>3</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117">
+      <c r="J6" s="116"/>
+      <c r="K6" s="116">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="117"/>
-      <c r="M6" s="232">
+      <c r="L6" s="116"/>
+      <c r="M6" s="218">
         <v>0</v>
       </c>
-      <c r="N6" s="233"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="222"/>
-    </row>
-    <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="220"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="224" t="s">
+      <c r="N6" s="219"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="210"/>
+      <c r="R6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="20" customHeight="1" thickBot="1">
+      <c r="B7" s="208"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="259" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="225"/>
-      <c r="G7" s="226">
+      <c r="F7" s="260"/>
+      <c r="G7" s="212">
         <v>0</v>
       </c>
-      <c r="H7" s="226">
+      <c r="H7" s="212">
         <v>0</v>
       </c>
-      <c r="I7" s="226">
+      <c r="I7" s="212">
         <v>0</v>
       </c>
-      <c r="J7" s="226"/>
-      <c r="K7" s="226">
+      <c r="J7" s="212"/>
+      <c r="K7" s="212">
         <v>0</v>
       </c>
-      <c r="L7" s="226"/>
-      <c r="M7" s="227">
+      <c r="L7" s="212"/>
+      <c r="M7" s="213">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N7" s="228"/>
-      <c r="O7" s="235"/>
-      <c r="P7" s="222"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="220"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="201"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="222"/>
-    </row>
-    <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="220"/>
-      <c r="C9" s="187" t="s">
+      <c r="N7" s="214"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="210"/>
+      <c r="R7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="208"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191"/>
+      <c r="P8" s="210"/>
+      <c r="R8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="20" customHeight="1">
+      <c r="B9" s="208"/>
+      <c r="C9" s="179" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="179" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="F9" s="179" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="187" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" s="187" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="187" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="222"/>
-    </row>
-    <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="220"/>
-      <c r="C10" s="221">
+      <c r="G9" s="179" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="210"/>
+      <c r="R9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="20" customHeight="1">
+      <c r="B10" s="208"/>
+      <c r="C10" s="209">
         <v>20</v>
       </c>
-      <c r="D10" s="213" t="s">
+      <c r="D10" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="163">
         <f>G10+G11+G12+I11+I12</f>
         <v>20</v>
       </c>
-      <c r="F10" s="159" t="s">
+      <c r="F10" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="159">
+      <c r="G10" s="158">
         <f>Providers_Survey!E4</f>
         <v>1</v>
       </c>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="201"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="222"/>
-    </row>
-    <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="220"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="117" t="s">
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="210"/>
+    </row>
+    <row r="11" spans="2:18" ht="36" customHeight="1">
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="159">
+      <c r="G11" s="158">
         <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="159">
+      <c r="I11" s="158">
         <f>Providers_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="J11" s="201"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="222"/>
-    </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="220"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="260">
+      <c r="J11" s="192"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="210"/>
+    </row>
+    <row r="12" spans="2:18" ht="25" customHeight="1">
+      <c r="B12" s="208"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="244">
         <f>I11+I12</f>
         <v>9</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="260">
+      <c r="H12" s="116"/>
+      <c r="I12" s="244">
         <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
       </c>
-      <c r="J12" s="201"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="222"/>
-    </row>
-    <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="220"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="222"/>
-    </row>
-    <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="220"/>
-      <c r="C14" s="221">
+      <c r="J12" s="192"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="210"/>
+    </row>
+    <row r="13" spans="2:18" ht="10" customHeight="1">
+      <c r="B13" s="208"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="191"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="210"/>
+    </row>
+    <row r="14" spans="2:18" ht="20" customHeight="1">
+      <c r="B14" s="208"/>
+      <c r="C14" s="209">
         <v>6</v>
       </c>
-      <c r="D14" s="213" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="162">
+      <c r="D14" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="163">
         <f>G14+G15+I14+I15+K15</f>
         <v>6</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="159">
+      <c r="G14" s="158">
         <f>Providers_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="159">
+      <c r="I14" s="158">
         <f>Providers_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="222"/>
-    </row>
-    <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="220"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="260">
+      <c r="J14" s="191"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="210"/>
+    </row>
+    <row r="15" spans="2:18" ht="34" customHeight="1">
+      <c r="B15" s="208"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="244">
         <f>I14+I15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="260">
+      <c r="H15" s="116"/>
+      <c r="I15" s="244">
         <f>K15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="143" t="s">
+      <c r="J15" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="159">
+      <c r="K15" s="158">
         <f>Providers_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="222"/>
-    </row>
-    <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="220"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="200"/>
-      <c r="P16" s="222"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="210"/>
+    </row>
+    <row r="16" spans="2:18" ht="10" customHeight="1">
+      <c r="B16" s="208"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="210"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="220"/>
-      <c r="C17" s="221">
+      <c r="B17" s="208"/>
+      <c r="C17" s="209">
         <v>8</v>
       </c>
-      <c r="D17" s="213" t="s">
+      <c r="D17" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="162">
+      <c r="E17" s="163">
         <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="223" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="159">
+      <c r="G17" s="158">
         <f>Providers_Survey!E13+Providers_Survey!E14+Providers_Survey!E15+Providers_Survey!E16+Providers_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="222"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="210"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="220"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="147" t="s">
+      <c r="B18" s="208"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="159">
+      <c r="G18" s="158">
         <f>Providers_Survey!E18+Providers_Survey!E19</f>
         <v>1</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="222"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="210"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="220"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="254">
+      <c r="B19" s="208"/>
+      <c r="C19" s="209"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="238">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="238" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="147">
+      <c r="H19" s="224" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="146">
         <f>Providers_Survey!E20+Providers_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J19" s="144" t="s">
+      <c r="J19" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="117" t="s">
+      <c r="K19" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="L19" s="116"/>
+      <c r="M19" s="158">
+        <f>Providers_Survey!E22</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="210"/>
+    </row>
+    <row r="20" spans="2:16" ht="20" customHeight="1">
+      <c r="B20" s="208"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="L19" s="117"/>
-      <c r="M19" s="159">
-        <f>Providers_Survey!E22</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="222"/>
-    </row>
-    <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="220"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="255"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="117"/>
-      <c r="M20" s="159">
+      <c r="L20" s="116"/>
+      <c r="M20" s="158">
         <f>Providers_Survey!E23</f>
         <v>1</v>
       </c>
-      <c r="N20" s="200"/>
-      <c r="O20" s="200"/>
-      <c r="P20" s="222"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="210"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="220"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="259"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="222"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="243"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="210"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="220"/>
-      <c r="C22" s="221">
+      <c r="B22" s="208"/>
+      <c r="C22" s="209">
         <v>9</v>
       </c>
-      <c r="D22" s="213" t="s">
+      <c r="D22" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="163">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>9</v>
       </c>
-      <c r="F22" s="147" t="s">
+      <c r="F22" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="159">
+      <c r="G22" s="158">
         <f>Providers_Survey!E24</f>
         <v>1</v>
       </c>
-      <c r="H22" s="146" t="s">
+      <c r="H22" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="159">
+      <c r="I22" s="158">
         <f>Providers_Survey!E25</f>
         <v>1</v>
       </c>
-      <c r="J22" s="201"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="222"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="210"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="220"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="254">
+      <c r="B23" s="208"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="238">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
-      <c r="H23" s="146" t="s">
+      <c r="H23" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="159">
+      <c r="I23" s="158">
         <f>Providers_Survey!E26</f>
         <v>1</v>
       </c>
-      <c r="J23" s="201"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="222"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="210"/>
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="220"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="146" t="s">
+      <c r="B24" s="208"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="159">
+      <c r="I24" s="158">
         <f>Providers_Survey!E27</f>
         <v>1</v>
       </c>
-      <c r="J24" s="201"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="200"/>
-      <c r="M24" s="200"/>
-      <c r="N24" s="200"/>
-      <c r="O24" s="200"/>
-      <c r="P24" s="222"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="210"/>
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="220"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="255"/>
-      <c r="H25" s="146" t="s">
+      <c r="B25" s="208"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="239"/>
+      <c r="H25" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="159">
+      <c r="I25" s="158">
         <f>Providers_Survey!E28</f>
         <v>1</v>
       </c>
-      <c r="J25" s="201"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="200"/>
-      <c r="M25" s="200"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="222"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="210"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="220"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="222"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="210"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="220"/>
-      <c r="C27" s="239">
-        <v>6.6</v>
-      </c>
-      <c r="D27" s="239" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="240">
+      <c r="B27" s="208"/>
+      <c r="C27" s="225">
+        <v>8</v>
+      </c>
+      <c r="D27" s="225" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="226">
         <f>G10+G17+G22+I24+I25+M7</f>
         <v>8</v>
       </c>
-      <c r="F27" s="241"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="222"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="192"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="210"/>
     </row>
     <row r="28" spans="2:16" ht="16" thickBot="1">
-      <c r="B28" s="242"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
-      <c r="K28" s="243"/>
-      <c r="L28" s="243"/>
-      <c r="M28" s="243"/>
-      <c r="N28" s="243"/>
-      <c r="O28" s="243"/>
-      <c r="P28" s="245"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="229"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="229"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="229"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -8518,135 +7975,135 @@
     <mergeCell ref="H14:H15"/>
   </mergeCells>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="166" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="164" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="162" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="160" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="158" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="156" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="154" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="152" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="148" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="146" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="144" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="142" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="140" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="138" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="136" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>$C$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8665,7 +8122,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8673,588 +8130,588 @@
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="98.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="186"/>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="186"/>
-      <c r="B2" s="184" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="186"/>
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="178"/>
+      <c r="B2" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="186"/>
-      <c r="B3" s="185" t="s">
+      <c r="A3" s="178"/>
+      <c r="B3" s="177" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="185" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="185" t="s">
+      <c r="D3" s="177" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="178"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="178"/>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="185" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="186"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="186"/>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="130">
+      <c r="E4" s="125">
         <f>IF(D4="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="186"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="186"/>
-      <c r="B5" s="4">
+      <c r="G4" s="178"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A5" s="178"/>
+      <c r="B5" s="78">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="130">
+      <c r="C5" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="125">
         <f>IF(D5="YES",0.25,0)</f>
         <v>0.25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="186"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="186"/>
-      <c r="B6" s="4">
+      <c r="G5" s="178"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A6" s="178"/>
+      <c r="B6" s="78">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="130">
+      <c r="C6" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="125">
         <f t="shared" ref="E6:E8" si="1">IF(D6="YES",0.25,0)</f>
         <v>0.25</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="186"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="186"/>
-      <c r="B7" s="4">
+      <c r="G6" s="178"/>
+    </row>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="178"/>
+      <c r="B7" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="130">
+      <c r="C7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="125">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="186"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="186"/>
-      <c r="B8" s="4">
+      <c r="G7" s="178"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="178"/>
+      <c r="B8" s="78">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="130">
+      <c r="C8" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="125">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="186"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="186"/>
-      <c r="B9" s="4">
+      <c r="G8" s="178"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="178"/>
+      <c r="B9" s="78">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="130">
+      <c r="C9" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="125">
         <f>IF(D9="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="186"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="186"/>
-      <c r="B10" s="4">
+      <c r="G9" s="178"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="178"/>
+      <c r="B10" s="78">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="130">
+      <c r="C10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="125">
         <f>IF(D10="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="186"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="186"/>
-      <c r="B11" s="4">
+      <c r="G10" s="178"/>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="178"/>
+      <c r="B11" s="78">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="130">
+      <c r="C11" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="125">
         <f>IF(D11="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="186"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="186"/>
-      <c r="B12" s="4">
+      <c r="G11" s="178"/>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="178"/>
+      <c r="B12" s="78">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="130">
+      <c r="C12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="125">
         <f>IF(D12="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="186"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="186"/>
-      <c r="B13" s="4">
+      <c r="G12" s="178"/>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="178"/>
+      <c r="B13" s="78">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="130">
+      <c r="C13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="125">
         <f>IF(D13="YES",0.2,0)</f>
         <v>0.2</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="186"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="186"/>
-      <c r="B14" s="4">
+      <c r="F13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="178"/>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="178"/>
+      <c r="B14" s="78">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="130">
+      <c r="C14" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="125">
         <f t="shared" ref="E14:E18" si="2">IF(D14="YES",0.2,0)</f>
         <v>0.2</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="186"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="186"/>
-      <c r="B15" s="4">
+      <c r="F14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="178"/>
+    </row>
+    <row r="15" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="178"/>
+      <c r="B15" s="78">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="130">
+      <c r="C15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="125">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="186"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="186"/>
-      <c r="B16" s="4">
+      <c r="F15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="178"/>
+    </row>
+    <row r="16" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="178"/>
+      <c r="B16" s="78">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="130">
+      <c r="C16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="125">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="186"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="186"/>
-      <c r="B17" s="4">
+      <c r="F16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="178"/>
+    </row>
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A17" s="178"/>
+      <c r="B17" s="78">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="130">
+      <c r="C17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="125">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="186"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="186"/>
-      <c r="B18" s="4">
+      <c r="F17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="178"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="78">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="130">
+      <c r="C18" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="125">
         <f>IF(D18="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="186"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="186"/>
-      <c r="B19" s="4">
+      <c r="G18" s="178"/>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="178"/>
+      <c r="B19" s="78">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="130">
+      <c r="C19" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="125">
         <f t="shared" ref="E19:E21" si="3">IF(D19="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="186"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="186"/>
-      <c r="B20" s="4">
+      <c r="G19" s="178"/>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="78">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="130">
+      <c r="C20" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="125">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="186"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="186"/>
-      <c r="B21" s="4">
+      <c r="F20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="178"/>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A21" s="178"/>
+      <c r="B21" s="78">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="130">
+      <c r="C21" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="125">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="186"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="186"/>
-      <c r="B22" s="4">
+      <c r="F21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="178"/>
+    </row>
+    <row r="22" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="78">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="130">
+      <c r="C22" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="125">
         <f>IF(D22="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="186"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="186"/>
-      <c r="B23" s="4">
+      <c r="F22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="178"/>
+    </row>
+    <row r="23" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="178"/>
+      <c r="B23" s="78">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="130">
+      <c r="C23" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="125">
         <f>IF(D23="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="186"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="186"/>
-      <c r="B24" s="4">
+      <c r="F23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="178"/>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A24" s="178"/>
+      <c r="B24" s="78">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="130">
+      <c r="C24" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="125">
         <f>IF(D24="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="186"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="186"/>
-      <c r="B25" s="4">
+      <c r="G24" s="178"/>
+    </row>
+    <row r="25" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A25" s="178"/>
+      <c r="B25" s="78">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="130">
+      <c r="C25" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="125">
         <f>IF(D25="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="186"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="186"/>
-      <c r="B26" s="4">
+      <c r="G25" s="178"/>
+    </row>
+    <row r="26" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A26" s="178"/>
+      <c r="B26" s="78">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="130">
+      <c r="C26" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="125">
         <f>IF(D26="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="186"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="186"/>
-      <c r="B27" s="4">
+      <c r="G26" s="178"/>
+    </row>
+    <row r="27" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A27" s="178"/>
+      <c r="B27" s="78">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="130">
+      <c r="C27" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="125">
         <f>IF(D27="NO",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="186"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="186"/>
-      <c r="B28" s="4">
+      <c r="G27" s="178"/>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A28" s="178"/>
+      <c r="B28" s="78">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="130">
+      <c r="C28" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="125">
         <f>IF(D28="YES",1,0)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="186"/>
+      <c r="G28" s="178"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="186"/>
+      <c r="A29" s="178"/>
       <c r="F29"/>
-      <c r="G29" s="186"/>
+      <c r="G29" s="178"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="F31"/>
@@ -9305,90 +8762,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="16" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4" ht="26" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="35"/>
     </row>
     <row r="8" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="1:4" ht="26" customHeight="1" thickBot="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9423,198 +8880,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="38"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="80" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="36"/>
+      <c r="D3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="79" t="s">
+      <c r="E4" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="2:8" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="B5" s="37"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="91" t="s">
+      <c r="G5" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="20" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="36"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="2:8" ht="20" customHeight="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="2:8" ht="20" customHeight="1">
-      <c r="B8" s="36"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93" t="s">
+      <c r="D8" s="91"/>
+      <c r="E8" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="2:8" ht="20" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="85" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="36"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="2:8" ht="20" customHeight="1">
-      <c r="B10" s="36"/>
-      <c r="C10" s="79" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93" t="s">
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" ht="20" customHeight="1">
-      <c r="B11" s="36"/>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="2:8" ht="20" customHeight="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="87" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93" t="s">
+      <c r="D12" s="91"/>
+      <c r="E12" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="92"/>
+      <c r="G12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="36"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="2:8" ht="20" customHeight="1">
-      <c r="B13" s="36"/>
-      <c r="C13" s="85" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="2:8" ht="23" customHeight="1">
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="C15" s="47"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9657,14 +9114,14 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="49"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="49"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -9703,155 +9160,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9872,7 +9329,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9894,433 +9351,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="27"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="38"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96" t="s">
+      <c r="H4" s="95"/>
+      <c r="I4" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="97" t="s">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="36"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="99" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="36"/>
+      <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="96" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96" t="s">
+      <c r="H6" s="95"/>
+      <c r="I6" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="97" t="s">
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="36"/>
+      <c r="M6" s="35"/>
     </row>
     <row r="7" spans="1:15" ht="30">
-      <c r="A7" s="36"/>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="101" t="s">
+      <c r="E7" s="97"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="101" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="36"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="85" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96" t="s">
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="97" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="36"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="30">
-      <c r="A9" s="36"/>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98" t="s">
+      <c r="G9" s="97"/>
+      <c r="H9" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98" t="s">
+      <c r="I9" s="97"/>
+      <c r="J9" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="36"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="30" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="85" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96" t="s">
+      <c r="I10" s="95"/>
+      <c r="J10" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="36"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:15" ht="30">
-      <c r="A11" s="36"/>
-      <c r="B11" s="79" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="36"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="30">
-      <c r="A12" s="36"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97" t="s">
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="36"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:15" ht="37" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="159" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98" t="s">
+      <c r="J13" s="97"/>
+      <c r="K13" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="98" t="s">
+      <c r="L13" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="85" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="36"/>
-      <c r="O14" s="27"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="35"/>
+      <c r="O14" s="26"/>
     </row>
     <row r="15" spans="1:15" ht="30" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="159" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="101" t="s">
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="O15" s="27"/>
+      <c r="M15" s="35"/>
+      <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15" ht="30">
-      <c r="A16" s="36"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="97" t="s">
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="100" t="s">
+      <c r="J16" s="95"/>
+      <c r="K16" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="96"/>
-      <c r="M16" s="36"/>
-      <c r="O16" s="27"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="35"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" spans="1:15" ht="30" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="159" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="101" t="s">
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="O17" s="27"/>
+      <c r="M17" s="35"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="30" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="104" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="O18" s="27"/>
+      <c r="M18" s="35"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10363,9 +9820,9 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="3" t="s">
         <v>100</v>
       </c>
@@ -10375,7 +9832,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="28" customHeight="1">
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -10385,122 +9842,122 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="H9" s="48" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="H9" s="47" t="s">
         <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="76"/>
+      <c r="J9" s="75"/>
     </row>
     <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="48"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="H10" s="48"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="76"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="H11" s="48"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="75"/>
     </row>
     <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="48"/>
-      <c r="C12" s="45" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="45" t="s">
+      <c r="F12" s="75"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="76"/>
+      <c r="J12" s="75"/>
     </row>
     <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="H13" s="48" t="s">
+      <c r="F13" s="75"/>
+      <c r="H13" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="76"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="48"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="76"/>
-      <c r="H14" s="48"/>
+      <c r="F14" s="75"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="76"/>
+      <c r="J14" s="75"/>
     </row>
     <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="76"/>
-      <c r="H15" s="48"/>
+      <c r="F15" s="75"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="76"/>
+      <c r="J15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10539,22 +9996,22 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="76" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="76" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10597,51 +10054,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="36" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="36" customHeight="1">
+      <c r="B3" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="36" customHeight="1">
+      <c r="B4" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="36" customHeight="1">
-      <c r="B3" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="36" customHeight="1">
-      <c r="B4" s="46" t="s">
+    <row r="5" spans="2:3" ht="36" customHeight="1">
+      <c r="B5" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="36" customHeight="1">
-      <c r="B5" s="46" t="s">
+    <row r="6" spans="2:3" ht="36" customHeight="1">
+      <c r="B6" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="36" customHeight="1">
-      <c r="B6" s="46" t="s">
+    <row r="7" spans="2:3" ht="36" customHeight="1">
+      <c r="B7" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C7" s="104" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="36" customHeight="1">
-      <c r="B7" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="105" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -10671,7 +10128,7 @@
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="115" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="114" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
@@ -10679,232 +10136,232 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="M2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:13">
       <c r="M3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="20" customHeight="1">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="121">
         <f>E5+E6+E7+G6+G7</f>
         <v>18</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="127">
+      <c r="E5" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="125"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="80" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="127">
-        <v>1</v>
-      </c>
-      <c r="F6" s="80" t="s">
+      <c r="E6" s="126">
+        <v>1</v>
+      </c>
+      <c r="F6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="127">
+      <c r="G6" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="125"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="130">
+      <c r="B7" s="124"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="129">
         <f>G6+G7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="126">
+      <c r="F7" s="79"/>
+      <c r="G7" s="125">
         <f>E9+E10+E12+E13+E14</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="122" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="122">
+      <c r="B9" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="121">
         <f>E9+E10+G9+G10+I10</f>
         <v>5</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="127">
-        <v>1</v>
-      </c>
-      <c r="F9" s="80" t="s">
+      <c r="E9" s="126">
+        <v>1</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="129">
+      <c r="G9" s="128">
         <v>1</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="2:13" ht="38" customHeight="1">
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="126">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="125">
         <f>G9:G10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="126">
+      <c r="F10" s="79"/>
+      <c r="G10" s="125">
         <f>I10</f>
         <v>1</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="127">
+      <c r="I10" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="20" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="121">
         <f>E12+E13+E14+G13+G14+G15</f>
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="36" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="80" t="s">
+      <c r="B13" s="124"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="154">
-        <v>1</v>
-      </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="153"/>
+      <c r="E13" s="153">
+        <v>1</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="152"/>
     </row>
     <row r="14" spans="2:13" ht="25" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="110">
+      <c r="B14" s="124"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="109">
         <f>G13+G14+G15</f>
         <v>3</v>
       </c>
-      <c r="F14" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="151">
-        <v>1</v>
-      </c>
-      <c r="H14" s="84" t="s">
+      <c r="F14" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="150">
+        <v>1</v>
+      </c>
+      <c r="H14" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="83">
         <f>K14+K15</f>
         <v>2</v>
       </c>
-      <c r="J14" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="128">
+      <c r="J14" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="25" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="126">
+      <c r="B15" s="124"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="125">
         <f>I14</f>
         <v>2</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="128">
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="127">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="20" customHeight="1">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="124">
         <f>E18+E17</f>
         <v>5</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="127">
-        <v>1</v>
-      </c>
-      <c r="F17" s="116" t="s">
+      <c r="E17" s="126">
+        <v>1</v>
+      </c>
+      <c r="F17" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="127">
+      <c r="G17" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="122">
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="121">
         <f>G17+G18+G19+G20</f>
         <v>4</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="127">
+      <c r="G18" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20" customHeight="1">
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="116" t="s">
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="127">
+      <c r="G19" s="126">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20" customHeight="1">
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="116" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="127">
+      <c r="G20" s="126">
         <v>1</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="-820" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="Model V1" sheetId="18" r:id="rId10"/>
     <sheet name="Model_User_View" sheetId="20" r:id="rId11"/>
     <sheet name="Users_Survey" sheetId="21" r:id="rId12"/>
-    <sheet name="Model_Provider_View" sheetId="12" r:id="rId13"/>
-    <sheet name="Providers_Survey" sheetId="19" r:id="rId14"/>
+    <sheet name="Users_Survey BK" sheetId="23" r:id="rId13"/>
+    <sheet name="Model_Provider_View" sheetId="12" r:id="rId14"/>
+    <sheet name="Providers_Survey" sheetId="19" r:id="rId15"/>
+    <sheet name="Providers_Survey BK" sheetId="24" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="203">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -589,9 +591,6 @@
     <t>Did you authenticate yourself in order to use the service?</t>
   </si>
   <si>
-    <t>Does the provider makes effort to guarantee availability to the service 24/7/365?</t>
-  </si>
-  <si>
     <t>Is the service able to exchange data or information with other e-services of same or different type?</t>
   </si>
   <si>
@@ -673,18 +672,12 @@
     <t>E-Service Product Quality</t>
   </si>
   <si>
-    <t>Are the Algorithms related to service'S functionality improved or optimized?</t>
-  </si>
-  <si>
     <t>Does service provider have an up to date incident control?</t>
   </si>
   <si>
     <t>Does provider protect the interests and privacy of its service users?</t>
   </si>
   <si>
-    <t>Does service takes care of the confidentiality of user information?</t>
-  </si>
-  <si>
     <t>Survey to be answered by the e-service provider</t>
   </si>
   <si>
@@ -697,9 +690,6 @@
     <t>Does provider take necessary corrective actions for any wrong doing by the service?</t>
   </si>
   <si>
-    <t>Does service provider assume responsibility for any problems caused by serivce interactions with external third parties?</t>
-  </si>
-  <si>
     <t>Does provider collect metrics related to the quality of its services and the problems related to it?</t>
   </si>
   <si>
@@ -749,6 +739,18 @@
   </si>
   <si>
     <t>Answer YES/NO/NA</t>
+  </si>
+  <si>
+    <t>Does service take care of the confidentiality of user information?</t>
+  </si>
+  <si>
+    <t>Does the provider make effort to guarantee availability to the service 24/7/365?</t>
+  </si>
+  <si>
+    <t>Are the Algorithms related to service's functionality improved and optimized?</t>
+  </si>
+  <si>
+    <t>Does service provider take responsibility for any problems caused by serivce interactions with external third parties?</t>
   </si>
 </sst>
 </file>
@@ -5776,7 +5778,7 @@
   <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+      <selection activeCell="E22" sqref="E22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5819,10 +5821,10 @@
     <row r="3" spans="2:18" ht="22" customHeight="1">
       <c r="B3" s="189"/>
       <c r="C3" s="255" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="248" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" s="249"/>
       <c r="F3" s="247"/>
@@ -5847,7 +5849,7 @@
       </c>
       <c r="N3" s="184"/>
       <c r="O3" s="172" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P3" s="190"/>
     </row>
@@ -5855,10 +5857,10 @@
       <c r="B4" s="189"/>
       <c r="C4" s="256"/>
       <c r="D4" s="200" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E4" s="246" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F4" s="247"/>
       <c r="G4" s="203" t="s">
@@ -5880,7 +5882,7 @@
       <c r="O4" s="173"/>
       <c r="P4" s="190"/>
       <c r="R4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="20" customHeight="1">
@@ -5952,7 +5954,7 @@
       <c r="O6" s="167"/>
       <c r="P6" s="190"/>
       <c r="R6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="20" customHeight="1" thickBot="1">
@@ -6011,19 +6013,19 @@
     <row r="9" spans="2:18" ht="20" customHeight="1">
       <c r="B9" s="189"/>
       <c r="C9" s="179" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="E9" s="179" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="F9" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="179" t="s">
-        <v>173</v>
-      </c>
       <c r="G9" s="179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="191"/>
       <c r="I9" s="191"/>
@@ -6461,7 +6463,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="181" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="174">
         <f>G10+G17+M7+G22+I24+I25</f>
@@ -6730,7 +6732,7 @@
     <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="178"/>
       <c r="B2" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -6747,13 +6749,13 @@
         <v>132</v>
       </c>
       <c r="D3" s="177" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E3" s="177" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="178"/>
     </row>
@@ -6766,7 +6768,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="125">
         <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
@@ -6784,10 +6786,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="125">
         <f t="shared" si="0"/>
@@ -6808,7 +6810,7 @@
         <v>145</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="125">
         <f t="shared" si="0"/>
@@ -6829,7 +6831,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="125">
         <f>IF(D7="YES",0.5,0)</f>
@@ -6847,7 +6849,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D8" s="78" t="s">
         <v>144</v>
@@ -6871,7 +6873,7 @@
         <v>137</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="125">
         <f>IF(D9="YES",1,0)</f>
@@ -6892,7 +6894,7 @@
         <v>136</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="125">
         <f>IF(D10="YES",1,0)</f>
@@ -6913,7 +6915,7 @@
         <v>147</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="125">
         <f>IF(D11="YES",1,0)</f>
@@ -6931,7 +6933,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" s="78" t="s">
         <v>144</v>
@@ -6952,10 +6954,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="125">
         <f>IF(D13="YES",1,0)</f>
@@ -6976,7 +6978,7 @@
         <v>138</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="125">
         <f>IF(D14="YES",0.5,0)</f>
@@ -6997,7 +6999,7 @@
         <v>134</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="125">
         <f>IF(D15="YES",0.5,0)</f>
@@ -7018,7 +7020,7 @@
         <v>140</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="125">
         <f>IF(D16="YES",1,0)</f>
@@ -7039,7 +7041,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="125">
         <f>IF(D17="YES",1,0)</f>
@@ -7057,10 +7059,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="125">
         <f>IF(D18="YES",1,0)</f>
@@ -7081,7 +7083,7 @@
         <v>148</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="125">
         <f>IF(D19="YES",1,0)</f>
@@ -7102,7 +7104,7 @@
         <v>141</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="125">
         <f>IF(D20="YES",1,0)</f>
@@ -7191,10 +7193,497 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="178"/>
+      <c r="B2" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:7" ht="38" customHeight="1">
+      <c r="A3" s="178"/>
+      <c r="B3" s="125" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="178"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="178"/>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="125">
+        <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="178"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="178"/>
+      <c r="B5" s="78">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="125">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="178"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="178"/>
+      <c r="B6" s="78">
+        <f t="shared" ref="B6:B22" si="1">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="125">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="178"/>
+    </row>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="178"/>
+      <c r="B7" s="78">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="125">
+        <f>IF(D7="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="178"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="178"/>
+      <c r="B8" s="78">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="125">
+        <f>IF(D8="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="178"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="178"/>
+      <c r="B9" s="78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="125">
+        <f>IF(D9="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="178"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="178"/>
+      <c r="B10" s="78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="125">
+        <f>IF(D10="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="178"/>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="178"/>
+      <c r="B11" s="78">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="125">
+        <f>IF(D11="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="178"/>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="178"/>
+      <c r="B12" s="78">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="125">
+        <f>IF(D12="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="178"/>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="178"/>
+      <c r="B13" s="78">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="125">
+        <f>IF(D13="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="178"/>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="178"/>
+      <c r="B14" s="78">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="262" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="125">
+        <f>IF(D14="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="178"/>
+    </row>
+    <row r="15" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="178"/>
+      <c r="B15" s="78">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="125">
+        <f>IF(D15="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="178"/>
+    </row>
+    <row r="16" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="178"/>
+      <c r="B16" s="78">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="125">
+        <f>IF(D16="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="178"/>
+    </row>
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="178"/>
+      <c r="B17" s="78">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="125">
+        <f>IF(D17="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="178"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="78">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="125">
+        <f>IF(D18="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="178"/>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="178"/>
+      <c r="B19" s="78">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="125">
+        <f>IF(D19="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="178"/>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="78">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="125">
+        <f>IF(D20="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="178"/>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="178"/>
+      <c r="B21" s="78">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="125">
+        <f>IF(D21="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="178"/>
+    </row>
+    <row r="22" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="78">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="125">
+        <f>IF(D22="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="178"/>
+    </row>
+    <row r="23" spans="1:7" ht="5" customHeight="1">
+      <c r="A23" s="178"/>
+      <c r="G23" s="178"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G24"/>
+    <mergeCell ref="A24:F24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7237,10 +7726,10 @@
     <row r="3" spans="2:18" ht="22" customHeight="1">
       <c r="B3" s="208"/>
       <c r="C3" s="172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" s="248" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" s="249"/>
       <c r="F3" s="247"/>
@@ -7265,7 +7754,7 @@
       </c>
       <c r="N3" s="199"/>
       <c r="O3" s="232" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P3" s="210"/>
     </row>
@@ -7273,10 +7762,10 @@
       <c r="B4" s="208"/>
       <c r="C4" s="173"/>
       <c r="D4" s="200" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="246" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F4" s="247"/>
       <c r="G4" s="203" t="s">
@@ -7298,7 +7787,7 @@
       <c r="O4" s="233"/>
       <c r="P4" s="210"/>
       <c r="R4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="20" customHeight="1">
@@ -7308,7 +7797,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="259" t="s">
         <v>7</v>
@@ -7371,7 +7860,7 @@
       <c r="O6" s="215"/>
       <c r="P6" s="210"/>
       <c r="R6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="20" customHeight="1" thickBot="1">
@@ -7430,19 +7919,19 @@
     <row r="9" spans="2:18" ht="20" customHeight="1">
       <c r="B9" s="208"/>
       <c r="C9" s="179" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="E9" s="179" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="F9" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="179" t="s">
-        <v>173</v>
-      </c>
       <c r="G9" s="179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="191"/>
       <c r="I9" s="191"/>
@@ -7880,7 +8369,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="226">
         <f>G10+G17+G22+I24+I25+M7</f>
@@ -8117,19 +8606,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -8148,7 +8637,7 @@
     <row r="2" spans="1:7" ht="24" customHeight="1">
       <c r="A2" s="178"/>
       <c r="B2" s="176" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" s="176"/>
       <c r="D2" s="176"/>
@@ -8165,13 +8654,13 @@
         <v>132</v>
       </c>
       <c r="D3" s="177" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E3" s="177" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="178"/>
     </row>
@@ -8181,10 +8670,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" s="125">
         <f>IF(D4="YES",1,0)</f>
@@ -8202,10 +8691,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="125">
         <f>IF(D5="YES",0.25,0)</f>
@@ -8223,10 +8712,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="125">
         <f t="shared" ref="E6:E8" si="1">IF(D6="YES",0.25,0)</f>
@@ -8244,10 +8733,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="125">
         <f t="shared" si="1"/>
@@ -8265,10 +8754,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="125">
         <f t="shared" si="1"/>
@@ -8286,10 +8775,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="125">
         <f>IF(D9="YES",1,0)</f>
@@ -8307,10 +8796,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="125">
         <f>IF(D10="YES",1,0)</f>
@@ -8328,10 +8817,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" s="125">
         <f>IF(D11="YES",1,0)</f>
@@ -8349,10 +8838,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="125">
         <f>IF(D12="YES",1,0)</f>
@@ -8370,10 +8859,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="125">
         <f>IF(D13="YES",0.2,0)</f>
@@ -8391,10 +8880,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" s="125">
         <f t="shared" ref="E14:E18" si="2">IF(D14="YES",0.2,0)</f>
@@ -8412,10 +8901,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" s="125">
         <f t="shared" si="2"/>
@@ -8433,10 +8922,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="125">
         <f t="shared" si="2"/>
@@ -8454,10 +8943,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" s="125">
         <f t="shared" si="2"/>
@@ -8475,10 +8964,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" s="125">
         <f>IF(D18="YES",0.5,0)</f>
@@ -8496,10 +8985,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" s="125">
         <f t="shared" ref="E19:E21" si="3">IF(D19="YES",0.5,0)</f>
@@ -8517,10 +9006,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" s="125">
         <f t="shared" si="3"/>
@@ -8538,10 +9027,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" s="125">
         <f t="shared" si="3"/>
@@ -8559,10 +9048,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="125">
         <f>IF(D22="YES",1,0)</f>
@@ -8580,10 +9069,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" s="125">
         <f>IF(D23="YES",1,0)</f>
@@ -8601,10 +9090,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" s="125">
         <f>IF(D24="YES",1,0)</f>
@@ -8622,10 +9111,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="125">
         <f>IF(D25="YES",1,0)</f>
@@ -8643,10 +9132,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="125">
         <f>IF(D26="YES",1,0)</f>
@@ -8664,7 +9153,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D27" s="78" t="s">
         <v>144</v>
@@ -8685,10 +9174,10 @@
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E28" s="125">
         <f>IF(D28="YES",1,0)</f>
@@ -8739,6 +9228,633 @@
   <ignoredErrors>
     <ignoredError sqref="E4:E26 E28" emptyCellReference="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:7" ht="24" customHeight="1">
+      <c r="A2" s="178"/>
+      <c r="B2" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="178"/>
+      <c r="B3" s="177" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="177" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="177" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="178"/>
+    </row>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="178"/>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="125">
+        <f>IF(D4="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="178"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A5" s="178"/>
+      <c r="B5" s="78">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="125">
+        <f>IF(D5="YES",0.25,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="178"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A6" s="178"/>
+      <c r="B6" s="78">
+        <f t="shared" ref="B6:B28" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="125">
+        <f t="shared" ref="E6:E8" si="1">IF(D6="YES",0.25,0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="178"/>
+    </row>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="178"/>
+      <c r="B7" s="78">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="125">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="178"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="178"/>
+      <c r="B8" s="78">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="125">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="178"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="178"/>
+      <c r="B9" s="78">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="125">
+        <f>IF(D9="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="178"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="178"/>
+      <c r="B10" s="78">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="125">
+        <f>IF(D10="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="178"/>
+    </row>
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="178"/>
+      <c r="B11" s="78">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="125">
+        <f>IF(D11="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="178"/>
+    </row>
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="178"/>
+      <c r="B12" s="78">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="125">
+        <f>IF(D12="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="178"/>
+    </row>
+    <row r="13" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="178"/>
+      <c r="B13" s="78">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="125">
+        <f>IF(D13="YES",0.2,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="178"/>
+    </row>
+    <row r="14" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="178"/>
+      <c r="B14" s="78">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="125">
+        <f t="shared" ref="E14:E17" si="2">IF(D14="YES",0.2,0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="178"/>
+    </row>
+    <row r="15" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="178"/>
+      <c r="B15" s="78">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="125">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="178"/>
+    </row>
+    <row r="16" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="178"/>
+      <c r="B16" s="78">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="125">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="178"/>
+    </row>
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A17" s="178"/>
+      <c r="B17" s="78">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="125">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="178"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="78">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="125">
+        <f>IF(D18="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="178"/>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="178"/>
+      <c r="B19" s="78">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="125">
+        <f t="shared" ref="E19:E21" si="3">IF(D19="YES",0.5,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="178"/>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="178"/>
+      <c r="B20" s="78">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="125">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="178"/>
+    </row>
+    <row r="21" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A21" s="178"/>
+      <c r="B21" s="78">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="125">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="178"/>
+    </row>
+    <row r="22" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="178"/>
+      <c r="B22" s="78">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="125">
+        <f>IF(D22="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="178"/>
+    </row>
+    <row r="23" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="178"/>
+      <c r="B23" s="78">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="125">
+        <f>IF(D23="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="178"/>
+    </row>
+    <row r="24" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A24" s="178"/>
+      <c r="B24" s="78">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="125">
+        <f>IF(D24="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="178"/>
+    </row>
+    <row r="25" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A25" s="178"/>
+      <c r="B25" s="78">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="125">
+        <f>IF(D25="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="178"/>
+    </row>
+    <row r="26" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A26" s="178"/>
+      <c r="B26" s="78">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="125">
+        <f>IF(D26="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="178"/>
+    </row>
+    <row r="27" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A27" s="178"/>
+      <c r="B27" s="78">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="125">
+        <f>IF(D27="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="178"/>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" ht="17" customHeight="1">
+      <c r="A28" s="178"/>
+      <c r="B28" s="78">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="125">
+        <f>IF(D28="YES",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="178"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
+      <c r="A29" s="178"/>
+      <c r="F29"/>
+      <c r="G29" s="178"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1">
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1">
+      <c r="C32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="6:7" s="1" customFormat="1">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:G30"/>
+    <mergeCell ref="A30:F30"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9368,7 +10484,7 @@
     <row r="2" spans="1:15" ht="22" customHeight="1">
       <c r="A2" s="35"/>
       <c r="B2" s="83" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>26</v>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" activeTab="1"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="25360" windowHeight="15280" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="227">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -804,6 +804,27 @@
   </si>
   <si>
     <t>H4.6.4</t>
+  </si>
+  <si>
+    <t>Was the service interrupted when you were using it (not because Internet connection)?</t>
+  </si>
+  <si>
+    <t>Do you consider the e-service as useful?</t>
+  </si>
+  <si>
+    <t>Do you consider the service functionality as reliable?</t>
+  </si>
+  <si>
+    <t>Was the graphic interface comprehensive?</t>
+  </si>
+  <si>
+    <t>Were you informed on how to contact provider in case needing help?</t>
+  </si>
+  <si>
+    <t>Was the service provider responsive?</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1458,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="368">
+  <cellStyleXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1798,6 +1819,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2594,7 +2617,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="368">
+  <cellStyles count="370">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2778,6 +2801,7 @@
     <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2961,6 +2985,7 @@
     <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="359" builtinId="5"/>
   </cellStyles>
@@ -5156,7 +5181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -5209,12 +5234,12 @@
       <c r="F3" s="223"/>
       <c r="G3" s="224">
         <f>E10/4</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H3" s="224"/>
       <c r="I3" s="224">
         <f>E14/2</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="224"/>
       <c r="K3" s="224">
@@ -5224,7 +5249,7 @@
       <c r="L3" s="224"/>
       <c r="M3" s="225">
         <f>E22/3</f>
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N3" s="226"/>
       <c r="O3" s="227" t="s">
@@ -5268,7 +5293,7 @@
       <c r="B5" s="134"/>
       <c r="C5" s="263">
         <f>(G5+K5+G6+K6+M7+I5)/O5</f>
-        <v>1</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="D5" s="215" t="s">
         <v>121</v>
@@ -5279,12 +5304,12 @@
       <c r="F5" s="208"/>
       <c r="G5" s="168">
         <f>G3</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H5" s="168"/>
       <c r="I5" s="209">
         <f>I3</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="209"/>
       <c r="K5" s="168">
@@ -5297,7 +5322,6 @@
       </c>
       <c r="N5" s="219"/>
       <c r="O5" s="205">
-        <f>(G5+K5+G6+K6+M7+I5)</f>
         <v>20</v>
       </c>
       <c r="P5" s="135"/>
@@ -5312,7 +5336,7 @@
       <c r="F6" s="208"/>
       <c r="G6" s="209">
         <f>G3</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="H6" s="209" t="str">
         <f>$D$9</f>
@@ -5361,7 +5385,7 @@
       <c r="L7" s="210"/>
       <c r="M7" s="190">
         <f>M3</f>
-        <v>3</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N7" s="220"/>
       <c r="O7" s="206"/>
@@ -5430,7 +5454,7 @@
       </c>
       <c r="E10" s="176">
         <f>G10+G11+G12+I11+I12</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>27</v>
@@ -5459,7 +5483,7 @@
       </c>
       <c r="G11" s="156">
         <f>Users_Survey!E6+Users_Survey!E7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="168" t="s">
         <v>29</v>
@@ -5484,12 +5508,12 @@
       <c r="F12" s="168"/>
       <c r="G12" s="157">
         <f>I11+I12</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="168"/>
       <c r="I12" s="157">
         <f>G14+G15+G17+G18+G19</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="137"/>
       <c r="K12" s="136"/>
@@ -5526,7 +5550,7 @@
       </c>
       <c r="E14" s="176">
         <f>G14+G15+I14+I15+K15</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="168" t="s">
         <v>30</v>
@@ -5540,7 +5564,7 @@
       </c>
       <c r="I14" s="156">
         <f>Users_Survey!E10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="136"/>
       <c r="K14" s="136"/>
@@ -5558,19 +5582,19 @@
       <c r="F15" s="168"/>
       <c r="G15" s="157">
         <f>I14+I15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="168"/>
       <c r="I15" s="157">
         <f>K15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="74" t="s">
         <v>32</v>
       </c>
       <c r="K15" s="156">
         <f>Users_Survey!E11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="136"/>
       <c r="M15" s="136"/>
@@ -5633,7 +5657,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="156">
-        <f>Users_Survey!E13</f>
+        <f>Users_Survey!E13+Users_Survey!E14</f>
         <v>1</v>
       </c>
       <c r="H18" s="86"/>
@@ -5660,7 +5684,7 @@
         <v>125</v>
       </c>
       <c r="I19" s="193">
-        <f>Users_Survey!E14+Users_Survey!E15</f>
+        <f>Users_Survey!E15+Users_Survey!E16</f>
         <v>1</v>
       </c>
       <c r="J19" s="181" t="s">
@@ -5671,7 +5695,7 @@
       </c>
       <c r="L19" s="168"/>
       <c r="M19" s="156">
-        <f>Users_Survey!E16</f>
+        <f>Users_Survey!E17</f>
         <v>1</v>
       </c>
       <c r="N19" s="136"/>
@@ -5693,7 +5717,7 @@
       </c>
       <c r="L20" s="168"/>
       <c r="M20" s="156">
-        <f>Users_Survey!E17</f>
+        <f>Users_Survey!E18</f>
         <v>1</v>
       </c>
       <c r="N20" s="136"/>
@@ -5727,20 +5751,20 @@
       </c>
       <c r="E22" s="176">
         <f>G23+G22+I22+I23+I24+I25</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="182" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="156">
-        <f>Users_Survey!E18</f>
+        <f>Users_Survey!E19</f>
         <v>1</v>
       </c>
       <c r="H22" s="106" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="156">
-        <f>Users_Survey!E19</f>
+        <f>Users_Survey!E20</f>
         <v>1</v>
       </c>
       <c r="J22" s="137"/>
@@ -5759,14 +5783,14 @@
       <c r="F23" s="183"/>
       <c r="G23" s="200">
         <f>I22+I23+I24+I25</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="106" t="s">
         <v>39</v>
       </c>
       <c r="I23" s="156">
-        <f>Users_Survey!E20</f>
-        <v>1</v>
+        <f>Users_Survey!E21</f>
+        <v>0</v>
       </c>
       <c r="J23" s="137"/>
       <c r="K23" s="136"/>
@@ -5787,7 +5811,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="156">
-        <f>Users_Survey!E21</f>
+        <f>Users_Survey!E22</f>
         <v>1</v>
       </c>
       <c r="J24" s="137"/>
@@ -5809,7 +5833,7 @@
         <v>41</v>
       </c>
       <c r="I25" s="156">
-        <f>Users_Survey!E22</f>
+        <f>Users_Survey!E23</f>
         <v>1</v>
       </c>
       <c r="J25" s="137"/>
@@ -5847,7 +5871,7 @@
       </c>
       <c r="E27" s="191">
         <f>G10+G17+M7+G22+I24+I25</f>
-        <v>8</v>
+        <v>7.3333333333333339</v>
       </c>
       <c r="F27" s="192"/>
       <c r="G27" s="136"/>
@@ -6086,7 +6110,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6142,13 +6166,13 @@
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="230"/>
-      <c r="B4" s="70">
+      <c r="B4" s="71">
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="107">
@@ -6162,14 +6186,14 @@
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="230"/>
-      <c r="B5" s="70">
+      <c r="B5" s="71">
         <f>B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E5" s="107">
@@ -6183,19 +6207,19 @@
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="230"/>
-      <c r="B6" s="70">
-        <f t="shared" ref="B6:B22" si="1">B5+1</f>
+      <c r="B6" s="71">
+        <f t="shared" ref="B6:B23" si="1">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>166</v>
+      <c r="C6" s="160" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="E6" s="107">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>28</v>
@@ -6204,19 +6228,17 @@
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="230"/>
-      <c r="B7" s="70">
+      <c r="B7" s="71">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>166</v>
-      </c>
+      <c r="C7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="71"/>
       <c r="E7" s="107">
         <f>IF(D7="YES",0.5,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>28</v>
@@ -6225,14 +6247,14 @@
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="230"/>
-      <c r="B8" s="70">
+      <c r="B8" s="71">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>143</v>
       </c>
       <c r="E8" s="107">
@@ -6246,14 +6268,14 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="230"/>
-      <c r="B9" s="70">
+      <c r="B9" s="71">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E9" s="107">
@@ -6267,19 +6289,17 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="230"/>
-      <c r="B10" s="70">
+      <c r="B10" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="70" t="s">
-        <v>166</v>
-      </c>
+      <c r="D10" s="71"/>
       <c r="E10" s="107">
         <f>IF(D10="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>31</v>
@@ -6288,19 +6308,17 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="230"/>
-      <c r="B11" s="70">
+      <c r="B11" s="71">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>166</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D11" s="71"/>
       <c r="E11" s="107">
         <f>IF(D11="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>32</v>
@@ -6309,14 +6327,14 @@
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="230"/>
-      <c r="B12" s="70">
+      <c r="B12" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="71" t="s">
         <v>143</v>
       </c>
       <c r="E12" s="107">
@@ -6330,19 +6348,19 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="230"/>
-      <c r="B13" s="70">
+      <c r="B13" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="70" t="s">
+      <c r="C13" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E13" s="107">
-        <f>IF(D13="YES",1,0)</f>
-        <v>1</v>
+        <f>IF(D13="YES",0.5,0)</f>
+        <v>0.5</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>34</v>
@@ -6351,35 +6369,35 @@
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="230"/>
-      <c r="B14" s="70">
+      <c r="B14" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="161" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>166</v>
+      <c r="C14" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>226</v>
       </c>
       <c r="E14" s="107">
-        <f>IF(D14="YES",0.5,0)</f>
+        <f>IF(D14="NO",0,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="G14" s="230"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="230"/>
-      <c r="B15" s="70">
+      <c r="B15" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="70" t="s">
+      <c r="C15" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E15" s="107">
@@ -6393,35 +6411,35 @@
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="230"/>
-      <c r="B16" s="70">
+      <c r="B16" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E16" s="107">
-        <f>IF(D16="YES",1,0)</f>
-        <v>1</v>
+        <f>IF(D16="YES",0.5,0)</f>
+        <v>0.5</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G16" s="230"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="230"/>
-      <c r="B17" s="70">
+      <c r="B17" s="71">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E17" s="107">
@@ -6429,20 +6447,20 @@
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="230"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="230"/>
-      <c r="B18" s="70">
+      <c r="B18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E18" s="107">
@@ -6450,41 +6468,41 @@
         <v>1</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="G18" s="230"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="230"/>
-      <c r="B19" s="70">
+      <c r="B19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>166</v>
+        <v>184</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>143</v>
       </c>
       <c r="E19" s="107">
-        <f>IF(D19="YES",1,0)</f>
+        <f>IF(D19="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="230"/>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="230"/>
-      <c r="B20" s="70">
+      <c r="B20" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="71" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="107">
@@ -6492,41 +6510,39 @@
         <v>1</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="230"/>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="230"/>
-      <c r="B21" s="70">
+      <c r="B21" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D21" s="71"/>
       <c r="E21" s="107">
-        <f>IF(D21="NO",1,0)</f>
-        <v>1</v>
+        <f>IF(D21="YES",1,0)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="230"/>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="230"/>
-      <c r="B22" s="70">
+      <c r="B22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="71" t="s">
         <v>143</v>
       </c>
       <c r="E22" s="107">
@@ -6534,12 +6550,29 @@
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="230"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1">
+      <c r="A23" s="230"/>
+      <c r="B23" s="71">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="107">
+        <f>IF(D23="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="230"/>
-    </row>
-    <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="230"/>
       <c r="G23" s="230"/>
     </row>
     <row r="24" spans="1:7">
@@ -6561,10 +6594,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="E4:E11 E13:E18 E19:E22" emptyCellReference="1"/>
-    <ignoredError sqref="E12" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9250,7 +9279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="25360" windowHeight="15280" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="25360" windowHeight="14820" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2267,321 +2267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="23" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="24" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="23" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="24" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2589,32 +2274,347 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="23" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="24" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="23" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="24" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="370">
@@ -4051,15 +4051,15 @@
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1">
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="177" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="31"/>
@@ -4083,7 +4083,7 @@
       <c r="G3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="166"/>
+      <c r="H3" s="178"/>
       <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" s="16" customFormat="1" ht="21" customHeight="1">
@@ -4171,14 +4171,14 @@
       <c r="I8" s="31"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="164"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="176"/>
       <c r="H12" s="102" t="s">
         <v>11</v>
       </c>
@@ -4397,10 +4397,10 @@
       </c>
     </row>
     <row r="5" spans="2:13" ht="20" customHeight="1">
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="176">
+      <c r="C5" s="195">
         <f>E5+E6+E7+G6+G7</f>
         <v>18</v>
       </c>
@@ -4412,15 +4412,15 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="179"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="168" t="s">
+      <c r="B6" s="181"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="189" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="108">
         <v>1</v>
       </c>
-      <c r="F6" s="168" t="s">
+      <c r="F6" s="189" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="108">
@@ -4428,34 +4428,34 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="179"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="168"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="111">
         <f>G6+G7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="168"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="107">
         <f>E9+E10+E12+E13+E14</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="176">
+      <c r="B9" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="195">
         <f>E9+E10+G9+G10+I10</f>
         <v>5</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="189" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="108">
         <v>1</v>
       </c>
-      <c r="F9" s="168" t="s">
+      <c r="F9" s="189" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="110">
@@ -4464,14 +4464,14 @@
       <c r="H9"/>
     </row>
     <row r="10" spans="2:13" ht="38" customHeight="1">
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="168"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="107">
         <f>G9:G10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="168"/>
+      <c r="F10" s="189"/>
       <c r="G10" s="107">
         <f>I10</f>
         <v>1</v>
@@ -4484,10 +4484,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="20" customHeight="1">
-      <c r="B12" s="179" t="s">
+      <c r="B12" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="176">
+      <c r="C12" s="195">
         <f>E12+E13+E14+G13+G14+G15</f>
         <v>8</v>
       </c>
@@ -4499,9 +4499,9 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="36" customHeight="1">
-      <c r="B13" s="179"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="168" t="s">
+      <c r="B13" s="181"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="189" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="123">
@@ -4511,23 +4511,23 @@
       <c r="G13" s="122"/>
     </row>
     <row r="14" spans="2:13" ht="25" customHeight="1">
-      <c r="B14" s="179"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="165">
+      <c r="B14" s="181"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="177">
         <f>G13+G14+G15</f>
         <v>3</v>
       </c>
-      <c r="F14" s="180" t="s">
+      <c r="F14" s="198" t="s">
         <v>125</v>
       </c>
       <c r="G14" s="121">
         <v>1</v>
       </c>
-      <c r="H14" s="171" t="s">
+      <c r="H14" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="171">
+      <c r="I14" s="192">
         <f>K14+K15</f>
         <v>2</v>
       </c>
@@ -4539,17 +4539,17 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="25" customHeight="1">
-      <c r="B15" s="179"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="171"/>
+      <c r="B15" s="181"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="192"/>
       <c r="G15" s="107">
         <f>I14</f>
         <v>2</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
       <c r="J15" s="106" t="s">
         <v>124</v>
       </c>
@@ -4558,14 +4558,14 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="20" customHeight="1">
-      <c r="B17" s="179" t="s">
+      <c r="B17" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="181">
         <f>E18+E17</f>
         <v>5</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="189" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="108">
@@ -4579,10 +4579,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="20" customHeight="1">
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="176">
+      <c r="B18" s="181"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="195">
         <f>G17+G18+G19+G20</f>
         <v>4</v>
       </c>
@@ -4594,10 +4594,10 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="20" customHeight="1">
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="177"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="105" t="s">
         <v>40</v>
       </c>
@@ -4606,10 +4606,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="20" customHeight="1">
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="178"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="197"/>
       <c r="F20" s="105" t="s">
         <v>41</v>
       </c>
@@ -4619,6 +4619,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D6:D7"/>
@@ -4631,13 +4638,6 @@
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="199" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -4727,7 +4727,7 @@
         <f>SUM(D3:G3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="186">
+      <c r="I3" s="201">
         <f>SUM(H3:H5)</f>
         <v>17.166666666666668</v>
       </c>
@@ -4737,7 +4737,7 @@
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="185"/>
+      <c r="B4" s="200"/>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
@@ -4759,14 +4759,14 @@
         <f>SUM(D4:G4)</f>
         <v>6.5</v>
       </c>
-      <c r="I4" s="187"/>
+      <c r="I4" s="202"/>
       <c r="J4" s="2"/>
       <c r="V4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="180"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
@@ -4787,7 +4787,7 @@
         <f>SUM(D5:G5)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I5" s="188"/>
+      <c r="I5" s="203"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:22">
@@ -4797,7 +4797,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="204" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -4822,13 +4822,13 @@
         <f>SUM(D7:G7)</f>
         <v>8.1666666666666661</v>
       </c>
-      <c r="I7" s="190">
+      <c r="I7" s="205">
         <f>SUM(H7:H9)</f>
         <v>18.833333333333332</v>
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="189"/>
+      <c r="B8" s="204"/>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
@@ -4851,10 +4851,10 @@
         <f t="shared" ref="H8:H9" si="0">SUM(D8:G8)</f>
         <v>9</v>
       </c>
-      <c r="I8" s="190"/>
+      <c r="I8" s="205"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="189"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="4" t="s">
         <v>86</v>
       </c>
@@ -4875,7 +4875,7 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="I9" s="190"/>
+      <c r="I9" s="205"/>
     </row>
     <row r="10" spans="2:22" ht="4" customHeight="1"/>
     <row r="11" spans="2:22">
@@ -4903,10 +4903,10 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="20" customHeight="1">
-      <c r="K13" s="179" t="s">
+      <c r="K13" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="176">
+      <c r="L13" s="195">
         <f>N13+N14+N15+P14+P15</f>
         <v>18</v>
       </c>
@@ -4918,15 +4918,15 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="36" customHeight="1">
-      <c r="K14" s="179"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="168" t="s">
+      <c r="K14" s="181"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="189" t="s">
         <v>28</v>
       </c>
       <c r="N14" s="108">
         <v>1</v>
       </c>
-      <c r="O14" s="168" t="s">
+      <c r="O14" s="189" t="s">
         <v>29</v>
       </c>
       <c r="P14" s="108">
@@ -4934,14 +4934,14 @@
       </c>
     </row>
     <row r="15" spans="2:22" ht="25" customHeight="1">
-      <c r="K15" s="179"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="168"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="189"/>
       <c r="N15" s="107">
         <f>P14+P15</f>
         <v>8</v>
       </c>
-      <c r="O15" s="168"/>
+      <c r="O15" s="189"/>
       <c r="P15" s="107">
         <f>N17+N18+N20+N21+N22</f>
         <v>7</v>
@@ -4954,20 +4954,20 @@
       </c>
     </row>
     <row r="17" spans="11:20">
-      <c r="K17" s="176" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="176">
+      <c r="K17" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="195">
         <f>N17+N18+P17+P18+R18</f>
         <v>5</v>
       </c>
-      <c r="M17" s="168" t="s">
+      <c r="M17" s="189" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="108">
         <v>1</v>
       </c>
-      <c r="O17" s="168" t="s">
+      <c r="O17" s="189" t="s">
         <v>31</v>
       </c>
       <c r="P17" s="110">
@@ -4976,14 +4976,14 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="11:20" ht="34" customHeight="1">
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="168"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="189"/>
       <c r="N18" s="107">
         <f>P17:P18</f>
         <v>1</v>
       </c>
-      <c r="O18" s="168"/>
+      <c r="O18" s="189"/>
       <c r="P18" s="107">
         <f>R18</f>
         <v>1</v>
@@ -5002,10 +5002,10 @@
       </c>
     </row>
     <row r="20" spans="11:20" ht="20" customHeight="1">
-      <c r="K20" s="176" t="s">
+      <c r="K20" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="176">
+      <c r="L20" s="195">
         <f>N20+N21+N22+P22+P23</f>
         <v>8</v>
       </c>
@@ -5017,9 +5017,9 @@
       </c>
     </row>
     <row r="21" spans="11:20" ht="20" customHeight="1">
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="182" t="s">
+      <c r="K21" s="196"/>
+      <c r="L21" s="196"/>
+      <c r="M21" s="206" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="120">
@@ -5029,23 +5029,23 @@
       <c r="P21" s="122"/>
     </row>
     <row r="22" spans="11:20" ht="20" customHeight="1">
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="165">
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="177">
         <f>P22+P23</f>
         <v>3</v>
       </c>
-      <c r="O22" s="185" t="s">
+      <c r="O22" s="200" t="s">
         <v>125</v>
       </c>
       <c r="P22" s="121">
         <v>1</v>
       </c>
-      <c r="Q22" s="181" t="s">
+      <c r="Q22" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="R22" s="181">
+      <c r="R22" s="199">
         <f>T22+T23</f>
         <v>2</v>
       </c>
@@ -5057,17 +5057,17 @@
       </c>
     </row>
     <row r="23" spans="11:20" ht="20" customHeight="1">
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="180"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="208"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="198"/>
       <c r="P23" s="107">
         <f>R22</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="180"/>
+      <c r="Q23" s="198"/>
+      <c r="R23" s="198"/>
       <c r="S23" s="106" t="s">
         <v>124</v>
       </c>
@@ -5082,14 +5082,14 @@
       </c>
     </row>
     <row r="25" spans="11:20" ht="20" customHeight="1">
-      <c r="K25" s="176" t="s">
+      <c r="K25" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="176">
+      <c r="L25" s="195">
         <f>N26+N25</f>
         <v>5</v>
       </c>
-      <c r="M25" s="182" t="s">
+      <c r="M25" s="206" t="s">
         <v>37</v>
       </c>
       <c r="N25" s="108">
@@ -5103,10 +5103,10 @@
       </c>
     </row>
     <row r="26" spans="11:20" ht="20" customHeight="1">
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="176">
+      <c r="K26" s="196"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="195">
         <f>P25+P26+P27+P28</f>
         <v>4</v>
       </c>
@@ -5118,10 +5118,10 @@
       </c>
     </row>
     <row r="27" spans="11:20" ht="20" customHeight="1">
-      <c r="K27" s="177"/>
-      <c r="L27" s="177"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="177"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="196"/>
       <c r="O27" s="105" t="s">
         <v>40</v>
       </c>
@@ -5130,10 +5130,10 @@
       </c>
     </row>
     <row r="28" spans="11:20" ht="20" customHeight="1">
-      <c r="K28" s="178"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="178"/>
+      <c r="K28" s="197"/>
+      <c r="L28" s="197"/>
+      <c r="M28" s="208"/>
+      <c r="N28" s="197"/>
       <c r="O28" s="105" t="s">
         <v>41</v>
       </c>
@@ -5143,18 +5143,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="L13:L15"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="K25:K28"/>
     <mergeCell ref="L25:L28"/>
@@ -5166,6 +5154,18 @@
     <mergeCell ref="N22:N23"/>
     <mergeCell ref="O22:O23"/>
     <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="K13:K15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5224,66 +5224,66 @@
     </row>
     <row r="3" spans="2:18" ht="22" customHeight="1">
       <c r="B3" s="134"/>
-      <c r="C3" s="195" t="s">
+      <c r="C3" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="214" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="224">
+      <c r="E3" s="215"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="216">
         <f>E10/4</f>
         <v>3.75</v>
       </c>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224">
+      <c r="H3" s="216"/>
+      <c r="I3" s="216">
         <f>E14/2</f>
         <v>0.5</v>
       </c>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224">
+      <c r="J3" s="216"/>
+      <c r="K3" s="216">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="225">
+      <c r="L3" s="216"/>
+      <c r="M3" s="217">
         <f>E22/3</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="N3" s="226"/>
-      <c r="O3" s="227" t="s">
+      <c r="N3" s="218"/>
+      <c r="O3" s="209" t="s">
         <v>196</v>
       </c>
       <c r="P3" s="135"/>
     </row>
     <row r="4" spans="2:18" ht="22" customHeight="1">
       <c r="B4" s="134"/>
-      <c r="C4" s="196"/>
+      <c r="C4" s="238"/>
       <c r="D4" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="211" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="199" t="s">
+      <c r="F4" s="212"/>
+      <c r="G4" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199" t="s">
+      <c r="H4" s="213"/>
+      <c r="I4" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="199"/>
-      <c r="M4" s="213" t="s">
+      <c r="L4" s="213"/>
+      <c r="M4" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="214"/>
-      <c r="O4" s="228"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="210"/>
       <c r="P4" s="135"/>
       <c r="R4" t="s">
         <v>188</v>
@@ -5291,71 +5291,71 @@
     </row>
     <row r="5" spans="2:18" ht="20" customHeight="1">
       <c r="B5" s="134"/>
-      <c r="C5" s="263">
+      <c r="C5" s="235">
         <f>(G5+K5+G6+K6+M7+I5)/O5</f>
         <v>0.71666666666666667</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="221" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="207" t="s">
+      <c r="E5" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="208"/>
-      <c r="G5" s="168">
+      <c r="F5" s="225"/>
+      <c r="G5" s="189">
         <f>G3</f>
         <v>3.75</v>
       </c>
-      <c r="H5" s="168"/>
-      <c r="I5" s="209">
+      <c r="H5" s="189"/>
+      <c r="I5" s="226">
         <f>I3</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="209"/>
-      <c r="K5" s="168">
+      <c r="J5" s="226"/>
+      <c r="K5" s="189">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="168"/>
-      <c r="M5" s="218">
+      <c r="L5" s="189"/>
+      <c r="M5" s="227">
         <v>0</v>
       </c>
-      <c r="N5" s="219"/>
-      <c r="O5" s="205">
+      <c r="N5" s="228"/>
+      <c r="O5" s="230">
         <v>20</v>
       </c>
       <c r="P5" s="135"/>
     </row>
     <row r="6" spans="2:18" ht="20" customHeight="1">
       <c r="B6" s="134"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="207" t="s">
+      <c r="C6" s="235"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="208"/>
-      <c r="G6" s="209">
+      <c r="F6" s="225"/>
+      <c r="G6" s="226">
         <f>G3</f>
         <v>3.75</v>
       </c>
-      <c r="H6" s="209" t="str">
+      <c r="H6" s="226" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="210">
+      <c r="I6" s="232">
         <v>0</v>
       </c>
-      <c r="J6" s="210"/>
-      <c r="K6" s="168">
+      <c r="J6" s="232"/>
+      <c r="K6" s="189">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="168"/>
-      <c r="M6" s="211">
+      <c r="L6" s="189"/>
+      <c r="M6" s="233">
         <v>0</v>
       </c>
-      <c r="N6" s="212"/>
-      <c r="O6" s="205"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="230"/>
       <c r="P6" s="135"/>
       <c r="R6" t="s">
         <v>191</v>
@@ -5363,32 +5363,32 @@
     </row>
     <row r="7" spans="2:18" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="134"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="207" t="s">
+      <c r="C7" s="236"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="208"/>
-      <c r="G7" s="210">
+      <c r="F7" s="225"/>
+      <c r="G7" s="232">
         <v>0</v>
       </c>
-      <c r="H7" s="210">
+      <c r="H7" s="232">
         <v>0</v>
       </c>
-      <c r="I7" s="210">
+      <c r="I7" s="232">
         <v>0</v>
       </c>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210">
+      <c r="J7" s="232"/>
+      <c r="K7" s="232">
         <v>0</v>
       </c>
-      <c r="L7" s="210"/>
-      <c r="M7" s="190">
+      <c r="L7" s="232"/>
+      <c r="M7" s="205">
         <f>M3</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="N7" s="220"/>
-      <c r="O7" s="206"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="231"/>
       <c r="P7" s="135"/>
       <c r="R7">
         <v>2</v>
@@ -5446,13 +5446,13 @@
     </row>
     <row r="10" spans="2:18" ht="20" customHeight="1">
       <c r="B10" s="134"/>
-      <c r="C10" s="176">
+      <c r="C10" s="195">
         <v>20</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="176">
+      <c r="E10" s="195">
         <f>G10+G11+G12+I11+I12</f>
         <v>15</v>
       </c>
@@ -5475,17 +5475,17 @@
     </row>
     <row r="11" spans="2:18" ht="36" customHeight="1">
       <c r="B11" s="134"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="168" t="s">
+      <c r="C11" s="196"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="189" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="156">
         <f>Users_Survey!E6+Users_Survey!E7</f>
         <v>0</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="H11" s="189" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="156">
@@ -5502,15 +5502,15 @@
     </row>
     <row r="12" spans="2:18" ht="25" customHeight="1">
       <c r="B12" s="134"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="168"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="189"/>
       <c r="G12" s="157">
         <f>I11+I12</f>
         <v>7</v>
       </c>
-      <c r="H12" s="168"/>
+      <c r="H12" s="189"/>
       <c r="I12" s="157">
         <f>G14+G15+G17+G18+G19</f>
         <v>6</v>
@@ -5542,24 +5542,24 @@
     </row>
     <row r="14" spans="2:18" ht="20" customHeight="1">
       <c r="B14" s="134"/>
-      <c r="C14" s="176">
+      <c r="C14" s="195">
         <v>6</v>
       </c>
-      <c r="D14" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="176">
+      <c r="D14" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="195">
         <f>G14+G15+I14+I15+K15</f>
         <v>1</v>
       </c>
-      <c r="F14" s="168" t="s">
+      <c r="F14" s="189" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="156">
         <f>Users_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="H14" s="168" t="s">
+      <c r="H14" s="189" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="156">
@@ -5576,15 +5576,15 @@
     </row>
     <row r="15" spans="2:18" ht="34" customHeight="1">
       <c r="B15" s="134"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="168"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="189"/>
       <c r="G15" s="157">
         <f>I14+I15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="168"/>
+      <c r="H15" s="189"/>
       <c r="I15" s="157">
         <f>K15</f>
         <v>0</v>
@@ -5621,13 +5621,13 @@
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
       <c r="B17" s="134"/>
-      <c r="C17" s="176">
+      <c r="C17" s="195">
         <v>8</v>
       </c>
-      <c r="D17" s="197" t="s">
+      <c r="D17" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="176">
+      <c r="E17" s="195">
         <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
       <c r="B18" s="134"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="182" t="s">
+      <c r="C18" s="196"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="206" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="156">
@@ -5672,28 +5672,28 @@
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
       <c r="B19" s="134"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="203">
+      <c r="C19" s="196"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="244">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="185" t="s">
+      <c r="H19" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="193">
+      <c r="I19" s="248">
         <f>Users_Survey!E15+Users_Survey!E16</f>
         <v>1</v>
       </c>
-      <c r="J19" s="181" t="s">
+      <c r="J19" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="168" t="s">
+      <c r="K19" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="168"/>
+      <c r="L19" s="189"/>
       <c r="M19" s="156">
         <f>Users_Survey!E17</f>
         <v>1</v>
@@ -5704,18 +5704,18 @@
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
       <c r="B20" s="134"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="168" t="s">
+      <c r="C20" s="197"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="198"/>
+      <c r="K20" s="189" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="168"/>
+      <c r="L20" s="189"/>
       <c r="M20" s="156">
         <f>Users_Survey!E18</f>
         <v>1</v>
@@ -5743,17 +5743,17 @@
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
       <c r="B22" s="134"/>
-      <c r="C22" s="176">
+      <c r="C22" s="195">
         <v>9</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="176">
+      <c r="E22" s="195">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>7</v>
       </c>
-      <c r="F22" s="182" t="s">
+      <c r="F22" s="206" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="156">
@@ -5777,11 +5777,11 @@
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
       <c r="B23" s="134"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="200">
+      <c r="C23" s="196"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="241">
         <f>I22+I23+I24+I25</f>
         <v>3</v>
       </c>
@@ -5802,11 +5802,11 @@
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
       <c r="B24" s="134"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="201"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="242"/>
       <c r="H24" s="106" t="s">
         <v>40</v>
       </c>
@@ -5824,11 +5824,11 @@
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
       <c r="B25" s="134"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="202"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="243"/>
       <c r="H25" s="106" t="s">
         <v>41</v>
       </c>
@@ -5869,11 +5869,11 @@
       <c r="D27" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="191">
+      <c r="E27" s="246">
         <f>G10+G17+M7+G22+I24+I25</f>
         <v>7.3333333333333339</v>
       </c>
-      <c r="F27" s="192"/>
+      <c r="F27" s="247"/>
       <c r="G27" s="136"/>
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
@@ -5904,34 +5904,18 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="K19:L19"/>
@@ -5948,18 +5932,34 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="I11">
     <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
@@ -6126,27 +6126,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="230"/>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="A1" s="250"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="250"/>
+      <c r="B2" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="230"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="250"/>
     </row>
     <row r="3" spans="1:7" ht="38" customHeight="1">
-      <c r="A3" s="230"/>
+      <c r="A3" s="250"/>
       <c r="B3" s="107" t="s">
         <v>130</v>
       </c>
@@ -6162,10 +6162,10 @@
       <c r="F3" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="250"/>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="230"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="71">
         <v>1</v>
       </c>
@@ -6182,10 +6182,10 @@
       <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="230"/>
+      <c r="G4" s="250"/>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="230"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="71">
         <f>B4+1</f>
         <v>2</v>
@@ -6203,10 +6203,10 @@
       <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="230"/>
+      <c r="G5" s="250"/>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="230"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="71">
         <f t="shared" ref="B6:B23" si="1">B5+1</f>
         <v>3</v>
@@ -6224,10 +6224,10 @@
       <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="230"/>
+      <c r="G6" s="250"/>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="230"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="71">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6243,10 +6243,10 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="230"/>
+      <c r="G7" s="250"/>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="230"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="71">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6264,10 +6264,10 @@
       <c r="F8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="230"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="230"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="71">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6285,10 +6285,10 @@
       <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="230"/>
+      <c r="G9" s="250"/>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="230"/>
+      <c r="A10" s="250"/>
       <c r="B10" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6304,10 +6304,10 @@
       <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="230"/>
+      <c r="G10" s="250"/>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="230"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="71">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6323,10 +6323,10 @@
       <c r="F11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="230"/>
+      <c r="G11" s="250"/>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="230"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6344,10 +6344,10 @@
       <c r="F12" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="230"/>
+      <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="230"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6365,10 +6365,10 @@
       <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="230"/>
+      <c r="G13" s="250"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="230"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6386,10 +6386,10 @@
       <c r="F14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="230"/>
+      <c r="G14" s="250"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="71">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6407,10 +6407,10 @@
       <c r="F15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="230"/>
+      <c r="G15" s="250"/>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="230"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="71">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6428,10 +6428,10 @@
       <c r="F16" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="230"/>
+      <c r="G16" s="250"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="250"/>
       <c r="B17" s="71">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6449,10 +6449,10 @@
       <c r="F17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="230"/>
+      <c r="G17" s="250"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="230"/>
+      <c r="A18" s="250"/>
       <c r="B18" s="71">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6470,10 +6470,10 @@
       <c r="F18" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="230"/>
+      <c r="G18" s="250"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="250"/>
       <c r="B19" s="71">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6491,10 +6491,10 @@
       <c r="F19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="230"/>
+      <c r="G19" s="250"/>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="230"/>
+      <c r="A20" s="250"/>
       <c r="B20" s="71">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6512,10 +6512,10 @@
       <c r="F20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="230"/>
+      <c r="G20" s="250"/>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="230"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="71">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6531,10 +6531,10 @@
       <c r="F21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="230"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="230"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="71">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6552,10 +6552,10 @@
       <c r="F22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="230"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="230"/>
+      <c r="A23" s="250"/>
       <c r="B23" s="71">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6573,16 +6573,16 @@
       <c r="F23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="230"/>
+      <c r="G23" s="250"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="230"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
+      <c r="A24" s="250"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6622,27 +6622,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="230"/>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="A1" s="250"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="179" t="s">
+      <c r="A2" s="250"/>
+      <c r="B2" s="181" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="230"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="250"/>
     </row>
     <row r="3" spans="1:7" ht="38" customHeight="1">
-      <c r="A3" s="230"/>
+      <c r="A3" s="250"/>
       <c r="B3" s="107" t="s">
         <v>130</v>
       </c>
@@ -6658,10 +6658,10 @@
       <c r="F3" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="250"/>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="230"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="70">
         <v>1</v>
       </c>
@@ -6678,10 +6678,10 @@
       <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="230"/>
+      <c r="G4" s="250"/>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="230"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="70">
         <f>B4+1</f>
         <v>2</v>
@@ -6699,10 +6699,10 @@
       <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="230"/>
+      <c r="G5" s="250"/>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="230"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="70">
         <f t="shared" ref="B6:B22" si="1">B5+1</f>
         <v>3</v>
@@ -6720,10 +6720,10 @@
       <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="230"/>
+      <c r="G6" s="250"/>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="230"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6741,10 +6741,10 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="230"/>
+      <c r="G7" s="250"/>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="230"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6762,10 +6762,10 @@
       <c r="F8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="230"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="230"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6783,10 +6783,10 @@
       <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="230"/>
+      <c r="G9" s="250"/>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="230"/>
+      <c r="A10" s="250"/>
       <c r="B10" s="70">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6804,10 +6804,10 @@
       <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="230"/>
+      <c r="G10" s="250"/>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="230"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="70">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6825,10 +6825,10 @@
       <c r="F11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="230"/>
+      <c r="G11" s="250"/>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="230"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="70">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6846,10 +6846,10 @@
       <c r="F12" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="230"/>
+      <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="230"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="70">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6867,10 +6867,10 @@
       <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="230"/>
+      <c r="G13" s="250"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="230"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="70">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6888,10 +6888,10 @@
       <c r="F14" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="230"/>
+      <c r="G14" s="250"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="70">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6909,10 +6909,10 @@
       <c r="F15" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="230"/>
+      <c r="G15" s="250"/>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="230"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="70">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6930,10 +6930,10 @@
       <c r="F16" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="230"/>
+      <c r="G16" s="250"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="250"/>
       <c r="B17" s="70">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6951,10 +6951,10 @@
       <c r="F17" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="230"/>
+      <c r="G17" s="250"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="230"/>
+      <c r="A18" s="250"/>
       <c r="B18" s="70">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6972,10 +6972,10 @@
       <c r="F18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="230"/>
+      <c r="G18" s="250"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="250"/>
       <c r="B19" s="70">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6993,10 +6993,10 @@
       <c r="F19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="230"/>
+      <c r="G19" s="250"/>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="230"/>
+      <c r="A20" s="250"/>
       <c r="B20" s="70">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7014,10 +7014,10 @@
       <c r="F20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="230"/>
+      <c r="G20" s="250"/>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="230"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="70">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7035,10 +7035,10 @@
       <c r="F21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="230"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="230"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="70">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7056,20 +7056,20 @@
       <c r="F22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="230"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="230"/>
-      <c r="G23" s="230"/>
+      <c r="A23" s="250"/>
+      <c r="G23" s="250"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="230"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="230"/>
+      <c r="A24" s="250"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="250"/>
+      <c r="E24" s="250"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7136,66 +7136,66 @@
     </row>
     <row r="3" spans="2:18" ht="22" customHeight="1">
       <c r="B3" s="148"/>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="209" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="214" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="224">
+      <c r="E3" s="215"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="216">
         <f>E10/4</f>
         <v>5</v>
       </c>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224">
+      <c r="H3" s="216"/>
+      <c r="I3" s="216">
         <f>E14/2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224">
+      <c r="J3" s="216"/>
+      <c r="K3" s="216">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="224"/>
-      <c r="M3" s="241">
+      <c r="L3" s="216"/>
+      <c r="M3" s="275">
         <f>E22/3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="242"/>
-      <c r="O3" s="237" t="s">
+      <c r="N3" s="276"/>
+      <c r="O3" s="271" t="s">
         <v>167</v>
       </c>
       <c r="P3" s="149"/>
     </row>
     <row r="4" spans="2:18" ht="22" customHeight="1">
       <c r="B4" s="148"/>
-      <c r="C4" s="228"/>
+      <c r="C4" s="210"/>
       <c r="D4" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="211" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="199" t="s">
+      <c r="F4" s="212"/>
+      <c r="G4" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="199"/>
-      <c r="K4" s="199" t="s">
+      <c r="H4" s="213"/>
+      <c r="I4" s="213" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="199"/>
-      <c r="M4" s="213" t="s">
+      <c r="L4" s="213"/>
+      <c r="M4" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="214"/>
-      <c r="O4" s="238"/>
+      <c r="N4" s="220"/>
+      <c r="O4" s="272"/>
       <c r="P4" s="149"/>
       <c r="R4" t="s">
         <v>189</v>
@@ -7203,37 +7203,37 @@
     </row>
     <row r="5" spans="2:18" ht="20" customHeight="1">
       <c r="B5" s="148"/>
-      <c r="C5" s="265">
+      <c r="C5" s="269">
         <f>(G5+K5+M5+G6+I6+K6+M7)/O5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="255" t="s">
+      <c r="D5" s="257" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="251" t="s">
+      <c r="E5" s="266" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252"/>
-      <c r="G5" s="236">
+      <c r="F5" s="267"/>
+      <c r="G5" s="251">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H5" s="236"/>
-      <c r="I5" s="254">
+      <c r="H5" s="251"/>
+      <c r="I5" s="252">
         <v>0</v>
       </c>
-      <c r="J5" s="254"/>
-      <c r="K5" s="236">
+      <c r="J5" s="252"/>
+      <c r="K5" s="251">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="236"/>
-      <c r="M5" s="258">
+      <c r="L5" s="251"/>
+      <c r="M5" s="253">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N5" s="259"/>
-      <c r="O5" s="239">
+      <c r="N5" s="254"/>
+      <c r="O5" s="273">
         <f>(G5+K5+M5+G6+I6+K6+M7)</f>
         <v>23</v>
       </c>
@@ -7241,35 +7241,35 @@
     </row>
     <row r="6" spans="2:18" ht="20" customHeight="1">
       <c r="B6" s="148"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="251" t="s">
+      <c r="C6" s="269"/>
+      <c r="D6" s="258"/>
+      <c r="E6" s="266" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="252"/>
-      <c r="G6" s="253">
+      <c r="F6" s="267"/>
+      <c r="G6" s="268">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H6" s="253" t="str">
+      <c r="H6" s="268" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="236">
+      <c r="I6" s="251">
         <f>I3</f>
         <v>3</v>
       </c>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236">
+      <c r="J6" s="251"/>
+      <c r="K6" s="251">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="236"/>
-      <c r="M6" s="260">
+      <c r="L6" s="251"/>
+      <c r="M6" s="255">
         <v>0</v>
       </c>
-      <c r="N6" s="261"/>
-      <c r="O6" s="239"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="273"/>
       <c r="P6" s="149"/>
       <c r="R6" t="s">
         <v>190</v>
@@ -7277,32 +7277,32 @@
     </row>
     <row r="7" spans="2:18" ht="20" customHeight="1" thickBot="1">
       <c r="B7" s="148"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="251" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="259"/>
+      <c r="E7" s="266" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="252"/>
-      <c r="G7" s="254">
+      <c r="F7" s="267"/>
+      <c r="G7" s="252">
         <v>0</v>
       </c>
-      <c r="H7" s="254">
+      <c r="H7" s="252">
         <v>0</v>
       </c>
-      <c r="I7" s="254">
+      <c r="I7" s="252">
         <v>0</v>
       </c>
-      <c r="J7" s="254"/>
-      <c r="K7" s="254">
+      <c r="J7" s="252"/>
+      <c r="K7" s="252">
         <v>0</v>
       </c>
-      <c r="L7" s="254"/>
-      <c r="M7" s="258">
+      <c r="L7" s="252"/>
+      <c r="M7" s="253">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N7" s="259"/>
-      <c r="O7" s="240"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="274"/>
       <c r="P7" s="149"/>
       <c r="R7">
         <v>6</v>
@@ -7360,13 +7360,13 @@
     </row>
     <row r="10" spans="2:18" ht="20" customHeight="1">
       <c r="B10" s="148"/>
-      <c r="C10" s="235">
+      <c r="C10" s="282">
         <v>20</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="248">
+      <c r="E10" s="263">
         <f>G10+G11+G12+I11+I12</f>
         <v>20</v>
       </c>
@@ -7389,17 +7389,17 @@
     </row>
     <row r="11" spans="2:18" ht="36" customHeight="1">
       <c r="B11" s="148"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="236" t="s">
+      <c r="C11" s="282"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="251" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="125">
         <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="H11" s="236" t="s">
+      <c r="H11" s="251" t="s">
         <v>29</v>
       </c>
       <c r="I11" s="125">
@@ -7416,15 +7416,15 @@
     </row>
     <row r="12" spans="2:18" ht="25" customHeight="1">
       <c r="B12" s="148"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="250"/>
-      <c r="F12" s="236"/>
+      <c r="C12" s="282"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="251"/>
       <c r="G12" s="159">
         <f>I11+I12</f>
         <v>9</v>
       </c>
-      <c r="H12" s="236"/>
+      <c r="H12" s="251"/>
       <c r="I12" s="159">
         <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
@@ -7456,24 +7456,24 @@
     </row>
     <row r="14" spans="2:18" ht="20" customHeight="1">
       <c r="B14" s="148"/>
-      <c r="C14" s="235">
+      <c r="C14" s="282">
         <v>6</v>
       </c>
-      <c r="D14" s="197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="248">
+      <c r="D14" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="263">
         <f>G14+G15+I14+I15+K15</f>
         <v>6</v>
       </c>
-      <c r="F14" s="236" t="s">
+      <c r="F14" s="251" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="125">
         <f>Providers_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="H14" s="236" t="s">
+      <c r="H14" s="251" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="125">
@@ -7490,15 +7490,15 @@
     </row>
     <row r="15" spans="2:18" ht="34" customHeight="1">
       <c r="B15" s="148"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="236"/>
+      <c r="C15" s="282"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="251"/>
       <c r="G15" s="159">
         <f>I14+I15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="236"/>
+      <c r="H15" s="251"/>
       <c r="I15" s="159">
         <f>K15</f>
         <v>1</v>
@@ -7535,13 +7535,13 @@
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
       <c r="B17" s="148"/>
-      <c r="C17" s="235">
+      <c r="C17" s="282">
         <v>8</v>
       </c>
-      <c r="D17" s="197" t="s">
+      <c r="D17" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="248">
+      <c r="E17" s="263">
         <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
       <c r="B18" s="148"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="233" t="s">
+      <c r="C18" s="282"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="260" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="125">
@@ -7586,28 +7586,28 @@
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
       <c r="B19" s="148"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="249"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="203">
+      <c r="C19" s="282"/>
+      <c r="D19" s="240"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="244">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="243" t="s">
+      <c r="H19" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="233">
+      <c r="I19" s="260">
         <f>Providers_Survey!E20+Providers_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J19" s="245" t="s">
+      <c r="J19" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="236" t="s">
+      <c r="K19" s="251" t="s">
         <v>123</v>
       </c>
-      <c r="L19" s="236"/>
+      <c r="L19" s="251"/>
       <c r="M19" s="125">
         <f>Providers_Survey!E22</f>
         <v>1</v>
@@ -7618,18 +7618,18 @@
     </row>
     <row r="20" spans="2:16" ht="20" customHeight="1">
       <c r="B20" s="148"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="250"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="234"/>
-      <c r="J20" s="244"/>
-      <c r="K20" s="236" t="s">
+      <c r="C20" s="282"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="278"/>
+      <c r="I20" s="262"/>
+      <c r="J20" s="278"/>
+      <c r="K20" s="251" t="s">
         <v>124</v>
       </c>
-      <c r="L20" s="236"/>
+      <c r="L20" s="251"/>
       <c r="M20" s="125">
         <f>Providers_Survey!E23</f>
         <v>1</v>
@@ -7657,17 +7657,17 @@
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
       <c r="B22" s="148"/>
-      <c r="C22" s="235">
+      <c r="C22" s="282">
         <v>9</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="248">
+      <c r="E22" s="263">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>9</v>
       </c>
-      <c r="F22" s="233" t="s">
+      <c r="F22" s="260" t="s">
         <v>37</v>
       </c>
       <c r="G22" s="125">
@@ -7691,11 +7691,11 @@
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
       <c r="B23" s="148"/>
-      <c r="C23" s="235"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="203">
+      <c r="C23" s="282"/>
+      <c r="D23" s="240"/>
+      <c r="E23" s="264"/>
+      <c r="F23" s="261"/>
+      <c r="G23" s="244">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
@@ -7716,11 +7716,11 @@
     </row>
     <row r="24" spans="2:16" ht="20" customHeight="1">
       <c r="B24" s="148"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="246"/>
-      <c r="G24" s="247"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="240"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="261"/>
+      <c r="G24" s="283"/>
       <c r="H24" s="119" t="s">
         <v>40</v>
       </c>
@@ -7738,11 +7738,11 @@
     </row>
     <row r="25" spans="2:16" ht="20" customHeight="1">
       <c r="B25" s="148"/>
-      <c r="C25" s="235"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="204"/>
+      <c r="C25" s="282"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="265"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="245"/>
       <c r="H25" s="119" t="s">
         <v>41</v>
       </c>
@@ -7783,11 +7783,11 @@
       <c r="D27" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="231">
+      <c r="E27" s="280">
         <f>G10+G17+G22+I24+I25+M7</f>
         <v>8</v>
       </c>
-      <c r="F27" s="232"/>
+      <c r="F27" s="281"/>
       <c r="G27" s="136"/>
       <c r="H27" s="136"/>
       <c r="I27" s="136"/>
@@ -7818,14 +7818,38 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="G4:H4"/>
@@ -7842,38 +7866,14 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="G10">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
@@ -8038,27 +8038,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="230"/>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="A1" s="250"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="262" t="s">
+      <c r="A2" s="250"/>
+      <c r="B2" s="284" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="230"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="250"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="230"/>
+      <c r="A3" s="250"/>
       <c r="B3" s="126" t="s">
         <v>130</v>
       </c>
@@ -8074,10 +8074,10 @@
       <c r="F3" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="250"/>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A4" s="230"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="70">
         <v>1</v>
       </c>
@@ -8094,10 +8094,10 @@
       <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="230"/>
+      <c r="G4" s="250"/>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A5" s="230"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="70">
         <f>B4+1</f>
         <v>2</v>
@@ -8115,10 +8115,10 @@
       <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="230"/>
+      <c r="G5" s="250"/>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A6" s="230"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="70">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
@@ -8136,10 +8136,10 @@
       <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="230"/>
+      <c r="G6" s="250"/>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A7" s="230"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="70">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8157,10 +8157,10 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="230"/>
+      <c r="G7" s="250"/>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="230"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="70">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8178,10 +8178,10 @@
       <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="230"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A9" s="230"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="70">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8199,10 +8199,10 @@
       <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="230"/>
+      <c r="G9" s="250"/>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="230"/>
+      <c r="A10" s="250"/>
       <c r="B10" s="70">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8220,10 +8220,10 @@
       <c r="F10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="230"/>
+      <c r="G10" s="250"/>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="230"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="70">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8241,10 +8241,10 @@
       <c r="F11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="230"/>
+      <c r="G11" s="250"/>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="230"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="70">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8262,10 +8262,10 @@
       <c r="F12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="230"/>
+      <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A13" s="230"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="70">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8283,10 +8283,10 @@
       <c r="F13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="230"/>
+      <c r="G13" s="250"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="230"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="70">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8304,10 +8304,10 @@
       <c r="F14" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="230"/>
+      <c r="G14" s="250"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="70">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8325,10 +8325,10 @@
       <c r="F15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="230"/>
+      <c r="G15" s="250"/>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A16" s="230"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="70">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8346,10 +8346,10 @@
       <c r="F16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="230"/>
+      <c r="G16" s="250"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="250"/>
       <c r="B17" s="70">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8367,10 +8367,10 @@
       <c r="F17" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="230"/>
+      <c r="G17" s="250"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="230"/>
+      <c r="A18" s="250"/>
       <c r="B18" s="70">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8388,10 +8388,10 @@
       <c r="F18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="230"/>
+      <c r="G18" s="250"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="250"/>
       <c r="B19" s="70">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8409,10 +8409,10 @@
       <c r="F19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="230"/>
+      <c r="G19" s="250"/>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="230"/>
+      <c r="A20" s="250"/>
       <c r="B20" s="70">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8430,10 +8430,10 @@
       <c r="F20" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="230"/>
+      <c r="G20" s="250"/>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A21" s="230"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="70">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8451,10 +8451,10 @@
       <c r="F21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="230"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A22" s="230"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="70">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8472,10 +8472,10 @@
       <c r="F22" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="230"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A23" s="230"/>
+      <c r="A23" s="250"/>
       <c r="B23" s="70">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8493,10 +8493,10 @@
       <c r="F23" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="230"/>
+      <c r="G23" s="250"/>
     </row>
     <row r="24" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A24" s="230"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="70">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8514,10 +8514,10 @@
       <c r="F24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="230"/>
+      <c r="G24" s="250"/>
     </row>
     <row r="25" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A25" s="230"/>
+      <c r="A25" s="250"/>
       <c r="B25" s="70">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8535,10 +8535,10 @@
       <c r="F25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="230"/>
+      <c r="G25" s="250"/>
     </row>
     <row r="26" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A26" s="230"/>
+      <c r="A26" s="250"/>
       <c r="B26" s="70">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8556,10 +8556,10 @@
       <c r="F26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="230"/>
+      <c r="G26" s="250"/>
     </row>
     <row r="27" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A27" s="230"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="70">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8577,10 +8577,10 @@
       <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="230"/>
+      <c r="G27" s="250"/>
     </row>
     <row r="28" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A28" s="230"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="70">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8598,21 +8598,21 @@
       <c r="F28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="230"/>
+      <c r="G28" s="250"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="230"/>
+      <c r="A29" s="250"/>
       <c r="F29"/>
-      <c r="G29" s="230"/>
+      <c r="G29" s="250"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="230"/>
-      <c r="B30" s="230"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
+      <c r="A30" s="250"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="F31"/>
@@ -8668,27 +8668,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="230"/>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
+      <c r="A1" s="250"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="230"/>
-      <c r="B2" s="262" t="s">
+      <c r="A2" s="250"/>
+      <c r="B2" s="284" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="230"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="250"/>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="230"/>
+      <c r="A3" s="250"/>
       <c r="B3" s="126" t="s">
         <v>130</v>
       </c>
@@ -8704,10 +8704,10 @@
       <c r="F3" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="230"/>
+      <c r="G3" s="250"/>
     </row>
     <row r="4" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A4" s="230"/>
+      <c r="A4" s="250"/>
       <c r="B4" s="70">
         <v>1</v>
       </c>
@@ -8724,10 +8724,10 @@
       <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="230"/>
+      <c r="G4" s="250"/>
     </row>
     <row r="5" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A5" s="230"/>
+      <c r="A5" s="250"/>
       <c r="B5" s="70">
         <f>B4+1</f>
         <v>2</v>
@@ -8745,10 +8745,10 @@
       <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="230"/>
+      <c r="G5" s="250"/>
     </row>
     <row r="6" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A6" s="230"/>
+      <c r="A6" s="250"/>
       <c r="B6" s="70">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
@@ -8766,10 +8766,10 @@
       <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="230"/>
+      <c r="G6" s="250"/>
     </row>
     <row r="7" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A7" s="230"/>
+      <c r="A7" s="250"/>
       <c r="B7" s="70">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8787,10 +8787,10 @@
       <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="230"/>
+      <c r="G7" s="250"/>
     </row>
     <row r="8" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="230"/>
+      <c r="A8" s="250"/>
       <c r="B8" s="70">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8808,10 +8808,10 @@
       <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="230"/>
+      <c r="G8" s="250"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A9" s="230"/>
+      <c r="A9" s="250"/>
       <c r="B9" s="70">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8829,10 +8829,10 @@
       <c r="F9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="230"/>
+      <c r="G9" s="250"/>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="230"/>
+      <c r="A10" s="250"/>
       <c r="B10" s="70">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8850,10 +8850,10 @@
       <c r="F10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="230"/>
+      <c r="G10" s="250"/>
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="230"/>
+      <c r="A11" s="250"/>
       <c r="B11" s="70">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8871,10 +8871,10 @@
       <c r="F11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="230"/>
+      <c r="G11" s="250"/>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="230"/>
+      <c r="A12" s="250"/>
       <c r="B12" s="70">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8892,10 +8892,10 @@
       <c r="F12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="230"/>
+      <c r="G12" s="250"/>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A13" s="230"/>
+      <c r="A13" s="250"/>
       <c r="B13" s="70">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8913,10 +8913,10 @@
       <c r="F13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="230"/>
+      <c r="G13" s="250"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="230"/>
+      <c r="A14" s="250"/>
       <c r="B14" s="70">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8934,10 +8934,10 @@
       <c r="F14" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="230"/>
+      <c r="G14" s="250"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="230"/>
+      <c r="A15" s="250"/>
       <c r="B15" s="70">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8955,10 +8955,10 @@
       <c r="F15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="230"/>
+      <c r="G15" s="250"/>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A16" s="230"/>
+      <c r="A16" s="250"/>
       <c r="B16" s="70">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8976,10 +8976,10 @@
       <c r="F16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="230"/>
+      <c r="G16" s="250"/>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A17" s="230"/>
+      <c r="A17" s="250"/>
       <c r="B17" s="70">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8997,10 +8997,10 @@
       <c r="F17" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="230"/>
+      <c r="G17" s="250"/>
     </row>
     <row r="18" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="230"/>
+      <c r="A18" s="250"/>
       <c r="B18" s="70">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9018,10 +9018,10 @@
       <c r="F18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="230"/>
+      <c r="G18" s="250"/>
     </row>
     <row r="19" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A19" s="230"/>
+      <c r="A19" s="250"/>
       <c r="B19" s="70">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9039,10 +9039,10 @@
       <c r="F19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="230"/>
+      <c r="G19" s="250"/>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="230"/>
+      <c r="A20" s="250"/>
       <c r="B20" s="70">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9060,10 +9060,10 @@
       <c r="F20" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="230"/>
+      <c r="G20" s="250"/>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A21" s="230"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="70">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9081,10 +9081,10 @@
       <c r="F21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="230"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A22" s="230"/>
+      <c r="A22" s="250"/>
       <c r="B22" s="70">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9102,10 +9102,10 @@
       <c r="F22" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="230"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A23" s="230"/>
+      <c r="A23" s="250"/>
       <c r="B23" s="70">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9123,10 +9123,10 @@
       <c r="F23" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="230"/>
+      <c r="G23" s="250"/>
     </row>
     <row r="24" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A24" s="230"/>
+      <c r="A24" s="250"/>
       <c r="B24" s="70">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9144,10 +9144,10 @@
       <c r="F24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="230"/>
+      <c r="G24" s="250"/>
     </row>
     <row r="25" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A25" s="230"/>
+      <c r="A25" s="250"/>
       <c r="B25" s="70">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9165,10 +9165,10 @@
       <c r="F25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="230"/>
+      <c r="G25" s="250"/>
     </row>
     <row r="26" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A26" s="230"/>
+      <c r="A26" s="250"/>
       <c r="B26" s="70">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9186,10 +9186,10 @@
       <c r="F26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="230"/>
+      <c r="G26" s="250"/>
     </row>
     <row r="27" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A27" s="230"/>
+      <c r="A27" s="250"/>
       <c r="B27" s="70">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9207,10 +9207,10 @@
       <c r="F27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="230"/>
+      <c r="G27" s="250"/>
     </row>
     <row r="28" spans="1:7" s="25" customFormat="1" ht="17" customHeight="1">
-      <c r="A28" s="230"/>
+      <c r="A28" s="250"/>
       <c r="B28" s="70">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9228,21 +9228,21 @@
       <c r="F28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="230"/>
+      <c r="G28" s="250"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="230"/>
+      <c r="A29" s="250"/>
       <c r="F29"/>
-      <c r="G29" s="230"/>
+      <c r="G29" s="250"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="230"/>
-      <c r="B30" s="230"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="230"/>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
+      <c r="A30" s="250"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1">
       <c r="F31"/>
@@ -9297,10 +9297,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="172"/>
+      <c r="E2" s="182"/>
       <c r="F2" s="3"/>
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
@@ -9333,7 +9333,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="20" customHeight="1">
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="183" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -9344,24 +9344,24 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="H4" s="282" t="s">
+      <c r="H4" s="183" t="s">
         <v>96</v>
       </c>
       <c r="I4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="283" t="s">
+      <c r="J4" s="180" t="s">
         <v>191</v>
       </c>
       <c r="K4" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="L4" s="179" t="s">
+      <c r="L4" s="181" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="20" customHeight="1">
-      <c r="B5" s="282"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="40" t="s">
         <v>5</v>
       </c>
@@ -9370,15 +9370,15 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="H5" s="282"/>
+      <c r="H5" s="183"/>
       <c r="I5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="283"/>
-      <c r="L5" s="179"/>
+      <c r="J5" s="180"/>
+      <c r="L5" s="181"/>
     </row>
     <row r="6" spans="2:14" ht="20" customHeight="1">
-      <c r="B6" s="282"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="40" t="s">
         <v>6</v>
       </c>
@@ -9387,7 +9387,7 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="68"/>
-      <c r="H6" s="282"/>
+      <c r="H6" s="183"/>
       <c r="I6" s="40" t="s">
         <v>6</v>
       </c>
@@ -9397,7 +9397,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="20" customHeight="1">
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="179" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -9408,16 +9408,16 @@
         <v>10</v>
       </c>
       <c r="F7" s="68"/>
-      <c r="H7" s="173" t="s">
+      <c r="H7" s="179" t="s">
         <v>95</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="283" t="s">
+      <c r="J7" s="180" t="s">
         <v>190</v>
       </c>
-      <c r="L7" s="179" t="s">
+      <c r="L7" s="181" t="s">
         <v>213</v>
       </c>
       <c r="M7" s="107" t="s">
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="20" customHeight="1">
-      <c r="B8" s="173"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="40" t="s">
         <v>8</v>
       </c>
@@ -9434,18 +9434,18 @@
         <v>10</v>
       </c>
       <c r="F8" s="68"/>
-      <c r="H8" s="173"/>
+      <c r="H8" s="179"/>
       <c r="I8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="283"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="L8" s="179"/>
+      <c r="L8" s="181"/>
     </row>
     <row r="9" spans="2:14" ht="20" customHeight="1">
-      <c r="B9" s="173"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="40" t="s">
         <v>86</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="68"/>
-      <c r="H9" s="173"/>
+      <c r="H9" s="179"/>
       <c r="I9" s="40" t="s">
         <v>86</v>
       </c>
@@ -9464,58 +9464,58 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="20" customHeight="1">
-      <c r="I11" s="284" t="s">
+      <c r="I11" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="179" t="s">
+      <c r="J11" s="181" t="s">
         <v>216</v>
       </c>
       <c r="K11" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="L11" s="179" t="s">
+      <c r="L11" s="181" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20" customHeight="1">
-      <c r="I12" s="284" t="s">
+      <c r="I12" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="179"/>
-      <c r="L12" s="179"/>
+      <c r="J12" s="181"/>
+      <c r="L12" s="181"/>
     </row>
     <row r="13" spans="2:14" ht="20" customHeight="1">
-      <c r="I13" s="284" t="s">
+      <c r="I13" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="179" t="s">
+      <c r="M13" s="181" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="20" customHeight="1">
-      <c r="I14" s="284" t="s">
+      <c r="I14" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="L14" s="179" t="s">
+      <c r="L14" s="181" t="s">
         <v>218</v>
       </c>
-      <c r="M14" s="179"/>
+      <c r="M14" s="181"/>
     </row>
     <row r="15" spans="2:14" ht="20" customHeight="1">
-      <c r="I15" s="284" t="s">
+      <c r="I15" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="179"/>
+      <c r="J15" s="181"/>
       <c r="K15" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="L15" s="179"/>
+      <c r="L15" s="181"/>
     </row>
     <row r="16" spans="2:14" ht="20" customHeight="1">
-      <c r="I16" s="284" t="s">
+      <c r="I16" s="173" t="s">
         <v>86</v>
       </c>
       <c r="M16" s="107" t="s">
@@ -9523,14 +9523,14 @@
       </c>
     </row>
     <row r="22" spans="8:14">
-      <c r="H22" s="162" t="s">
+      <c r="H22" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="164"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="176"/>
       <c r="N22" s="102" t="s">
         <v>11</v>
       </c>
@@ -9628,6 +9628,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="J7:J8"/>
@@ -9638,11 +9643,6 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M13:M14"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9710,7 +9710,7 @@
       <c r="L2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="267" t="s">
+      <c r="M2" s="162" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="71" t="s">
@@ -9724,114 +9724,114 @@
       <c r="C3" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
-      <c r="L3" s="268"/>
-      <c r="M3" s="268"/>
-      <c r="N3" s="269"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="270"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="272" t="s">
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="271"/>
-      <c r="J4" s="271"/>
-      <c r="K4" s="271"/>
-      <c r="L4" s="271"/>
-      <c r="M4" s="271"/>
-      <c r="N4" s="273"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="274"/>
-      <c r="D5" s="275"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="275"/>
-      <c r="G5" s="275"/>
-      <c r="H5" s="275"/>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="275"/>
-      <c r="L5" s="275"/>
-      <c r="M5" s="275"/>
-      <c r="N5" s="276"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="170"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
-      <c r="L6" s="271"/>
-      <c r="M6" s="271"/>
-      <c r="N6" s="273"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="167"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="274"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="277" t="s">
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="186" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="278"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="275"/>
-      <c r="M7" s="275"/>
-      <c r="N7" s="276"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="170"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="279"/>
-      <c r="D8" s="280"/>
-      <c r="E8" s="280"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="280"/>
-      <c r="H8" s="280"/>
-      <c r="I8" s="280"/>
-      <c r="J8" s="280"/>
-      <c r="K8" s="272" t="s">
+      <c r="C8" s="171"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="184" t="s">
         <v>207</v>
       </c>
-      <c r="L8" s="281"/>
-      <c r="M8" s="281"/>
-      <c r="N8" s="167"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9992,20 +9992,20 @@
     </row>
     <row r="3" spans="2:8" ht="24" customHeight="1">
       <c r="B3" s="31"/>
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
       <c r="H3" s="31"/>
     </row>
     <row r="4" spans="2:8" ht="27" customHeight="1">
       <c r="B4" s="33"/>
-      <c r="C4" s="168"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="77" t="s">
         <v>0</v>
       </c>
@@ -10272,20 +10272,20 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="31"/>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="169" t="s">
+      <c r="C3" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
       <c r="A4" s="31"/>
-      <c r="B4" s="170"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="48" t="s">
         <v>0</v>
       </c>
@@ -10469,27 +10469,27 @@
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
       <c r="A2" s="31"/>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="192" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
       <c r="M2" s="31"/>
       <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="39" customHeight="1">
       <c r="A3" s="31"/>
-      <c r="B3" s="171"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="74" t="s">
         <v>55</v>
       </c>
@@ -10915,10 +10915,10 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:8">
-      <c r="D7" s="172" t="s">
+      <c r="D7" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="172"/>
+      <c r="E7" s="182"/>
       <c r="F7" s="1"/>
       <c r="G7" s="66"/>
       <c r="H7" s="3"/>
@@ -10933,7 +10933,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="179" t="s">
         <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -10946,7 +10946,7 @@
       <c r="F9" s="68"/>
     </row>
     <row r="10" spans="2:8" ht="18">
-      <c r="B10" s="173"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="F10" s="68"/>
     </row>
     <row r="11" spans="2:8" ht="18">
-      <c r="B11" s="173"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
@@ -10968,8 +10968,8 @@
       <c r="F11" s="68"/>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="173"/>
-      <c r="C12" s="174" t="s">
+      <c r="B12" s="179"/>
+      <c r="C12" s="193" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="68" t="s">
@@ -10981,10 +10981,10 @@
       <c r="F12" s="68"/>
     </row>
     <row r="13" spans="2:8" ht="18" customHeight="1">
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="174"/>
+      <c r="C13" s="193"/>
       <c r="D13" s="68"/>
       <c r="E13" s="68" t="s">
         <v>10</v>
@@ -10992,7 +10992,7 @@
       <c r="F13" s="68"/>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="173"/>
+      <c r="B14" s="179"/>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="F14" s="68"/>
     </row>
     <row r="15" spans="2:8" ht="18">
-      <c r="B15" s="173"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
@@ -11046,7 +11046,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:5" ht="114" customHeight="1">
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="194" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="70" t="s">
@@ -11057,7 +11057,7 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="80" customHeight="1">
-      <c r="C6" s="175"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="70" t="s">
         <v>104</v>
       </c>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="25360" windowHeight="14820" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="25360" windowHeight="14820" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="227">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -834,7 +834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -898,21 +898,10 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,6 +927,70 @@
       <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1458,7 +1511,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="370">
+  <cellStyleXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1829,8 +1882,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1844,31 +1949,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1956,72 +2039,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2039,12 +2056,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2054,61 +2065,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2226,7 +2183,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2252,22 +2209,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2280,7 +2237,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2331,12 +2288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2424,13 +2375,13 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2439,7 +2390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2466,16 +2417,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="23" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="24" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="23" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="24" xfId="359" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,19 +2435,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2532,13 +2483,13 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2565,7 +2516,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="23" xfId="359" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2610,14 +2561,271 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </